--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_7/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_7/forecast_point_GW3.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.740925527091404</v>
+        <v>2.7137876505855485</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4380965734931572</v>
+        <v>2.385159120017426</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740925527091404</v>
+        <v>2.4482088829873416</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4380965734931572</v>
+        <v>2.654216701819798</v>
       </c>
       <c r="F2" t="n">
-        <v>2.740925527091404</v>
+        <v>2.611226990962153</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4380965734931572</v>
+        <v>2.617507753757013</v>
       </c>
       <c r="H2" t="n">
-        <v>2.740925527091404</v>
+        <v>2.5440767926682817</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4380965734931572</v>
+        <v>2.3402770922683223</v>
       </c>
       <c r="J2" t="n">
-        <v>2.740925527091404</v>
+        <v>2.6413321567829966</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4380965734931572</v>
+        <v>2.6574575038261132</v>
       </c>
       <c r="L2" t="n">
-        <v>2.740925527091404</v>
+        <v>2.654216701819798</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.392573339297325</v>
+        <v>3.358983504254777</v>
       </c>
       <c r="C10" t="n">
-        <v>3.3529972887849384</v>
+        <v>3.331759822826559</v>
       </c>
       <c r="D10" t="n">
-        <v>3.392573339297325</v>
+        <v>3.213555477718721</v>
       </c>
       <c r="E10" t="n">
-        <v>3.3529972887849384</v>
+        <v>2.867029375161037</v>
       </c>
       <c r="F10" t="n">
-        <v>3.392573339297325</v>
+        <v>2.9266937328659792</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3529972887849384</v>
+        <v>3.262602414822835</v>
       </c>
       <c r="H10" t="n">
-        <v>3.392573339297325</v>
+        <v>2.9838876377652372</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3529972887849384</v>
+        <v>3.010784651654694</v>
       </c>
       <c r="J10" t="n">
-        <v>3.392573339297325</v>
+        <v>2.93957247385528</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3529972887849384</v>
+        <v>3.2290892781377347</v>
       </c>
       <c r="L10" t="n">
-        <v>3.392573339297325</v>
+        <v>2.867029375161037</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.44035953179333</v>
+        <v>2.4647631271112638</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6684266905087477</v>
+        <v>2.675426640599119</v>
       </c>
       <c r="D13" t="n">
-        <v>2.44035953179333</v>
+        <v>2.6591922575446594</v>
       </c>
       <c r="E13" t="n">
-        <v>2.6684266905087477</v>
+        <v>2.3561015256213134</v>
       </c>
       <c r="F13" t="n">
-        <v>2.44035953179333</v>
+        <v>2.6352067592026107</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6684266905087477</v>
+        <v>2.672163925010208</v>
       </c>
       <c r="H13" t="n">
-        <v>2.44035953179333</v>
+        <v>2.6288835272862174</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6684266905087477</v>
+        <v>2.401287035662838</v>
       </c>
       <c r="J13" t="n">
-        <v>2.44035953179333</v>
+        <v>2.7544618712311624</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6684266905087477</v>
+        <v>2.732137679286311</v>
       </c>
       <c r="L13" t="n">
-        <v>2.44035953179333</v>
+        <v>2.3561015256213134</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.224437458977049</v>
+        <v>3.1931322409287284</v>
       </c>
       <c r="C19" t="n">
-        <v>3.3515753079549175</v>
+        <v>3.312571436385083</v>
       </c>
       <c r="D19" t="n">
-        <v>3.224437458977049</v>
+        <v>3.5624196895945297</v>
       </c>
       <c r="E19" t="n">
-        <v>3.3515753079549175</v>
+        <v>3.1056491671056667</v>
       </c>
       <c r="F19" t="n">
-        <v>3.224437458977049</v>
+        <v>3.047209530551776</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3515753079549175</v>
+        <v>3.439204933506741</v>
       </c>
       <c r="H19" t="n">
-        <v>3.224437458977049</v>
+        <v>3.5335472111735164</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3515753079549175</v>
+        <v>3.4602012981490207</v>
       </c>
       <c r="J19" t="n">
-        <v>3.224437458977049</v>
+        <v>3.455981540243899</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3515753079549175</v>
+        <v>3.4081838427990085</v>
       </c>
       <c r="L19" t="n">
-        <v>3.224437458977049</v>
+        <v>3.1056491671056667</v>
       </c>
     </row>
     <row r="20">
@@ -980,34 +980,34 @@
         <v>2.9058284076933067</v>
       </c>
       <c r="C24" t="n">
-        <v>3.3254130631174137</v>
+        <v>3.3027220437625653</v>
       </c>
       <c r="D24" t="n">
-        <v>2.9058284076933067</v>
+        <v>3.166689557948571</v>
       </c>
       <c r="E24" t="n">
-        <v>3.3254130631174137</v>
+        <v>2.9663001932452278</v>
       </c>
       <c r="F24" t="n">
-        <v>2.9058284076933067</v>
+        <v>3.024268093763805</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3254130631174137</v>
+        <v>3.272788007225585</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9058284076933067</v>
+        <v>2.9793532200981296</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3254130631174137</v>
+        <v>3.290682962544928</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9058284076933067</v>
+        <v>3.0463802899114536</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3254130631174137</v>
+        <v>3.3067546716253875</v>
       </c>
       <c r="L24" t="n">
-        <v>2.9058284076933067</v>
+        <v>2.9663001932452278</v>
       </c>
     </row>
     <row r="25">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>6.126520860249055</v>
+        <v>6.250288958435906</v>
       </c>
       <c r="C26" t="n">
-        <v>5.606721199930853</v>
+        <v>5.731150545218673</v>
       </c>
       <c r="D26" t="n">
-        <v>6.126520860249055</v>
+        <v>6.295608270099059</v>
       </c>
       <c r="E26" t="n">
-        <v>5.606721199930853</v>
+        <v>5.869989684328604</v>
       </c>
       <c r="F26" t="n">
-        <v>6.126520860249055</v>
+        <v>5.860085317072409</v>
       </c>
       <c r="G26" t="n">
-        <v>5.606721199930853</v>
+        <v>6.330031406719207</v>
       </c>
       <c r="H26" t="n">
-        <v>6.126520860249055</v>
+        <v>5.589716570267854</v>
       </c>
       <c r="I26" t="n">
-        <v>5.606721199930853</v>
+        <v>5.706041450580241</v>
       </c>
       <c r="J26" t="n">
-        <v>6.126520860249055</v>
+        <v>5.81754980159452</v>
       </c>
       <c r="K26" t="n">
-        <v>5.606721199930853</v>
+        <v>6.091514918119536</v>
       </c>
       <c r="L26" t="n">
-        <v>6.126520860249055</v>
+        <v>5.869989684328604</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1.2525853575765031</v>
+        <v>1.265633121717925</v>
       </c>
       <c r="C31" t="n">
-        <v>1.166891799834493</v>
+        <v>1.1736518970099923</v>
       </c>
       <c r="D31" t="n">
-        <v>1.2525853575765031</v>
+        <v>1.2987731401822427</v>
       </c>
       <c r="E31" t="n">
-        <v>1.166891799834493</v>
+        <v>1.2640971591086716</v>
       </c>
       <c r="F31" t="n">
-        <v>1.2525853575765031</v>
+        <v>1.309385365581447</v>
       </c>
       <c r="G31" t="n">
-        <v>1.166891799834493</v>
+        <v>1.2718144790733334</v>
       </c>
       <c r="H31" t="n">
-        <v>1.2525853575765031</v>
+        <v>1.141497050983685</v>
       </c>
       <c r="I31" t="n">
-        <v>1.166891799834493</v>
+        <v>1.2496893329324386</v>
       </c>
       <c r="J31" t="n">
-        <v>1.2525853575765031</v>
+        <v>1.1200172671454498</v>
       </c>
       <c r="K31" t="n">
-        <v>1.166891799834493</v>
+        <v>1.2175523770865477</v>
       </c>
       <c r="L31" t="n">
-        <v>1.2525853575765031</v>
+        <v>1.2640971591086716</v>
       </c>
     </row>
     <row r="32">
@@ -1284,34 +1284,34 @@
         <v>1.5541942815452443</v>
       </c>
       <c r="C32" t="n">
-        <v>1.7305702047109395</v>
+        <v>1.7211192742996986</v>
       </c>
       <c r="D32" t="n">
-        <v>1.5541942815452443</v>
+        <v>1.723210549351099</v>
       </c>
       <c r="E32" t="n">
-        <v>1.7305702047109395</v>
+        <v>1.7827809942846713</v>
       </c>
       <c r="F32" t="n">
-        <v>1.5541942815452443</v>
+        <v>1.7683320213191265</v>
       </c>
       <c r="G32" t="n">
-        <v>1.7305702047109395</v>
+        <v>1.5249486893806</v>
       </c>
       <c r="H32" t="n">
-        <v>1.5541942815452443</v>
+        <v>1.729514976728291</v>
       </c>
       <c r="I32" t="n">
-        <v>1.7305702047109395</v>
+        <v>1.7055950475789496</v>
       </c>
       <c r="J32" t="n">
-        <v>1.5541942815452443</v>
+        <v>1.6577466760155282</v>
       </c>
       <c r="K32" t="n">
-        <v>1.7305702047109395</v>
+        <v>1.7015024377662165</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5541942815452443</v>
+        <v>1.7827809942846713</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8153535343431435</v>
+        <v>0.8238468003258845</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8120833522671718</v>
+        <v>0.8198426852896767</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8153535343431435</v>
+        <v>0.7602597516837472</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8120833522671718</v>
+        <v>0.8413098871684146</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8153535343431435</v>
+        <v>0.8228421090525346</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8120833522671718</v>
+        <v>0.8095147329097313</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8153535343431435</v>
+        <v>0.848184197913675</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8120833522671718</v>
+        <v>0.7886972876915086</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8153535343431435</v>
+        <v>0.811461852035701</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8120833522671718</v>
+        <v>0.7255166984101582</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8153535343431435</v>
+        <v>0.8413098871684146</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.9241048624003576</v>
+        <v>4.003379708105415</v>
       </c>
       <c r="C38" t="n">
-        <v>3.874441926228125</v>
+        <v>3.9622573786574433</v>
       </c>
       <c r="D38" t="n">
-        <v>3.9241048624003576</v>
+        <v>3.5179913957383335</v>
       </c>
       <c r="E38" t="n">
-        <v>3.874441926228125</v>
+        <v>3.933734832569902</v>
       </c>
       <c r="F38" t="n">
-        <v>3.9241048624003576</v>
+        <v>3.832575080868175</v>
       </c>
       <c r="G38" t="n">
-        <v>3.874441926228125</v>
+        <v>3.5931703923515066</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9241048624003576</v>
+        <v>4.003379708105415</v>
       </c>
       <c r="I38" t="n">
-        <v>3.874441926228125</v>
+        <v>3.979087358351703</v>
       </c>
       <c r="J38" t="n">
-        <v>3.9241048624003576</v>
+        <v>4.088239377984102</v>
       </c>
       <c r="K38" t="n">
-        <v>3.874441926228125</v>
+        <v>4.121644224775885</v>
       </c>
       <c r="L38" t="n">
-        <v>3.9241048624003576</v>
+        <v>3.933734832569902</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3.9707055740291146</v>
+        <v>4.01081371114052</v>
       </c>
       <c r="C45" t="n">
-        <v>4.201064960066191</v>
+        <v>4.263006417724219</v>
       </c>
       <c r="D45" t="n">
-        <v>3.9707055740291146</v>
+        <v>3.9932416895620317</v>
       </c>
       <c r="E45" t="n">
-        <v>4.201064960066191</v>
+        <v>4.261636075859118</v>
       </c>
       <c r="F45" t="n">
-        <v>3.9707055740291146</v>
+        <v>4.451562468949635</v>
       </c>
       <c r="G45" t="n">
-        <v>4.201064960066191</v>
+        <v>4.583066828317006</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9707055740291146</v>
+        <v>4.384641809712195</v>
       </c>
       <c r="I45" t="n">
-        <v>4.201064960066191</v>
+        <v>4.446133733942645</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9707055740291146</v>
+        <v>3.995429769189364</v>
       </c>
       <c r="K45" t="n">
-        <v>4.201064960066191</v>
+        <v>4.424550563926666</v>
       </c>
       <c r="L45" t="n">
-        <v>3.9707055740291146</v>
+        <v>4.261636075859118</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.83455911729019</v>
+        <v>1.8163951656338517</v>
       </c>
       <c r="C51" t="n">
-        <v>1.72004398030073</v>
+        <v>1.6989117885657552</v>
       </c>
       <c r="D51" t="n">
-        <v>1.83455911729019</v>
+        <v>1.7654384330175017</v>
       </c>
       <c r="E51" t="n">
-        <v>1.72004398030073</v>
+        <v>1.8441179232033906</v>
       </c>
       <c r="F51" t="n">
-        <v>1.83455911729019</v>
+        <v>1.655158991849667</v>
       </c>
       <c r="G51" t="n">
-        <v>1.72004398030073</v>
+        <v>1.8832077047356222</v>
       </c>
       <c r="H51" t="n">
-        <v>1.83455911729019</v>
+        <v>1.8329278885716902</v>
       </c>
       <c r="I51" t="n">
-        <v>1.72004398030073</v>
+        <v>1.8985953224941545</v>
       </c>
       <c r="J51" t="n">
-        <v>1.83455911729019</v>
+        <v>1.812036688696887</v>
       </c>
       <c r="K51" t="n">
-        <v>1.72004398030073</v>
+        <v>1.841868998787179</v>
       </c>
       <c r="L51" t="n">
-        <v>1.83455911729019</v>
+        <v>1.8441179232033906</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4.037876192277202</v>
+        <v>3.9982891707842874</v>
       </c>
       <c r="C59" t="n">
-        <v>3.779131692412526</v>
+        <v>3.74527585445758</v>
       </c>
       <c r="D59" t="n">
-        <v>4.037876192277202</v>
+        <v>3.8184666187100365</v>
       </c>
       <c r="E59" t="n">
-        <v>3.779131692412526</v>
+        <v>4.112371445806819</v>
       </c>
       <c r="F59" t="n">
-        <v>4.037876192277202</v>
+        <v>4.149802011036978</v>
       </c>
       <c r="G59" t="n">
-        <v>3.779131692412526</v>
+        <v>3.997003922182098</v>
       </c>
       <c r="H59" t="n">
-        <v>4.037876192277202</v>
+        <v>3.676813822502042</v>
       </c>
       <c r="I59" t="n">
-        <v>3.779131692412526</v>
+        <v>4.263636976139857</v>
       </c>
       <c r="J59" t="n">
-        <v>4.037876192277202</v>
+        <v>4.175136574664785</v>
       </c>
       <c r="K59" t="n">
-        <v>3.779131692412526</v>
+        <v>3.7473280622709213</v>
       </c>
       <c r="L59" t="n">
-        <v>4.037876192277202</v>
+        <v>4.112371445806819</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>3.2142963259181268</v>
       </c>
       <c r="C62" t="n">
-        <v>3.319900108151184</v>
+        <v>3.3381301897980085</v>
       </c>
       <c r="D62" t="n">
-        <v>3.2142963259181268</v>
+        <v>3.6499335566082936</v>
       </c>
       <c r="E62" t="n">
-        <v>3.319900108151184</v>
+        <v>3.4953323208692413</v>
       </c>
       <c r="F62" t="n">
-        <v>3.2142963259181268</v>
+        <v>3.632193906676542</v>
       </c>
       <c r="G62" t="n">
-        <v>3.319900108151184</v>
+        <v>3.2885539977720697</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2142963259181268</v>
+        <v>3.612441791869074</v>
       </c>
       <c r="I62" t="n">
-        <v>3.319900108151184</v>
+        <v>3.3625372156418516</v>
       </c>
       <c r="J62" t="n">
-        <v>3.2142963259181268</v>
+        <v>3.207398693950337</v>
       </c>
       <c r="K62" t="n">
-        <v>3.319900108151184</v>
+        <v>3.368220375816895</v>
       </c>
       <c r="L62" t="n">
-        <v>3.2142963259181268</v>
+        <v>3.4953323208692413</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2.157230926971987</v>
+        <v>2.1360816041585364</v>
       </c>
       <c r="C65" t="n">
-        <v>2.1982697505235573</v>
+        <v>2.197736396030132</v>
       </c>
       <c r="D65" t="n">
-        <v>2.157230926971987</v>
+        <v>2.0026496581954794</v>
       </c>
       <c r="E65" t="n">
-        <v>2.1982697505235573</v>
+        <v>2.055588091191969</v>
       </c>
       <c r="F65" t="n">
-        <v>2.157230926971987</v>
+        <v>1.9607487251945481</v>
       </c>
       <c r="G65" t="n">
-        <v>2.1982697505235573</v>
+        <v>2.0015529158746475</v>
       </c>
       <c r="H65" t="n">
-        <v>2.157230926971987</v>
+        <v>2.231279379661469</v>
       </c>
       <c r="I65" t="n">
-        <v>2.1982697505235573</v>
+        <v>2.1367684676065983</v>
       </c>
       <c r="J65" t="n">
-        <v>2.157230926971987</v>
+        <v>2.2083598935195146</v>
       </c>
       <c r="K65" t="n">
-        <v>2.1982697505235573</v>
+        <v>2.040667574793627</v>
       </c>
       <c r="L65" t="n">
-        <v>2.157230926971987</v>
+        <v>2.055588091191969</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>3.948716004521652</v>
+        <v>3.9096198064570813</v>
       </c>
       <c r="C69" t="n">
-        <v>3.5124452908934427</v>
+        <v>3.436180916793479</v>
       </c>
       <c r="D69" t="n">
-        <v>3.948716004521652</v>
+        <v>3.527013595631272</v>
       </c>
       <c r="E69" t="n">
-        <v>3.5124452908934427</v>
+        <v>3.8237988833889975</v>
       </c>
       <c r="F69" t="n">
-        <v>3.948716004521652</v>
+        <v>3.76186573065811</v>
       </c>
       <c r="G69" t="n">
-        <v>3.5124452908934427</v>
+        <v>3.7709141153455206</v>
       </c>
       <c r="H69" t="n">
-        <v>3.948716004521652</v>
+        <v>3.665125757211553</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5124452908934427</v>
+        <v>3.3715215965979617</v>
       </c>
       <c r="J69" t="n">
-        <v>3.948716004521652</v>
+        <v>3.805236755854001</v>
       </c>
       <c r="K69" t="n">
-        <v>3.5124452908934427</v>
+        <v>3.8284677467431223</v>
       </c>
       <c r="L69" t="n">
-        <v>3.948716004521652</v>
+        <v>3.8237988833889975</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>4.839431018798106</v>
+        <v>4.743600701594184</v>
       </c>
       <c r="C76" t="n">
-        <v>4.304750372808903</v>
+        <v>4.169170153267952</v>
       </c>
       <c r="D76" t="n">
-        <v>4.839431018798106</v>
+        <v>4.27937881303354</v>
       </c>
       <c r="E76" t="n">
-        <v>4.304750372808903</v>
+        <v>4.639472880724016</v>
       </c>
       <c r="F76" t="n">
-        <v>4.839431018798106</v>
+        <v>4.564328452035332</v>
       </c>
       <c r="G76" t="n">
-        <v>4.304750372808903</v>
+        <v>4.575306993703402</v>
       </c>
       <c r="H76" t="n">
-        <v>4.839431018798106</v>
+        <v>4.446952382588533</v>
       </c>
       <c r="I76" t="n">
-        <v>4.304750372808903</v>
+        <v>4.090718024460571</v>
       </c>
       <c r="J76" t="n">
-        <v>4.839431018798106</v>
+        <v>4.616951171310568</v>
       </c>
       <c r="K76" t="n">
-        <v>4.304750372808903</v>
+        <v>4.6451376830778655</v>
       </c>
       <c r="L76" t="n">
-        <v>4.839431018798106</v>
+        <v>4.639472880724016</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2.8723404386648053</v>
+        <v>2.8154624101763934</v>
       </c>
       <c r="C79" t="n">
-        <v>2.5549922141977834</v>
+        <v>2.4745214841144683</v>
       </c>
       <c r="D79" t="n">
-        <v>2.8723404386648053</v>
+        <v>2.5399334693057294</v>
       </c>
       <c r="E79" t="n">
-        <v>2.5549922141977834</v>
+        <v>2.753659576431341</v>
       </c>
       <c r="F79" t="n">
-        <v>2.8723404386648053</v>
+        <v>2.709059213201766</v>
       </c>
       <c r="G79" t="n">
-        <v>2.5549922141977834</v>
+        <v>2.7155752910357656</v>
       </c>
       <c r="H79" t="n">
-        <v>2.8723404386648053</v>
+        <v>2.6393931657895844</v>
       </c>
       <c r="I79" t="n">
-        <v>2.5549922141977834</v>
+        <v>2.4279579064547243</v>
       </c>
       <c r="J79" t="n">
-        <v>2.8723404386648053</v>
+        <v>2.7402922990706706</v>
       </c>
       <c r="K79" t="n">
-        <v>2.5549922141977834</v>
+        <v>2.7570217983154435</v>
       </c>
       <c r="L79" t="n">
-        <v>2.8723404386648053</v>
+        <v>2.753659576431341</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.130487943871435</v>
+        <v>3.099796885598185</v>
       </c>
       <c r="C90" t="n">
-        <v>3.093969249475064</v>
+        <v>3.074673843821167</v>
       </c>
       <c r="D90" t="n">
-        <v>3.130487943871435</v>
+        <v>2.9655904082028246</v>
       </c>
       <c r="E90" t="n">
-        <v>3.093969249475064</v>
+        <v>2.6458030284416076</v>
       </c>
       <c r="F90" t="n">
-        <v>3.130487943871435</v>
+        <v>2.7008635519484145</v>
       </c>
       <c r="G90" t="n">
-        <v>3.093969249475064</v>
+        <v>3.0108527748357305</v>
       </c>
       <c r="H90" t="n">
-        <v>3.130487943871435</v>
+        <v>2.7536442482684023</v>
       </c>
       <c r="I90" t="n">
-        <v>3.093969249475064</v>
+        <v>2.778465828898619</v>
       </c>
       <c r="J90" t="n">
-        <v>3.130487943871435</v>
+        <v>2.712748540713168</v>
       </c>
       <c r="K90" t="n">
-        <v>3.093969249475064</v>
+        <v>2.9799255861217904</v>
       </c>
       <c r="L90" t="n">
-        <v>3.130487943871435</v>
+        <v>2.6458030284416076</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3.9857004996900427</v>
+        <v>3.9466250045950426</v>
       </c>
       <c r="C93" t="n">
-        <v>3.939205326696775</v>
+        <v>3.914638642737165</v>
       </c>
       <c r="D93" t="n">
-        <v>3.9857004996900427</v>
+        <v>3.7757548930958063</v>
       </c>
       <c r="E93" t="n">
-        <v>3.939205326696775</v>
+        <v>3.3686053553363347</v>
       </c>
       <c r="F93" t="n">
-        <v>3.9857004996900427</v>
+        <v>3.4387077674807105</v>
       </c>
       <c r="G93" t="n">
-        <v>3.939205326696775</v>
+        <v>3.8333824069340565</v>
       </c>
       <c r="H93" t="n">
-        <v>3.9857004996900427</v>
+        <v>3.5059075304149205</v>
       </c>
       <c r="I93" t="n">
-        <v>3.939205326696775</v>
+        <v>3.537510075479702</v>
       </c>
       <c r="J93" t="n">
-        <v>3.9857004996900427</v>
+        <v>3.453839595651851</v>
       </c>
       <c r="K93" t="n">
-        <v>3.939205326696775</v>
+        <v>3.7940062733340283</v>
       </c>
       <c r="L93" t="n">
-        <v>3.9857004996900427</v>
+        <v>3.3686053553363347</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0219527777185413</v>
+        <v>2.992032453186675</v>
       </c>
       <c r="C94" t="n">
-        <v>2.9867001998621676</v>
+        <v>2.9677828139058424</v>
       </c>
       <c r="D94" t="n">
-        <v>3.0219527777185413</v>
+        <v>2.862491663704498</v>
       </c>
       <c r="E94" t="n">
-        <v>2.9867001998621676</v>
+        <v>2.553821691549064</v>
       </c>
       <c r="F94" t="n">
-        <v>3.0219527777185413</v>
+        <v>2.6069680360683507</v>
       </c>
       <c r="G94" t="n">
-        <v>2.9867001998621676</v>
+        <v>2.90618048425364</v>
       </c>
       <c r="H94" t="n">
-        <v>3.0219527777185413</v>
+        <v>2.6579138115883225</v>
       </c>
       <c r="I94" t="n">
-        <v>2.9867001998621676</v>
+        <v>2.681872470018508</v>
       </c>
       <c r="J94" t="n">
-        <v>3.0219527777185413</v>
+        <v>2.618439843222915</v>
       </c>
       <c r="K94" t="n">
-        <v>2.9867001998621676</v>
+        <v>2.876328479192321</v>
       </c>
       <c r="L94" t="n">
-        <v>3.0219527777185413</v>
+        <v>2.553821691549064</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4.126564318552344</v>
+        <v>4.08610780562536</v>
       </c>
       <c r="C97" t="n">
-        <v>4.078425899252183</v>
+        <v>4.052990972202155</v>
       </c>
       <c r="D97" t="n">
-        <v>4.126564318552344</v>
+        <v>3.909198751552019</v>
       </c>
       <c r="E97" t="n">
-        <v>4.078425899252183</v>
+        <v>3.487659613083392</v>
       </c>
       <c r="F97" t="n">
-        <v>4.126564318552344</v>
+        <v>3.5602396056397643</v>
       </c>
       <c r="G97" t="n">
-        <v>4.078425899252183</v>
+        <v>3.968862954216092</v>
       </c>
       <c r="H97" t="n">
-        <v>4.126564318552344</v>
+        <v>3.629814362689636</v>
       </c>
       <c r="I97" t="n">
-        <v>4.078425899252183</v>
+        <v>3.662533814351875</v>
       </c>
       <c r="J97" t="n">
-        <v>4.126564318552344</v>
+        <v>3.575906227406841</v>
       </c>
       <c r="K97" t="n">
-        <v>4.078425899252183</v>
+        <v>3.9280951775281387</v>
       </c>
       <c r="L97" t="n">
-        <v>4.126564318552344</v>
+        <v>3.487659613083392</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.473109714512531</v>
+        <v>1.4583786173674056</v>
       </c>
       <c r="C100" t="n">
-        <v>1.6107812103261259</v>
+        <v>1.5830263614653353</v>
       </c>
       <c r="D100" t="n">
-        <v>1.473109714512531</v>
+        <v>1.573420620105303</v>
       </c>
       <c r="E100" t="n">
-        <v>1.6107812103261259</v>
+        <v>1.3940845055321758</v>
       </c>
       <c r="F100" t="n">
-        <v>1.473109714512531</v>
+        <v>1.559228612149576</v>
       </c>
       <c r="G100" t="n">
-        <v>1.6107812103261259</v>
+        <v>1.581095841409643</v>
       </c>
       <c r="H100" t="n">
-        <v>1.473109714512531</v>
+        <v>1.5554872115589518</v>
       </c>
       <c r="I100" t="n">
-        <v>1.6107812103261259</v>
+        <v>1.4208203735490885</v>
       </c>
       <c r="J100" t="n">
-        <v>1.473109714512531</v>
+        <v>1.6297908107970502</v>
       </c>
       <c r="K100" t="n">
-        <v>1.6107812103261259</v>
+        <v>1.6165817831934384</v>
       </c>
       <c r="L100" t="n">
-        <v>1.473109714512531</v>
+        <v>1.3940845055321758</v>
       </c>
     </row>
     <row r="101">
@@ -3906,34 +3906,34 @@
         <v>1.58443197000878</v>
       </c>
       <c r="C101" t="n">
-        <v>1.7325072404228186</v>
+        <v>1.7198535048463817</v>
       </c>
       <c r="D101" t="n">
-        <v>1.58443197000878</v>
+        <v>1.709417501791191</v>
       </c>
       <c r="E101" t="n">
-        <v>1.7325072404228186</v>
+        <v>1.5145806672936128</v>
       </c>
       <c r="F101" t="n">
-        <v>1.58443197000878</v>
+        <v>1.693998823228649</v>
       </c>
       <c r="G101" t="n">
-        <v>1.7325072404228186</v>
+        <v>1.717756122411837</v>
       </c>
       <c r="H101" t="n">
-        <v>1.58443197000878</v>
+        <v>1.6899340387907806</v>
       </c>
       <c r="I101" t="n">
-        <v>1.7325072404228186</v>
+        <v>1.5436274206726497</v>
       </c>
       <c r="J101" t="n">
-        <v>1.58443197000878</v>
+        <v>1.7706599879493619</v>
       </c>
       <c r="K101" t="n">
-        <v>1.7325072404228186</v>
+        <v>1.75630925256511</v>
       </c>
       <c r="L101" t="n">
-        <v>1.58443197000878</v>
+        <v>1.5145806672936128</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1.5832324027297833</v>
+        <v>1.5674000787024855</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7311955659327962</v>
+        <v>1.7013658963458216</v>
       </c>
       <c r="D104" t="n">
-        <v>1.5832324027297833</v>
+        <v>1.6910420753679134</v>
       </c>
       <c r="E104" t="n">
-        <v>1.7311955659327962</v>
+        <v>1.4982996443224486</v>
       </c>
       <c r="F104" t="n">
-        <v>1.5832324027297833</v>
+        <v>1.6757891402783223</v>
       </c>
       <c r="G104" t="n">
-        <v>1.7311955659327962</v>
+        <v>1.6992910597765012</v>
       </c>
       <c r="H104" t="n">
-        <v>1.5832324027297833</v>
+        <v>1.6717680503429886</v>
       </c>
       <c r="I104" t="n">
-        <v>1.7311955659327962</v>
+        <v>1.527034158895581</v>
       </c>
       <c r="J104" t="n">
-        <v>1.5832324027297833</v>
+        <v>1.7516262338810245</v>
       </c>
       <c r="K104" t="n">
-        <v>1.7311955659327962</v>
+        <v>1.7374297620876722</v>
       </c>
       <c r="L104" t="n">
-        <v>1.5832324027297833</v>
+        <v>1.4982996443224486</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>3.2158027261750646</v>
+        <v>3.1845813404840446</v>
       </c>
       <c r="C106" t="n">
-        <v>3.3426001122446247</v>
+        <v>3.303700689284364</v>
       </c>
       <c r="D106" t="n">
-        <v>3.2158027261750646</v>
+        <v>3.552879872947586</v>
       </c>
       <c r="E106" t="n">
-        <v>3.3426001122446247</v>
+        <v>3.0973325379026395</v>
       </c>
       <c r="F106" t="n">
-        <v>3.2158027261750646</v>
+        <v>3.0390493970640815</v>
       </c>
       <c r="G106" t="n">
-        <v>3.3426001122446247</v>
+        <v>3.4299950741033833</v>
       </c>
       <c r="H106" t="n">
-        <v>3.2158027261750646</v>
+        <v>3.5240847122415753</v>
       </c>
       <c r="I106" t="n">
-        <v>3.3426001122446247</v>
+        <v>3.4509352125044024</v>
       </c>
       <c r="J106" t="n">
-        <v>3.2158027261750646</v>
+        <v>3.4467267547043265</v>
       </c>
       <c r="K106" t="n">
-        <v>3.3426001122446247</v>
+        <v>3.399057054887313</v>
       </c>
       <c r="L106" t="n">
-        <v>3.2158027261750646</v>
+        <v>3.0973325379026395</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.9016752964273005</v>
+        <v>3.8637949537435405</v>
       </c>
       <c r="C107" t="n">
-        <v>4.055516272073088</v>
+        <v>4.00832030561222</v>
       </c>
       <c r="D107" t="n">
-        <v>3.9016752964273005</v>
+        <v>4.310644903252912</v>
       </c>
       <c r="E107" t="n">
-        <v>4.055516272073088</v>
+        <v>3.757937559288369</v>
       </c>
       <c r="F107" t="n">
-        <v>3.9016752964273005</v>
+        <v>3.6872236784408106</v>
       </c>
       <c r="G107" t="n">
-        <v>4.055516272073088</v>
+        <v>4.161550998936481</v>
       </c>
       <c r="H107" t="n">
-        <v>3.9016752964273005</v>
+        <v>4.275708255470128</v>
       </c>
       <c r="I107" t="n">
-        <v>4.055516272073088</v>
+        <v>4.186957290198695</v>
       </c>
       <c r="J107" t="n">
-        <v>3.9016752964273005</v>
+        <v>4.181851244451249</v>
       </c>
       <c r="K107" t="n">
-        <v>4.055516272073088</v>
+        <v>4.124014459672672</v>
       </c>
       <c r="L107" t="n">
-        <v>3.9016752964273005</v>
+        <v>3.757937559288369</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.47895941979872</v>
+        <v>2.5037490139967074</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5767034673562814</v>
+        <v>2.5974018117178033</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47895941979872</v>
+        <v>2.7933089243652915</v>
       </c>
       <c r="E111" t="n">
-        <v>2.5767034673562814</v>
+        <v>2.4351531515960367</v>
       </c>
       <c r="F111" t="n">
-        <v>2.47895941979872</v>
+        <v>2.389330375913695</v>
       </c>
       <c r="G111" t="n">
-        <v>2.5767034673562814</v>
+        <v>2.6966956929712422</v>
       </c>
       <c r="H111" t="n">
-        <v>2.47895941979872</v>
+        <v>2.7706698872306355</v>
       </c>
       <c r="I111" t="n">
-        <v>2.5767034673562814</v>
+        <v>2.713159034700971</v>
       </c>
       <c r="J111" t="n">
-        <v>2.47895941979872</v>
+        <v>2.709850303994854</v>
       </c>
       <c r="K111" t="n">
-        <v>2.5767034673562814</v>
+        <v>2.672371919506102</v>
       </c>
       <c r="L111" t="n">
-        <v>2.47895941979872</v>
+        <v>2.4351531515960367</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.8448124286907286</v>
+        <v>1.8640292248229238</v>
       </c>
       <c r="C116" t="n">
-        <v>2.041528697225998</v>
+        <v>2.077971528729856</v>
       </c>
       <c r="D116" t="n">
-        <v>1.8448124286907286</v>
+        <v>1.8299555722229428</v>
       </c>
       <c r="E116" t="n">
-        <v>2.041528697225998</v>
+        <v>2.0566268060159634</v>
       </c>
       <c r="F116" t="n">
-        <v>1.8448124286907286</v>
+        <v>1.9175872477906633</v>
       </c>
       <c r="G116" t="n">
-        <v>2.041528697225998</v>
+        <v>1.9899543193232467</v>
       </c>
       <c r="H116" t="n">
-        <v>1.8448124286907286</v>
+        <v>1.9143517244985828</v>
       </c>
       <c r="I116" t="n">
-        <v>2.041528697225998</v>
+        <v>1.8722317741069152</v>
       </c>
       <c r="J116" t="n">
-        <v>1.8448124286907286</v>
+        <v>2.067872033241487</v>
       </c>
       <c r="K116" t="n">
-        <v>2.041528697225998</v>
+        <v>1.82602862872591</v>
       </c>
       <c r="L116" t="n">
-        <v>1.8448124286907286</v>
+        <v>2.0566268060159634</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.5983410581522237</v>
+        <v>1.6144859173254786</v>
       </c>
       <c r="C117" t="n">
-        <v>1.7687755608238935</v>
+        <v>1.7997871090547675</v>
       </c>
       <c r="D117" t="n">
-        <v>1.5983410581522237</v>
+        <v>1.5849738090699144</v>
       </c>
       <c r="E117" t="n">
-        <v>1.7687755608238935</v>
+        <v>1.7812998698141538</v>
       </c>
       <c r="F117" t="n">
-        <v>1.5983410581522237</v>
+        <v>1.6608739635479965</v>
       </c>
       <c r="G117" t="n">
-        <v>1.7687755608238935</v>
+        <v>1.7235530333348668</v>
       </c>
       <c r="H117" t="n">
-        <v>1.5983410581522237</v>
+        <v>1.65807158967924</v>
       </c>
       <c r="I117" t="n">
-        <v>1.7687755608238935</v>
+        <v>1.6215903661875561</v>
       </c>
       <c r="J117" t="n">
-        <v>1.5983410581522237</v>
+        <v>1.791039663992787</v>
       </c>
       <c r="K117" t="n">
-        <v>1.7687755608238935</v>
+        <v>1.5815725775389577</v>
       </c>
       <c r="L117" t="n">
-        <v>1.5983410581522237</v>
+        <v>1.7812998698141538</v>
       </c>
     </row>
     <row r="118">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>2.058859120141636</v>
+        <v>2.0798678866736937</v>
       </c>
       <c r="C120" t="n">
-        <v>2.2783996421238677</v>
+        <v>2.3185828818955545</v>
       </c>
       <c r="D120" t="n">
-        <v>2.058859120141636</v>
+        <v>2.0418487961569625</v>
       </c>
       <c r="E120" t="n">
-        <v>2.2783996421238677</v>
+        <v>2.294766622616252</v>
       </c>
       <c r="F120" t="n">
-        <v>2.058859120141636</v>
+        <v>2.1396274712128878</v>
       </c>
       <c r="G120" t="n">
-        <v>2.2783996421238677</v>
+        <v>2.220374031475395</v>
       </c>
       <c r="H120" t="n">
-        <v>2.058859120141636</v>
+        <v>2.1360173019611572</v>
       </c>
       <c r="I120" t="n">
-        <v>2.2783996421238677</v>
+        <v>2.0890202210992728</v>
       </c>
       <c r="J120" t="n">
-        <v>2.058859120141636</v>
+        <v>2.3073139510986884</v>
       </c>
       <c r="K120" t="n">
-        <v>2.2783996421238677</v>
+        <v>2.0374671461466</v>
       </c>
       <c r="L120" t="n">
-        <v>2.058859120141636</v>
+        <v>2.294766622616252</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.220874509972035</v>
+        <v>2.198665764872315</v>
       </c>
       <c r="C126" t="n">
-        <v>2.5415558218966137</v>
+        <v>2.4989713326790124</v>
       </c>
       <c r="D126" t="n">
-        <v>2.220874509972035</v>
+        <v>2.3960437239193713</v>
       </c>
       <c r="E126" t="n">
-        <v>2.5415558218966137</v>
+        <v>2.2444211316660656</v>
       </c>
       <c r="F126" t="n">
-        <v>2.220874509972035</v>
+        <v>2.2882819590963037</v>
       </c>
       <c r="G126" t="n">
-        <v>2.5415558218966137</v>
+        <v>2.4763220457617092</v>
       </c>
       <c r="H126" t="n">
-        <v>2.220874509972035</v>
+        <v>2.2542975728191124</v>
       </c>
       <c r="I126" t="n">
-        <v>2.5415558218966137</v>
+        <v>2.489862083267156</v>
       </c>
       <c r="J126" t="n">
-        <v>2.220874509972035</v>
+        <v>2.305012929351554</v>
       </c>
       <c r="K126" t="n">
-        <v>2.5415558218966137</v>
+        <v>2.5020225798899567</v>
       </c>
       <c r="L126" t="n">
-        <v>2.220874509972035</v>
+        <v>2.2444211316660656</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>2.741625246836051</v>
+        <v>2.7693184311475263</v>
       </c>
       <c r="C127" t="n">
-        <v>3.0339705714295295</v>
+        <v>3.087164502186416</v>
       </c>
       <c r="D127" t="n">
-        <v>2.741625246836051</v>
+        <v>2.7186964811775045</v>
       </c>
       <c r="E127" t="n">
-        <v>3.0339705714295295</v>
+        <v>3.055453446784411</v>
       </c>
       <c r="F127" t="n">
-        <v>2.741625246836051</v>
+        <v>2.848887580689414</v>
       </c>
       <c r="G127" t="n">
-        <v>3.0339705714295295</v>
+        <v>2.956400629484232</v>
       </c>
       <c r="H127" t="n">
-        <v>2.741625246836051</v>
+        <v>2.8440806848704834</v>
       </c>
       <c r="I127" t="n">
-        <v>3.0339705714295295</v>
+        <v>2.78150465152007</v>
       </c>
       <c r="J127" t="n">
-        <v>2.741625246836051</v>
+        <v>3.0721600598585925</v>
       </c>
       <c r="K127" t="n">
-        <v>3.0339705714295295</v>
+        <v>2.7128623682464474</v>
       </c>
       <c r="L127" t="n">
-        <v>2.741625246836051</v>
+        <v>3.055453446784411</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>2.3590383586459325</v>
+        <v>2.383611674881828</v>
       </c>
       <c r="C128" t="n">
-        <v>2.158887675171084</v>
+        <v>2.1856329268826507</v>
       </c>
       <c r="D128" t="n">
-        <v>2.3590383586459325</v>
+        <v>2.400894658292075</v>
       </c>
       <c r="E128" t="n">
-        <v>2.158887675171084</v>
+        <v>2.23858065379795</v>
       </c>
       <c r="F128" t="n">
-        <v>2.3590383586459325</v>
+        <v>2.2348035219595372</v>
       </c>
       <c r="G128" t="n">
-        <v>2.158887675171084</v>
+        <v>2.4140222738118493</v>
       </c>
       <c r="H128" t="n">
-        <v>2.3590383586459325</v>
+        <v>2.1316956327575993</v>
       </c>
       <c r="I128" t="n">
-        <v>2.158887675171084</v>
+        <v>2.1760573166150485</v>
       </c>
       <c r="J128" t="n">
-        <v>2.3590383586459325</v>
+        <v>2.218582167720647</v>
       </c>
       <c r="K128" t="n">
-        <v>2.158887675171084</v>
+        <v>2.323061569329434</v>
       </c>
       <c r="L128" t="n">
-        <v>2.3590383586459325</v>
+        <v>2.23858065379795</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4.368446855398669</v>
+        <v>4.412572581210776</v>
       </c>
       <c r="C132" t="n">
-        <v>3.9978095486219085</v>
+        <v>4.046071777288125</v>
       </c>
       <c r="D132" t="n">
-        <v>4.368446855398669</v>
+        <v>4.444567062325809</v>
       </c>
       <c r="E132" t="n">
-        <v>3.9978095486219085</v>
+        <v>4.144089290159834</v>
       </c>
       <c r="F132" t="n">
-        <v>4.368446855398669</v>
+        <v>4.137097015133902</v>
       </c>
       <c r="G132" t="n">
-        <v>3.9978095486219085</v>
+        <v>4.468869072971946</v>
       </c>
       <c r="H132" t="n">
-        <v>4.368446855398669</v>
+        <v>3.946222364873789</v>
       </c>
       <c r="I132" t="n">
-        <v>3.9978095486219085</v>
+        <v>4.028345284436777</v>
       </c>
       <c r="J132" t="n">
-        <v>4.368446855398669</v>
+        <v>4.1070678355913985</v>
       </c>
       <c r="K132" t="n">
-        <v>3.9978095486219085</v>
+        <v>4.300481447254085</v>
       </c>
       <c r="L132" t="n">
-        <v>4.368446855398669</v>
+        <v>4.144089290159834</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.283036860565086</v>
+        <v>2.260206491959435</v>
       </c>
       <c r="C133" t="n">
-        <v>2.496401212517363</v>
+        <v>2.4533865324943163</v>
       </c>
       <c r="D133" t="n">
-        <v>2.283036860565086</v>
+        <v>2.438499480035182</v>
       </c>
       <c r="E133" t="n">
-        <v>2.496401212517363</v>
+        <v>2.1605629787906304</v>
       </c>
       <c r="F133" t="n">
-        <v>2.283036860565086</v>
+        <v>2.416504596036281</v>
       </c>
       <c r="G133" t="n">
-        <v>2.496401212517363</v>
+        <v>2.4503945975394483</v>
       </c>
       <c r="H133" t="n">
-        <v>2.283036860565086</v>
+        <v>2.410706144383709</v>
       </c>
       <c r="I133" t="n">
-        <v>2.496401212517363</v>
+        <v>2.201998434398914</v>
       </c>
       <c r="J133" t="n">
-        <v>2.283036860565086</v>
+        <v>2.525862438760173</v>
       </c>
       <c r="K133" t="n">
-        <v>2.496401212517363</v>
+        <v>2.505390985334692</v>
       </c>
       <c r="L133" t="n">
-        <v>2.283036860565086</v>
+        <v>2.1605629787906304</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>3.445907021273298</v>
+        <v>3.4810693378169026</v>
       </c>
       <c r="C138" t="n">
-        <v>3.1535418535044646</v>
+        <v>3.1919376153716</v>
       </c>
       <c r="D138" t="n">
-        <v>3.445907021273298</v>
+        <v>3.5063097174682536</v>
       </c>
       <c r="E138" t="n">
-        <v>3.1535418535044646</v>
+        <v>3.269263427547398</v>
       </c>
       <c r="F138" t="n">
-        <v>3.445907021273298</v>
+        <v>3.2637472363128333</v>
       </c>
       <c r="G138" t="n">
-        <v>3.1535418535044646</v>
+        <v>3.525481523155437</v>
       </c>
       <c r="H138" t="n">
-        <v>3.445907021273298</v>
+        <v>3.113166621454214</v>
       </c>
       <c r="I138" t="n">
-        <v>3.1535418535044646</v>
+        <v>3.1779532220055593</v>
       </c>
       <c r="J138" t="n">
-        <v>3.445907021273298</v>
+        <v>3.240057278987185</v>
       </c>
       <c r="K138" t="n">
-        <v>3.1535418535044646</v>
+        <v>3.392640875219082</v>
       </c>
       <c r="L138" t="n">
-        <v>3.445907021273298</v>
+        <v>3.269263427547398</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.911438181891482</v>
+        <v>2.8537859406659076</v>
       </c>
       <c r="C153" t="n">
-        <v>3.241839344196887</v>
+        <v>3.1602908629429316</v>
       </c>
       <c r="D153" t="n">
-        <v>2.911438181891482</v>
+        <v>3.1641308277469573</v>
       </c>
       <c r="E153" t="n">
-        <v>3.241839344196887</v>
+        <v>3.2735130975502016</v>
       </c>
       <c r="F153" t="n">
-        <v>2.911438181891482</v>
+        <v>3.246982131379655</v>
       </c>
       <c r="G153" t="n">
-        <v>3.241839344196887</v>
+        <v>2.8000856660368365</v>
       </c>
       <c r="H153" t="n">
-        <v>2.911438181891482</v>
+        <v>3.1757069134568416</v>
       </c>
       <c r="I153" t="n">
-        <v>3.241839344196887</v>
+        <v>3.1317855335375655</v>
       </c>
       <c r="J153" t="n">
-        <v>2.911438181891482</v>
+        <v>3.0439271417825218</v>
       </c>
       <c r="K153" t="n">
-        <v>3.241839344196887</v>
+        <v>3.124270750808731</v>
       </c>
       <c r="L153" t="n">
-        <v>2.911438181891482</v>
+        <v>3.2735130975502016</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>1.5953434842742844</v>
+        <v>1.5793900494315414</v>
       </c>
       <c r="C154" t="n">
-        <v>1.7763891766606275</v>
+        <v>1.7490211410449374</v>
       </c>
       <c r="D154" t="n">
-        <v>1.5953434842742844</v>
+        <v>1.75114631873091</v>
       </c>
       <c r="E154" t="n">
-        <v>1.7763891766606275</v>
+        <v>1.81168248791225</v>
       </c>
       <c r="F154" t="n">
-        <v>1.5953434842742844</v>
+        <v>1.7969992759114968</v>
       </c>
       <c r="G154" t="n">
-        <v>1.7763891766606275</v>
+        <v>1.5496703433413554</v>
       </c>
       <c r="H154" t="n">
-        <v>1.5953434842742844</v>
+        <v>1.7575529501187188</v>
       </c>
       <c r="I154" t="n">
-        <v>1.7763891766606275</v>
+        <v>1.733245243849194</v>
       </c>
       <c r="J154" t="n">
-        <v>1.5953434842742844</v>
+        <v>1.6846211800329025</v>
       </c>
       <c r="K154" t="n">
-        <v>1.7763891766606275</v>
+        <v>1.7290862868312784</v>
       </c>
       <c r="L154" t="n">
-        <v>1.5953434842742844</v>
+        <v>1.81168248791225</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>2.3103545308108693</v>
+        <v>2.2872509855027605</v>
       </c>
       <c r="C156" t="n">
-        <v>2.5725424168753253</v>
+        <v>2.5329084034434994</v>
       </c>
       <c r="D156" t="n">
-        <v>2.3103545308108693</v>
+        <v>2.535986056590902</v>
       </c>
       <c r="E156" t="n">
-        <v>2.5725424168753253</v>
+        <v>2.6236537056737976</v>
       </c>
       <c r="F156" t="n">
-        <v>2.3103545308108693</v>
+        <v>2.602389679646056</v>
       </c>
       <c r="G156" t="n">
-        <v>2.5725424168753253</v>
+        <v>2.2442113151768037</v>
       </c>
       <c r="H156" t="n">
-        <v>2.3103545308108693</v>
+        <v>2.5452640522074965</v>
       </c>
       <c r="I156" t="n">
-        <v>2.5725424168753253</v>
+        <v>2.510061965718289</v>
       </c>
       <c r="J156" t="n">
-        <v>2.3103545308108693</v>
+        <v>2.4396452640789503</v>
       </c>
       <c r="K156" t="n">
-        <v>2.5725424168753253</v>
+        <v>2.504039021264945</v>
       </c>
       <c r="L156" t="n">
-        <v>2.3103545308108693</v>
+        <v>2.6236537056737976</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.5000595453873002</v>
+        <v>1.4850589499334272</v>
       </c>
       <c r="C157" t="n">
-        <v>1.6702920512347337</v>
+        <v>1.6445586067016333</v>
       </c>
       <c r="D157" t="n">
-        <v>1.5000595453873002</v>
+        <v>1.646556855420427</v>
       </c>
       <c r="E157" t="n">
-        <v>1.6702920512347337</v>
+        <v>1.7034774241360462</v>
       </c>
       <c r="F157" t="n">
-        <v>1.5000595453873002</v>
+        <v>1.6896711858332683</v>
       </c>
       <c r="G157" t="n">
-        <v>1.6702920512347337</v>
+        <v>1.4571142914657442</v>
       </c>
       <c r="H157" t="n">
-        <v>1.5000595453873002</v>
+        <v>1.652580842519</v>
       </c>
       <c r="I157" t="n">
-        <v>1.6702920512347337</v>
+        <v>1.6297249452307379</v>
       </c>
       <c r="J157" t="n">
-        <v>1.5000595453873002</v>
+        <v>1.5840050160856178</v>
       </c>
       <c r="K157" t="n">
-        <v>1.6702920512347337</v>
+        <v>1.62581438726308</v>
       </c>
       <c r="L157" t="n">
-        <v>1.5000595453873002</v>
+        <v>1.7034774241360462</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>2.4600128271693658</v>
+        <v>2.4846129554410594</v>
       </c>
       <c r="C159" t="n">
-        <v>2.45014632200906</v>
+        <v>2.472537074233409</v>
       </c>
       <c r="D159" t="n">
-        <v>2.4600128271693658</v>
+        <v>2.29284282925738</v>
       </c>
       <c r="E159" t="n">
-        <v>2.45014632200906</v>
+        <v>2.5372793150042448</v>
       </c>
       <c r="F159" t="n">
-        <v>2.4600128271693658</v>
+        <v>2.4815829394805724</v>
       </c>
       <c r="G159" t="n">
-        <v>2.45014632200906</v>
+        <v>2.441389336236199</v>
       </c>
       <c r="H159" t="n">
-        <v>2.4600128271693658</v>
+        <v>2.5580113267455604</v>
       </c>
       <c r="I159" t="n">
-        <v>2.45014632200906</v>
+        <v>2.3786066755911364</v>
       </c>
       <c r="J159" t="n">
-        <v>2.4600128271693658</v>
+        <v>2.447261589917657</v>
       </c>
       <c r="K159" t="n">
-        <v>2.45014632200906</v>
+        <v>2.1880623770653083</v>
       </c>
       <c r="L159" t="n">
-        <v>2.4600128271693658</v>
+        <v>2.5372793150042448</v>
       </c>
     </row>
     <row r="160">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>2.1020004857711134</v>
+        <v>2.1230204906288246</v>
       </c>
       <c r="C164" t="n">
-        <v>2.0935698798772044</v>
+        <v>2.112702045178358</v>
       </c>
       <c r="D164" t="n">
-        <v>2.1020004857711134</v>
+        <v>1.959159191231328</v>
       </c>
       <c r="E164" t="n">
-        <v>2.0935698798772044</v>
+        <v>2.1680221719871264</v>
       </c>
       <c r="F164" t="n">
-        <v>2.1020004857711134</v>
+        <v>2.1204314411122955</v>
       </c>
       <c r="G164" t="n">
-        <v>2.0935698798772044</v>
+        <v>2.086087322003868</v>
       </c>
       <c r="H164" t="n">
-        <v>2.1020004857711134</v>
+        <v>2.1857369978083407</v>
       </c>
       <c r="I164" t="n">
-        <v>2.0935698798772044</v>
+        <v>2.0324415923083134</v>
       </c>
       <c r="J164" t="n">
-        <v>2.1020004857711134</v>
+        <v>2.0911049706740985</v>
       </c>
       <c r="K164" t="n">
-        <v>2.0935698798772044</v>
+        <v>1.8696277225436289</v>
       </c>
       <c r="L164" t="n">
-        <v>2.1020004857711134</v>
+        <v>2.1680221719871264</v>
       </c>
     </row>
     <row r="165">
@@ -6338,34 +6338,34 @@
         <v>4.613704452929653</v>
       </c>
       <c r="C165" t="n">
-        <v>4.59520002145263</v>
+        <v>4.5912806195600435</v>
       </c>
       <c r="D165" t="n">
-        <v>4.613704452929653</v>
+        <v>4.257604448228736</v>
       </c>
       <c r="E165" t="n">
-        <v>4.59520002145263</v>
+        <v>4.7115011810293534</v>
       </c>
       <c r="F165" t="n">
-        <v>4.613704452929653</v>
+        <v>4.608077983785342</v>
       </c>
       <c r="G165" t="n">
-        <v>4.59520002145263</v>
+        <v>4.53344205070701</v>
       </c>
       <c r="H165" t="n">
-        <v>4.613704452929653</v>
+        <v>4.749998676053531</v>
       </c>
       <c r="I165" t="n">
-        <v>4.59520002145263</v>
+        <v>4.416860254596446</v>
       </c>
       <c r="J165" t="n">
-        <v>4.613704452929653</v>
+        <v>4.544346301568114</v>
       </c>
       <c r="K165" t="n">
-        <v>4.59520002145263</v>
+        <v>4.063036502424586</v>
       </c>
       <c r="L165" t="n">
-        <v>4.613704452929653</v>
+        <v>4.7115011810293534</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4312335268382303</v>
+        <v>0.435772827120738</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4017313975750391</v>
+        <v>0.40410257636229024</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4312335268382303</v>
+        <v>0.4471833372355703</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4017313975750391</v>
+        <v>0.4352439765738452</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4312335268382303</v>
+        <v>0.45083725509288475</v>
       </c>
       <c r="G167" t="n">
-        <v>0.4017313975750391</v>
+        <v>0.43790114339500996</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4312335268382303</v>
+        <v>0.39303127306114377</v>
       </c>
       <c r="I167" t="n">
-        <v>0.4017313975750391</v>
+        <v>0.43028318735480287</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4312335268382303</v>
+        <v>0.3856355230854915</v>
       </c>
       <c r="K167" t="n">
-        <v>0.4017313975750391</v>
+        <v>0.41921804385965705</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4312335268382303</v>
+        <v>0.4352439765738452</v>
       </c>
     </row>
     <row r="168">
@@ -6452,34 +6452,34 @@
         <v>4.554306319194434</v>
       </c>
       <c r="C168" t="n">
-        <v>4.818523141105469</v>
+        <v>4.840672857250942</v>
       </c>
       <c r="D168" t="n">
-        <v>4.554306319194434</v>
+        <v>4.534353168866449</v>
       </c>
       <c r="E168" t="n">
-        <v>4.818523141105469</v>
+        <v>4.839116824718603</v>
       </c>
       <c r="F168" t="n">
-        <v>4.554306319194434</v>
+        <v>5.054779539202538</v>
       </c>
       <c r="G168" t="n">
-        <v>4.818523141105469</v>
+        <v>5.204103636007354</v>
       </c>
       <c r="H168" t="n">
-        <v>4.554306319194434</v>
+        <v>4.978790674298847</v>
       </c>
       <c r="I168" t="n">
-        <v>4.818523141105469</v>
+        <v>5.04861517358294</v>
       </c>
       <c r="J168" t="n">
-        <v>4.554306319194434</v>
+        <v>4.536837748204048</v>
       </c>
       <c r="K168" t="n">
-        <v>4.818523141105469</v>
+        <v>5.024107336851708</v>
       </c>
       <c r="L168" t="n">
-        <v>4.554306319194434</v>
+        <v>4.839116824718603</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.0433441292615895</v>
+        <v>1.0542122972747312</v>
       </c>
       <c r="C171" t="n">
-        <v>1.0866761276510397</v>
+        <v>1.0919810588300387</v>
       </c>
       <c r="D171" t="n">
-        <v>1.0433441292615895</v>
+        <v>1.0606482690274777</v>
       </c>
       <c r="E171" t="n">
-        <v>1.0866761276510397</v>
+        <v>1.0606482690274777</v>
       </c>
       <c r="F171" t="n">
-        <v>1.0433441292615895</v>
+        <v>0.955633589281435</v>
       </c>
       <c r="G171" t="n">
-        <v>1.0866761276510397</v>
+        <v>0.9700401261242998</v>
       </c>
       <c r="H171" t="n">
-        <v>1.0433441292615895</v>
+        <v>1.0554932357367484</v>
       </c>
       <c r="I171" t="n">
-        <v>1.0866761276510397</v>
+        <v>0.9320503565496844</v>
       </c>
       <c r="J171" t="n">
-        <v>1.0433441292615895</v>
+        <v>1.0157220996786551</v>
       </c>
       <c r="K171" t="n">
-        <v>1.0866761276510397</v>
+        <v>0.9514468044389133</v>
       </c>
       <c r="L171" t="n">
-        <v>1.0433441292615895</v>
+        <v>1.0606482690274777</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8932720585616608</v>
+        <v>0.9022950086481422</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9303712881613224</v>
+        <v>0.9346211019049493</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8932720585616608</v>
+        <v>0.9078035245356116</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9303712881613224</v>
+        <v>0.9078035245356116</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8932720585616608</v>
+        <v>0.8179219877573093</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9303712881613224</v>
+        <v>0.8302524702595779</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8932720585616608</v>
+        <v>0.9033913574420724</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9303712881613224</v>
+        <v>0.7977372173494369</v>
       </c>
       <c r="J175" t="n">
-        <v>0.8932720585616608</v>
+        <v>0.8693514419086911</v>
       </c>
       <c r="K175" t="n">
-        <v>0.9303712881613224</v>
+        <v>0.8143385396459024</v>
       </c>
       <c r="L175" t="n">
-        <v>0.8932720585616608</v>
+        <v>0.9078035245356116</v>
       </c>
     </row>
     <row r="176">
@@ -6756,34 +6756,34 @@
         <v>1.3584846763869791</v>
       </c>
       <c r="C176" t="n">
-        <v>1.414905040635307</v>
+        <v>1.4071544594578436</v>
       </c>
       <c r="D176" t="n">
-        <v>1.3584846763869791</v>
+        <v>1.3667782326529871</v>
       </c>
       <c r="E176" t="n">
-        <v>1.414905040635307</v>
+        <v>1.3667782326529871</v>
       </c>
       <c r="F176" t="n">
-        <v>1.3584846763869791</v>
+        <v>1.2314536556209408</v>
       </c>
       <c r="G176" t="n">
-        <v>1.414905040635307</v>
+        <v>1.2500182840088183</v>
       </c>
       <c r="H176" t="n">
-        <v>1.3584846763869791</v>
+        <v>1.3601353261437155</v>
       </c>
       <c r="I176" t="n">
-        <v>1.414905040635307</v>
+        <v>1.2010637044046895</v>
       </c>
       <c r="J176" t="n">
-        <v>1.3584846763869791</v>
+        <v>1.3088852325552687</v>
       </c>
       <c r="K176" t="n">
-        <v>1.414905040635307</v>
+        <v>1.2260584585941194</v>
       </c>
       <c r="L176" t="n">
-        <v>1.3584846763869791</v>
+        <v>1.3667782326529871</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>5.61899892335547</v>
+        <v>5.56336527064898</v>
       </c>
       <c r="C177" t="n">
-        <v>5.334533580057498</v>
+        <v>5.345486691197009</v>
       </c>
       <c r="D177" t="n">
-        <v>5.61899892335547</v>
+        <v>5.977196879922255</v>
       </c>
       <c r="E177" t="n">
-        <v>5.334533580057498</v>
+        <v>5.480741032142325</v>
       </c>
       <c r="F177" t="n">
-        <v>5.61899892335547</v>
+        <v>6.020536067930134</v>
       </c>
       <c r="G177" t="n">
-        <v>5.334533580057498</v>
+        <v>5.60404229407798</v>
       </c>
       <c r="H177" t="n">
-        <v>5.61899892335547</v>
+        <v>5.825360108102166</v>
       </c>
       <c r="I177" t="n">
-        <v>5.334533580057498</v>
+        <v>6.083020264179573</v>
       </c>
       <c r="J177" t="n">
-        <v>5.61899892335547</v>
+        <v>5.61351391266314</v>
       </c>
       <c r="K177" t="n">
-        <v>5.334533580057498</v>
+        <v>6.053455164338531</v>
       </c>
       <c r="L177" t="n">
-        <v>5.61899892335547</v>
+        <v>5.480741032142325</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>3.689801579079139</v>
+        <v>3.801613748142143</v>
       </c>
       <c r="C178" t="n">
-        <v>3.6431039533184655</v>
+        <v>3.7625639391348877</v>
       </c>
       <c r="D178" t="n">
-        <v>3.689801579079139</v>
+        <v>3.3406884759911604</v>
       </c>
       <c r="E178" t="n">
-        <v>3.6431039533184655</v>
+        <v>3.735478898183394</v>
       </c>
       <c r="F178" t="n">
-        <v>3.689801579079139</v>
+        <v>3.6394174873586067</v>
       </c>
       <c r="G178" t="n">
-        <v>3.6431039533184655</v>
+        <v>3.4120785333763055</v>
       </c>
       <c r="H178" t="n">
-        <v>3.689801579079139</v>
+        <v>3.801613748142143</v>
       </c>
       <c r="I178" t="n">
-        <v>3.6431039533184655</v>
+        <v>3.7785457062545817</v>
       </c>
       <c r="J178" t="n">
-        <v>3.689801579079139</v>
+        <v>3.882196583445141</v>
       </c>
       <c r="K178" t="n">
-        <v>3.6431039533184655</v>
+        <v>3.9139178624837263</v>
       </c>
       <c r="L178" t="n">
-        <v>3.689801579079139</v>
+        <v>3.735478898183394</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5.08640019608612</v>
+        <v>5.189155755603011</v>
       </c>
       <c r="C179" t="n">
-        <v>5.022027408624437</v>
+        <v>5.135853249196559</v>
       </c>
       <c r="D179" t="n">
-        <v>5.08640019608612</v>
+        <v>4.559998458901303</v>
       </c>
       <c r="E179" t="n">
-        <v>5.022027408624437</v>
+        <v>5.098882503230357</v>
       </c>
       <c r="F179" t="n">
-        <v>5.08640019608612</v>
+        <v>4.967759865346275</v>
       </c>
       <c r="G179" t="n">
-        <v>5.022027408624437</v>
+        <v>4.657445004425292</v>
       </c>
       <c r="H179" t="n">
-        <v>5.08640019608612</v>
+        <v>5.189155755603011</v>
       </c>
       <c r="I179" t="n">
-        <v>5.022027408624437</v>
+        <v>5.157668163685018</v>
       </c>
       <c r="J179" t="n">
-        <v>5.08640019608612</v>
+        <v>5.299150329307326</v>
       </c>
       <c r="K179" t="n">
-        <v>5.022027408624437</v>
+        <v>5.342449482930865</v>
       </c>
       <c r="L179" t="n">
-        <v>5.08640019608612</v>
+        <v>5.098882503230357</v>
       </c>
     </row>
     <row r="180">
@@ -7060,34 +7060,34 @@
         <v>1.580756050674098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.5607502175984556</v>
+        <v>1.5645186772965283</v>
       </c>
       <c r="D184" t="n">
-        <v>1.580756050674098</v>
+        <v>1.389097859934088</v>
       </c>
       <c r="E184" t="n">
-        <v>1.5607502175984556</v>
+        <v>1.5532563962750137</v>
       </c>
       <c r="F184" t="n">
-        <v>1.580756050674098</v>
+        <v>1.5133129231981441</v>
       </c>
       <c r="G184" t="n">
-        <v>1.5607502175984556</v>
+        <v>1.4187826918622894</v>
       </c>
       <c r="H184" t="n">
         <v>1.580756050674098</v>
       </c>
       <c r="I184" t="n">
-        <v>1.5607502175984556</v>
+        <v>1.5711640854701667</v>
       </c>
       <c r="J184" t="n">
-        <v>1.580756050674098</v>
+        <v>1.6142633486072298</v>
       </c>
       <c r="K184" t="n">
-        <v>1.5607502175984556</v>
+        <v>1.6274534323709657</v>
       </c>
       <c r="L184" t="n">
-        <v>1.580756050674098</v>
+        <v>1.5532563962750137</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>3.552440955250259</v>
+        <v>3.624207439194709</v>
       </c>
       <c r="C187" t="n">
-        <v>3.507481746818632</v>
+        <v>3.586979930647216</v>
       </c>
       <c r="D187" t="n">
-        <v>3.552440955250259</v>
+        <v>3.184791730258258</v>
       </c>
       <c r="E187" t="n">
-        <v>3.507481746818632</v>
+        <v>3.5611588416543456</v>
       </c>
       <c r="F187" t="n">
-        <v>3.552440955250259</v>
+        <v>3.4695802377257188</v>
       </c>
       <c r="G187" t="n">
-        <v>3.507481746818632</v>
+        <v>3.2528502954363283</v>
       </c>
       <c r="H187" t="n">
-        <v>3.552440955250259</v>
+        <v>3.624207439194709</v>
       </c>
       <c r="I187" t="n">
-        <v>3.507481746818632</v>
+        <v>3.602215891774245</v>
       </c>
       <c r="J187" t="n">
-        <v>3.552440955250259</v>
+        <v>3.7010297916283963</v>
       </c>
       <c r="K187" t="n">
-        <v>3.507481746818632</v>
+        <v>3.73127076377571</v>
       </c>
       <c r="L187" t="n">
-        <v>3.552440955250259</v>
+        <v>3.5611588416543456</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>1.6098493507346394</v>
+        <v>1.5937508572272931</v>
       </c>
       <c r="C195" t="n">
-        <v>1.842302197339203</v>
+        <v>1.8114339010845062</v>
       </c>
       <c r="D195" t="n">
-        <v>1.6098493507346394</v>
+        <v>1.7368245778695428</v>
       </c>
       <c r="E195" t="n">
-        <v>1.842302197339203</v>
+        <v>1.6269176332854653</v>
       </c>
       <c r="F195" t="n">
-        <v>1.6098493507346394</v>
+        <v>1.6587111111448434</v>
       </c>
       <c r="G195" t="n">
-        <v>1.842302197339203</v>
+        <v>1.795016071227527</v>
       </c>
       <c r="H195" t="n">
-        <v>1.6098493507346394</v>
+        <v>1.6340767871712025</v>
       </c>
       <c r="I195" t="n">
-        <v>1.842302197339203</v>
+        <v>1.804830862873427</v>
       </c>
       <c r="J195" t="n">
-        <v>1.6098493507346394</v>
+        <v>1.6708389200244698</v>
       </c>
       <c r="K195" t="n">
-        <v>1.842302197339203</v>
+        <v>1.8136456642072825</v>
       </c>
       <c r="L195" t="n">
-        <v>1.6098493507346394</v>
+        <v>1.6269176332854653</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>3.3694547853034424</v>
+        <v>3.404191432574612</v>
       </c>
       <c r="C200" t="n">
-        <v>3.5649327730693767</v>
+        <v>3.618240828268411</v>
       </c>
       <c r="D200" t="n">
-        <v>3.3694547853034424</v>
+        <v>3.3892771210112618</v>
       </c>
       <c r="E200" t="n">
-        <v>3.5649327730693767</v>
+        <v>3.6170777460679293</v>
       </c>
       <c r="F200" t="n">
-        <v>3.3694547853034424</v>
+        <v>3.778278401780927</v>
       </c>
       <c r="G200" t="n">
-        <v>3.5649327730693767</v>
+        <v>3.889893162711152</v>
       </c>
       <c r="H200" t="n">
-        <v>3.3694547853034424</v>
+        <v>3.721479270421232</v>
       </c>
       <c r="I200" t="n">
-        <v>3.5649327730693767</v>
+        <v>3.773670744948305</v>
       </c>
       <c r="J200" t="n">
-        <v>3.3694547853034424</v>
+        <v>3.391134260848115</v>
       </c>
       <c r="K200" t="n">
-        <v>3.5649327730693767</v>
+        <v>3.7553519578522816</v>
       </c>
       <c r="L200" t="n">
-        <v>3.3694547853034424</v>
+        <v>3.6170777460679293</v>
       </c>
     </row>
     <row r="201">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>3.701561623475927</v>
+        <v>3.665271803637928</v>
       </c>
       <c r="C208" t="n">
-        <v>3.7104005621861016</v>
+        <v>3.638887125927251</v>
       </c>
       <c r="D208" t="n">
-        <v>3.701561623475927</v>
+        <v>3.698795630982026</v>
       </c>
       <c r="E208" t="n">
-        <v>3.7104005621861016</v>
+        <v>3.6853127824653193</v>
       </c>
       <c r="F208" t="n">
-        <v>3.701561623475927</v>
+        <v>3.703311865204204</v>
       </c>
       <c r="G208" t="n">
-        <v>3.7104005621861016</v>
+        <v>3.254305168991733</v>
       </c>
       <c r="H208" t="n">
-        <v>3.701561623475927</v>
+        <v>3.4174787811689247</v>
       </c>
       <c r="I208" t="n">
-        <v>3.7104005621861016</v>
+        <v>3.38694854241754</v>
       </c>
       <c r="J208" t="n">
-        <v>3.701561623475927</v>
+        <v>3.3220289353981585</v>
       </c>
       <c r="K208" t="n">
-        <v>3.7104005621861016</v>
+        <v>3.3366473253367808</v>
       </c>
       <c r="L208" t="n">
-        <v>3.701561623475927</v>
+        <v>3.6853127824653193</v>
       </c>
     </row>
     <row r="209">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>3.503795058340969</v>
+        <v>3.46944412639645</v>
       </c>
       <c r="C213" t="n">
-        <v>3.5121617513543373</v>
+        <v>3.4444691259014486</v>
       </c>
       <c r="D213" t="n">
-        <v>3.503795058340969</v>
+        <v>3.501176846943359</v>
       </c>
       <c r="E213" t="n">
-        <v>3.5121617513543373</v>
+        <v>3.4884143583478475</v>
       </c>
       <c r="F213" t="n">
-        <v>3.503795058340969</v>
+        <v>3.5054517883760834</v>
       </c>
       <c r="G213" t="n">
-        <v>3.5121617513543373</v>
+        <v>3.0804345650037672</v>
       </c>
       <c r="H213" t="n">
-        <v>3.503795058340969</v>
+        <v>3.2348901581167127</v>
       </c>
       <c r="I213" t="n">
-        <v>3.5121617513543373</v>
+        <v>3.205991085090712</v>
       </c>
       <c r="J213" t="n">
-        <v>3.503795058340969</v>
+        <v>3.1445399946046515</v>
       </c>
       <c r="K213" t="n">
-        <v>3.5121617513543373</v>
+        <v>3.158377355058953</v>
       </c>
       <c r="L213" t="n">
-        <v>3.503795058340969</v>
+        <v>3.4884143583478475</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>4.089044177800988</v>
+        <v>4.048955509391174</v>
       </c>
       <c r="C214" t="n">
-        <v>4.098808383978606</v>
+        <v>4.019808861638033</v>
       </c>
       <c r="D214" t="n">
-        <v>4.089044177800988</v>
+        <v>4.085988638908619</v>
       </c>
       <c r="E214" t="n">
-        <v>4.098808383978606</v>
+        <v>4.07109439457732</v>
       </c>
       <c r="F214" t="n">
-        <v>4.089044177800988</v>
+        <v>4.0909776362914165</v>
       </c>
       <c r="G214" t="n">
-        <v>4.098808383978606</v>
+        <v>3.594968545075161</v>
       </c>
       <c r="H214" t="n">
-        <v>4.089044177800988</v>
+        <v>3.775223306906561</v>
       </c>
       <c r="I214" t="n">
-        <v>4.098808383978606</v>
+        <v>3.7414971373295174</v>
       </c>
       <c r="J214" t="n">
-        <v>4.089044177800988</v>
+        <v>3.6697816917661794</v>
       </c>
       <c r="K214" t="n">
-        <v>4.098808383978606</v>
+        <v>3.6859303469414013</v>
       </c>
       <c r="L214" t="n">
-        <v>4.089044177800988</v>
+        <v>4.07109439457732</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.33371536050475065</v>
+        <v>0.3371915621766752</v>
       </c>
       <c r="C221" t="n">
-        <v>0.31288449173441835</v>
+        <v>0.3153822091279079</v>
       </c>
       <c r="D221" t="n">
-        <v>0.33371536050475065</v>
+        <v>0.3277320675692172</v>
       </c>
       <c r="E221" t="n">
-        <v>0.31288449173441835</v>
+        <v>0.34233795328670436</v>
       </c>
       <c r="F221" t="n">
-        <v>0.33371536050475065</v>
+        <v>0.30726003717247435</v>
       </c>
       <c r="G221" t="n">
-        <v>0.31288449173441835</v>
+        <v>0.34959449346550325</v>
       </c>
       <c r="H221" t="n">
-        <v>0.33371536050475065</v>
+        <v>0.3402606601240365</v>
       </c>
       <c r="I221" t="n">
-        <v>0.31288449173441835</v>
+        <v>0.3524510166320172</v>
       </c>
       <c r="J221" t="n">
-        <v>0.33371536050475065</v>
+        <v>0.3363824642034523</v>
       </c>
       <c r="K221" t="n">
-        <v>0.31288449173441835</v>
+        <v>0.34192046795561176</v>
       </c>
       <c r="L221" t="n">
-        <v>0.33371536050475065</v>
+        <v>0.34233795328670436</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9987010264408082</v>
+        <v>0.9393722525928394</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9363610430755879</v>
+        <v>0.8786142046489274</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9987010264408082</v>
+        <v>0.9130193192618988</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9363610430755879</v>
+        <v>0.9537094352273766</v>
       </c>
       <c r="F222" t="n">
-        <v>0.9987010264408082</v>
+        <v>0.8559868799422543</v>
       </c>
       <c r="G222" t="n">
-        <v>0.9363610430755879</v>
+        <v>0.9739252213217426</v>
       </c>
       <c r="H222" t="n">
-        <v>0.9987010264408082</v>
+        <v>0.9479223640891951</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9363610430755879</v>
+        <v>0.9818831268641888</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9987010264408082</v>
+        <v>0.9371182098737146</v>
       </c>
       <c r="K222" t="n">
-        <v>0.9363610430755879</v>
+        <v>0.9525463748786499</v>
       </c>
       <c r="L222" t="n">
-        <v>0.9987010264408082</v>
+        <v>0.9537094352273766</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.6889348529650057</v>
+        <v>1.58860208942253</v>
       </c>
       <c r="C224" t="n">
-        <v>1.5835097378892682</v>
+        <v>1.4858522353082326</v>
       </c>
       <c r="D224" t="n">
-        <v>1.6889348529650057</v>
+        <v>1.5440358114252912</v>
       </c>
       <c r="E224" t="n">
-        <v>1.5835097378892682</v>
+        <v>1.612848151861347</v>
       </c>
       <c r="F224" t="n">
-        <v>1.6889348529650057</v>
+        <v>1.4475864517407004</v>
       </c>
       <c r="G224" t="n">
-        <v>1.5835097378892682</v>
+        <v>1.6470357063054835</v>
       </c>
       <c r="H224" t="n">
-        <v>1.6889348529650057</v>
+        <v>1.6030614530565048</v>
       </c>
       <c r="I224" t="n">
-        <v>1.5835097378892682</v>
+        <v>1.660493571744092</v>
       </c>
       <c r="J224" t="n">
-        <v>1.6889348529650057</v>
+        <v>1.5847902065791037</v>
       </c>
       <c r="K224" t="n">
-        <v>1.5835097378892682</v>
+        <v>1.6108812637666519</v>
       </c>
       <c r="L224" t="n">
-        <v>1.6889348529650057</v>
+        <v>1.612848151861347</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.863949056825814</v>
+        <v>3.9033771084260773</v>
       </c>
       <c r="C230" t="n">
-        <v>3.6683342133405885</v>
+        <v>3.7505087961590298</v>
       </c>
       <c r="D230" t="n">
-        <v>3.863949056825814</v>
+        <v>4.193730294276122</v>
       </c>
       <c r="E230" t="n">
-        <v>3.6683342133405885</v>
+        <v>3.8454061599985994</v>
       </c>
       <c r="F230" t="n">
-        <v>3.863949056825814</v>
+        <v>4.22413800366386</v>
       </c>
       <c r="G230" t="n">
-        <v>3.6683342133405885</v>
+        <v>3.931916985706713</v>
       </c>
       <c r="H230" t="n">
-        <v>3.863949056825814</v>
+        <v>4.0871983391541615</v>
       </c>
       <c r="I230" t="n">
-        <v>3.6683342133405885</v>
+        <v>4.267978263904405</v>
       </c>
       <c r="J230" t="n">
-        <v>3.863949056825814</v>
+        <v>3.93856247766463</v>
       </c>
       <c r="K230" t="n">
-        <v>3.6683342133405885</v>
+        <v>4.247234751962686</v>
       </c>
       <c r="L230" t="n">
-        <v>3.863949056825814</v>
+        <v>3.8454061599985994</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>4.782356426705839</v>
+        <v>4.6876562994443365</v>
       </c>
       <c r="C238" t="n">
-        <v>4.5402466343295576</v>
+        <v>4.504073189978135</v>
       </c>
       <c r="D238" t="n">
-        <v>4.782356426705839</v>
+        <v>5.036348189289053</v>
       </c>
       <c r="E238" t="n">
-        <v>4.5402466343295576</v>
+        <v>4.61803764000346</v>
       </c>
       <c r="F238" t="n">
-        <v>4.782356426705839</v>
+        <v>5.072865514288322</v>
       </c>
       <c r="G238" t="n">
-        <v>4.5402466343295576</v>
+        <v>4.721930501450375</v>
       </c>
       <c r="H238" t="n">
-        <v>4.782356426705839</v>
+        <v>4.908411488158749</v>
       </c>
       <c r="I238" t="n">
-        <v>4.5402466343295576</v>
+        <v>5.125514301832382</v>
       </c>
       <c r="J238" t="n">
-        <v>4.782356426705839</v>
+        <v>4.729911227210176</v>
       </c>
       <c r="K238" t="n">
-        <v>4.5402466343295576</v>
+        <v>5.100602936180241</v>
       </c>
       <c r="L238" t="n">
-        <v>4.782356426705839</v>
+        <v>4.61803764000346</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>6.153278877424166</v>
+        <v>6.093538305798688</v>
       </c>
       <c r="C242" t="n">
-        <v>5.7589807390334755</v>
+        <v>5.70793679748869</v>
       </c>
       <c r="D242" t="n">
-        <v>6.153278877424166</v>
+        <v>5.819482187667545</v>
       </c>
       <c r="E242" t="n">
-        <v>5.7589807390334755</v>
+        <v>6.267403847576421</v>
       </c>
       <c r="F242" t="n">
-        <v>6.153278877424166</v>
+        <v>6.324449392131902</v>
       </c>
       <c r="G242" t="n">
-        <v>5.7589807390334755</v>
+        <v>6.091579540122823</v>
       </c>
       <c r="H242" t="n">
-        <v>6.153278877424166</v>
+        <v>5.603598167541109</v>
       </c>
       <c r="I242" t="n">
-        <v>5.7589807390334755</v>
+        <v>6.497938024585564</v>
       </c>
       <c r="J242" t="n">
-        <v>6.153278877424166</v>
+        <v>6.363060189733733</v>
       </c>
       <c r="K242" t="n">
-        <v>5.7589807390334755</v>
+        <v>5.711064436933438</v>
       </c>
       <c r="L242" t="n">
-        <v>6.153278877424166</v>
+        <v>6.267403847576421</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>1.0782795534032181</v>
+        <v>1.0895116320845015</v>
       </c>
       <c r="C243" t="n">
-        <v>1.0091840956739218</v>
+        <v>1.0205669061190832</v>
       </c>
       <c r="D243" t="n">
-        <v>1.0782795534032181</v>
+        <v>1.0405109836002433</v>
       </c>
       <c r="E243" t="n">
-        <v>1.0091840956739218</v>
+        <v>1.120598419543481</v>
       </c>
       <c r="F243" t="n">
-        <v>1.0782795534032181</v>
+        <v>1.1307980410495355</v>
       </c>
       <c r="G243" t="n">
-        <v>1.0091840956739218</v>
+        <v>1.0891614089659643</v>
       </c>
       <c r="H243" t="n">
-        <v>1.0782795534032181</v>
+        <v>1.0019113819722218</v>
       </c>
       <c r="I243" t="n">
-        <v>1.0091840956739218</v>
+        <v>1.1618174379265234</v>
       </c>
       <c r="J243" t="n">
-        <v>1.0782795534032181</v>
+        <v>1.1377015691805106</v>
       </c>
       <c r="K243" t="n">
-        <v>1.0091840956739218</v>
+        <v>1.0211261213705531</v>
       </c>
       <c r="L243" t="n">
-        <v>1.0782795534032181</v>
+        <v>1.120598419543481</v>
       </c>
     </row>
     <row r="244">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>2.612477126493761</v>
+        <v>2.5868646056457827</v>
       </c>
       <c r="C245" t="n">
-        <v>2.4450712786385504</v>
+        <v>2.423166792704896</v>
       </c>
       <c r="D245" t="n">
-        <v>2.612477126493761</v>
+        <v>2.4705206956912837</v>
       </c>
       <c r="E245" t="n">
-        <v>2.4450712786385504</v>
+        <v>2.660675024747972</v>
       </c>
       <c r="F245" t="n">
-        <v>2.612477126493761</v>
+        <v>2.6848923337587207</v>
       </c>
       <c r="G245" t="n">
-        <v>2.4450712786385504</v>
+        <v>2.5860330589575757</v>
       </c>
       <c r="H245" t="n">
-        <v>2.612477126493761</v>
+        <v>2.3788723458223475</v>
       </c>
       <c r="I245" t="n">
-        <v>2.4450712786385504</v>
+        <v>2.7585427451049815</v>
       </c>
       <c r="J245" t="n">
-        <v>2.612477126493761</v>
+        <v>2.701283615916885</v>
       </c>
       <c r="K245" t="n">
-        <v>2.4450712786385504</v>
+        <v>2.4244945565381255</v>
       </c>
       <c r="L245" t="n">
-        <v>2.612477126493761</v>
+        <v>2.660675024747972</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>2.805309191317437</v>
+        <v>2.7778061600300106</v>
       </c>
       <c r="C250" t="n">
-        <v>2.625546789225595</v>
+        <v>2.6020254901881423</v>
       </c>
       <c r="D250" t="n">
-        <v>2.805309191317437</v>
+        <v>2.652874677706487</v>
       </c>
       <c r="E250" t="n">
-        <v>2.625546789225595</v>
+        <v>2.857064671051029</v>
       </c>
       <c r="F250" t="n">
-        <v>2.805309191317437</v>
+        <v>2.8830695071768124</v>
       </c>
       <c r="G250" t="n">
-        <v>2.625546789225595</v>
+        <v>2.7769132352484767</v>
       </c>
       <c r="H250" t="n">
-        <v>2.805309191317437</v>
+        <v>2.554461583234169</v>
       </c>
       <c r="I250" t="n">
-        <v>2.625546789225595</v>
+        <v>2.9621561999553525</v>
       </c>
       <c r="J250" t="n">
-        <v>2.805309191317437</v>
+        <v>2.900670662046057</v>
       </c>
       <c r="K250" t="n">
-        <v>2.625546789225595</v>
+        <v>2.6034512588762144</v>
       </c>
       <c r="L250" t="n">
-        <v>2.805309191317437</v>
+        <v>2.857064671051029</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>2.3441212317108637</v>
+        <v>2.367799223950368</v>
       </c>
       <c r="C253" t="n">
-        <v>2.421135931969021</v>
+        <v>2.459020971126962</v>
       </c>
       <c r="D253" t="n">
-        <v>2.3441212317108637</v>
+        <v>2.688709741264738</v>
       </c>
       <c r="E253" t="n">
-        <v>2.421135931969021</v>
+        <v>2.5748233260475177</v>
       </c>
       <c r="F253" t="n">
-        <v>2.3441212317108637</v>
+        <v>2.6756418952783987</v>
       </c>
       <c r="G253" t="n">
-        <v>2.421135931969021</v>
+        <v>2.4225008568926585</v>
       </c>
       <c r="H253" t="n">
-        <v>2.3441212317108637</v>
+        <v>2.6610915746575574</v>
       </c>
       <c r="I253" t="n">
-        <v>2.421135931969021</v>
+        <v>2.477000314346191</v>
       </c>
       <c r="J253" t="n">
-        <v>2.3441212317108637</v>
+        <v>2.362718109465454</v>
       </c>
       <c r="K253" t="n">
-        <v>2.421135931969021</v>
+        <v>2.481186792781159</v>
       </c>
       <c r="L253" t="n">
-        <v>2.3441212317108637</v>
+        <v>2.5748233260475177</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.8193402799281708</v>
+        <v>1.838096365288255</v>
       </c>
       <c r="C254" t="n">
-        <v>1.8791136160640307</v>
+        <v>1.9089107993097338</v>
       </c>
       <c r="D254" t="n">
-        <v>1.8193402799281708</v>
+        <v>2.087215652722687</v>
       </c>
       <c r="E254" t="n">
-        <v>1.8791136160640307</v>
+        <v>1.998806887423223</v>
       </c>
       <c r="F254" t="n">
-        <v>1.8193402799281708</v>
+        <v>2.0770712283278</v>
       </c>
       <c r="G254" t="n">
-        <v>1.8791136160640307</v>
+        <v>1.8805606383015756</v>
       </c>
       <c r="H254" t="n">
-        <v>1.8193402799281708</v>
+        <v>2.0657759752605545</v>
       </c>
       <c r="I254" t="n">
-        <v>1.8791136160640307</v>
+        <v>1.9228679647177023</v>
       </c>
       <c r="J254" t="n">
-        <v>1.8193402799281708</v>
+        <v>1.834151952277277</v>
       </c>
       <c r="K254" t="n">
-        <v>1.8791136160640307</v>
+        <v>1.9261178816518898</v>
       </c>
       <c r="L254" t="n">
-        <v>1.8193402799281708</v>
+        <v>1.998806887423223</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>3.7817354361570055</v>
+        <v>3.7442925110465404</v>
       </c>
       <c r="C260" t="n">
-        <v>3.9059820907802023</v>
+        <v>3.8885449887663586</v>
       </c>
       <c r="D260" t="n">
-        <v>3.7817354361570055</v>
+        <v>4.251760726485677</v>
       </c>
       <c r="E260" t="n">
-        <v>3.9059820907802023</v>
+        <v>4.071667732411484</v>
       </c>
       <c r="F260" t="n">
-        <v>3.7817354361570055</v>
+        <v>4.231096036098404</v>
       </c>
       <c r="G260" t="n">
-        <v>3.9059820907802023</v>
+        <v>3.8307943193485645</v>
       </c>
       <c r="H260" t="n">
-        <v>3.7817354361570055</v>
+        <v>4.208087051222124</v>
       </c>
       <c r="I260" t="n">
-        <v>3.9059820907802023</v>
+        <v>3.9169764197290644</v>
       </c>
       <c r="J260" t="n">
-        <v>3.7817354361570055</v>
+        <v>3.736257548148845</v>
       </c>
       <c r="K260" t="n">
-        <v>3.9059820907802023</v>
+        <v>3.9235966600320222</v>
       </c>
       <c r="L260" t="n">
-        <v>3.7817354361570055</v>
+        <v>4.071667732411484</v>
       </c>
     </row>
     <row r="261">
@@ -10138,34 +10138,34 @@
         <v>0.11071905257469404</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1128253545035227</v>
+        <v>0.11391479197408003</v>
       </c>
       <c r="D265" t="n">
-        <v>0.11071905257469404</v>
+        <v>0.10380290357951222</v>
       </c>
       <c r="E265" t="n">
-        <v>0.1128253545035227</v>
+        <v>0.10654684984764608</v>
       </c>
       <c r="F265" t="n">
-        <v>0.11071905257469404</v>
+        <v>0.10163106164480937</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1128253545035227</v>
+        <v>0.10374605637365422</v>
       </c>
       <c r="H265" t="n">
-        <v>0.11071905257469404</v>
+        <v>0.11565341813937256</v>
       </c>
       <c r="I265" t="n">
-        <v>0.1128253545035227</v>
+        <v>0.11075465461820659</v>
       </c>
       <c r="J265" t="n">
-        <v>0.11071905257469404</v>
+        <v>0.11446543740577333</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1128253545035227</v>
+        <v>0.10577347797068525</v>
       </c>
       <c r="L265" t="n">
-        <v>0.11071905257469404</v>
+        <v>0.10654684984764608</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3123901333255914</v>
+        <v>0.3155777877472811</v>
       </c>
       <c r="C266" t="n">
-        <v>0.3183329943334278</v>
+        <v>0.3246864672963108</v>
       </c>
       <c r="D266" t="n">
-        <v>0.3123901333255914</v>
+        <v>0.2958649835922995</v>
       </c>
       <c r="E266" t="n">
-        <v>0.3183329943334278</v>
+        <v>0.3036859364713075</v>
       </c>
       <c r="F266" t="n">
-        <v>0.3123901333255914</v>
+        <v>0.28967467526548357</v>
       </c>
       <c r="G266" t="n">
-        <v>0.3183329943334278</v>
+        <v>0.2957029544288709</v>
       </c>
       <c r="H266" t="n">
-        <v>0.3123901333255914</v>
+        <v>0.3296419992142922</v>
       </c>
       <c r="I266" t="n">
-        <v>0.3183329943334278</v>
+        <v>0.31567926273166463</v>
       </c>
       <c r="J266" t="n">
-        <v>0.3123901333255914</v>
+        <v>0.3262559484571949</v>
       </c>
       <c r="K266" t="n">
-        <v>0.3183329943334278</v>
+        <v>0.3014816276341034</v>
       </c>
       <c r="L266" t="n">
-        <v>0.3123901333255914</v>
+        <v>0.3036859364713075</v>
       </c>
     </row>
     <row r="267">
@@ -10252,34 +10252,34 @@
         <v>4.708192238878493</v>
       </c>
       <c r="C268" t="n">
-        <v>4.981336709872863</v>
+        <v>5.00423484503122</v>
       </c>
       <c r="D268" t="n">
-        <v>4.708192238878493</v>
+        <v>4.687564889523562</v>
       </c>
       <c r="E268" t="n">
-        <v>4.981336709872863</v>
+        <v>5.002626235557298</v>
       </c>
       <c r="F268" t="n">
-        <v>4.708192238878493</v>
+        <v>5.225575999447648</v>
       </c>
       <c r="G268" t="n">
-        <v>4.981336709872863</v>
+        <v>5.3799456233552325</v>
       </c>
       <c r="H268" t="n">
-        <v>4.708192238878493</v>
+        <v>5.1470195390547895</v>
       </c>
       <c r="I268" t="n">
-        <v>4.981336709872863</v>
+        <v>5.219203345450819</v>
       </c>
       <c r="J268" t="n">
-        <v>4.708192238878493</v>
+        <v>4.690133420565241</v>
       </c>
       <c r="K268" t="n">
-        <v>4.981336709872863</v>
+        <v>5.193867410930258</v>
       </c>
       <c r="L268" t="n">
-        <v>4.708192238878493</v>
+        <v>5.002626235557298</v>
       </c>
     </row>
     <row r="269">
@@ -10290,34 +10290,34 @@
         <v>0.3302675189374097</v>
       </c>
       <c r="C269" t="n">
-        <v>0.3365504765313434</v>
+        <v>0.33980019554601504</v>
       </c>
       <c r="D269" t="n">
-        <v>0.3302675189374097</v>
+        <v>0.3096371096616512</v>
       </c>
       <c r="E269" t="n">
-        <v>0.3365504765313434</v>
+        <v>0.31782211761647233</v>
       </c>
       <c r="F269" t="n">
-        <v>0.3302675189374097</v>
+        <v>0.3031586506194314</v>
       </c>
       <c r="G269" t="n">
-        <v>0.3365504765313434</v>
+        <v>0.30946753825365364</v>
       </c>
       <c r="H269" t="n">
-        <v>0.3302675189374097</v>
+        <v>0.34498640096069244</v>
       </c>
       <c r="I269" t="n">
-        <v>0.3365504765313434</v>
+        <v>0.3303737174489265</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3302675189374097</v>
+        <v>0.34144273399184294</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3365504765313434</v>
+        <v>0.31551520110047787</v>
       </c>
       <c r="L269" t="n">
-        <v>0.3302675189374097</v>
+        <v>0.31782211761647233</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>3.1994600740244308</v>
+        <v>3.1683973548591453</v>
       </c>
       <c r="C272" t="n">
-        <v>3.2603261017623546</v>
+        <v>3.2598483926378767</v>
       </c>
       <c r="D272" t="n">
-        <v>3.1994600740244308</v>
+        <v>2.970481028151394</v>
       </c>
       <c r="E272" t="n">
-        <v>3.2603261017623546</v>
+        <v>3.049003304992282</v>
       </c>
       <c r="F272" t="n">
-        <v>3.1994600740244308</v>
+        <v>2.908330403836375</v>
       </c>
       <c r="G272" t="n">
-        <v>3.2603261017623546</v>
+        <v>2.968854257216463</v>
       </c>
       <c r="H272" t="n">
-        <v>3.1994600740244308</v>
+        <v>3.3096018760276076</v>
       </c>
       <c r="I272" t="n">
-        <v>3.2603261017623546</v>
+        <v>3.169416162533792</v>
       </c>
       <c r="J272" t="n">
-        <v>3.1994600740244308</v>
+        <v>3.275605965419358</v>
       </c>
       <c r="K272" t="n">
-        <v>3.2603261017623546</v>
+        <v>3.0268720696510827</v>
       </c>
       <c r="L272" t="n">
-        <v>3.1994600740244308</v>
+        <v>3.049003304992282</v>
       </c>
     </row>
     <row r="273">
@@ -10480,34 +10480,34 @@
         <v>0.540589771105522</v>
       </c>
       <c r="C274" t="n">
-        <v>0.5630414574033844</v>
+        <v>0.5599572231992835</v>
       </c>
       <c r="D274" t="n">
-        <v>0.540589771105522</v>
+        <v>0.5438900745696847</v>
       </c>
       <c r="E274" t="n">
-        <v>0.5630414574033844</v>
+        <v>0.5438900745696847</v>
       </c>
       <c r="F274" t="n">
-        <v>0.540589771105522</v>
+        <v>0.49003957231943596</v>
       </c>
       <c r="G274" t="n">
-        <v>0.5630414574033844</v>
+        <v>0.4974271037250556</v>
       </c>
       <c r="H274" t="n">
-        <v>0.540589771105522</v>
+        <v>0.5412466238398073</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5630414574033844</v>
+        <v>0.4779463208772523</v>
       </c>
       <c r="J274" t="n">
-        <v>0.540589771105522</v>
+        <v>0.5208523736552562</v>
       </c>
       <c r="K274" t="n">
-        <v>0.5630414574033844</v>
+        <v>0.4878926299383445</v>
       </c>
       <c r="L274" t="n">
-        <v>0.540589771105522</v>
+        <v>0.5438900745696847</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>2.641094132565035</v>
+        <v>2.6677718510757926</v>
       </c>
       <c r="C275" t="n">
-        <v>2.3492949703426795</v>
+        <v>2.344715644699117</v>
       </c>
       <c r="D275" t="n">
-        <v>2.641094132565035</v>
+        <v>2.406696316927414</v>
       </c>
       <c r="E275" t="n">
-        <v>2.3492949703426795</v>
+        <v>2.6092110052318453</v>
       </c>
       <c r="F275" t="n">
-        <v>2.641094132565035</v>
+        <v>2.5669502408396254</v>
       </c>
       <c r="G275" t="n">
-        <v>2.3492949703426795</v>
+        <v>2.573124505131747</v>
       </c>
       <c r="H275" t="n">
-        <v>2.641094132565035</v>
+        <v>2.500938661501834</v>
       </c>
       <c r="I275" t="n">
-        <v>2.3492949703426795</v>
+        <v>2.3005946501097188</v>
       </c>
       <c r="J275" t="n">
-        <v>2.641094132565035</v>
+        <v>2.5965449344154052</v>
       </c>
       <c r="K275" t="n">
-        <v>2.3492949703426795</v>
+        <v>2.6123968552247483</v>
       </c>
       <c r="L275" t="n">
-        <v>2.641094132565035</v>
+        <v>2.6092110052318453</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.3618642014411029</v>
       </c>
       <c r="C280" t="n">
-        <v>0.35728449743997365</v>
+        <v>0.3581471673369033</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3618642014411029</v>
+        <v>0.31799010833723346</v>
       </c>
       <c r="E280" t="n">
-        <v>0.35728449743997365</v>
+        <v>0.35556902358947456</v>
       </c>
       <c r="F280" t="n">
-        <v>0.3618642014411029</v>
+        <v>0.346425226239098</v>
       </c>
       <c r="G280" t="n">
-        <v>0.35728449743997365</v>
+        <v>0.32478551360930635</v>
       </c>
       <c r="H280" t="n">
         <v>0.3618642014411029</v>
       </c>
       <c r="I280" t="n">
-        <v>0.35728449743997365</v>
+        <v>0.3596684237768065</v>
       </c>
       <c r="J280" t="n">
-        <v>0.3618642014411029</v>
+        <v>0.36953463964935845</v>
       </c>
       <c r="K280" t="n">
-        <v>0.35728449743997365</v>
+        <v>0.37255409298377407</v>
       </c>
       <c r="L280" t="n">
-        <v>0.3618642014411029</v>
+        <v>0.35556902358947456</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4.259381071572955</v>
+        <v>4.301974882288684</v>
       </c>
       <c r="C282" t="n">
-        <v>3.788786777736235</v>
+        <v>3.7810234055574594</v>
       </c>
       <c r="D282" t="n">
-        <v>4.259381071572955</v>
+        <v>3.8809717182311894</v>
       </c>
       <c r="E282" t="n">
-        <v>3.788786777736235</v>
+        <v>4.207541286775391</v>
       </c>
       <c r="F282" t="n">
-        <v>4.259381071572955</v>
+        <v>4.139392750442219</v>
       </c>
       <c r="G282" t="n">
-        <v>3.788786777736235</v>
+        <v>4.149349197763833</v>
       </c>
       <c r="H282" t="n">
-        <v>4.259381071572955</v>
+        <v>4.032944308782237</v>
       </c>
       <c r="I282" t="n">
-        <v>3.788786777736235</v>
+        <v>3.7098751136116372</v>
       </c>
       <c r="J282" t="n">
-        <v>4.259381071572955</v>
+        <v>4.1871163323372365</v>
       </c>
       <c r="K282" t="n">
-        <v>3.788786777736235</v>
+        <v>4.212678700097554</v>
       </c>
       <c r="L282" t="n">
-        <v>4.259381071572955</v>
+        <v>4.207541286775391</v>
       </c>
     </row>
     <row r="283">
@@ -10860,34 +10860,34 @@
         <v>1.571780432308957</v>
       </c>
       <c r="C284" t="n">
-        <v>1.553444834058832</v>
+        <v>1.5590415636273796</v>
       </c>
       <c r="D284" t="n">
-        <v>1.571780432308957</v>
+        <v>1.5037298074311807</v>
       </c>
       <c r="E284" t="n">
-        <v>1.553444834058832</v>
+        <v>1.3415786844517026</v>
       </c>
       <c r="F284" t="n">
-        <v>1.571780432308957</v>
+        <v>1.3694976277356221</v>
       </c>
       <c r="G284" t="n">
-        <v>1.553444834058832</v>
+        <v>1.526680505434694</v>
       </c>
       <c r="H284" t="n">
-        <v>1.571780432308957</v>
+        <v>1.3962605637411496</v>
       </c>
       <c r="I284" t="n">
-        <v>1.553444834058832</v>
+        <v>1.4088465737841998</v>
       </c>
       <c r="J284" t="n">
-        <v>1.571780432308957</v>
+        <v>1.375524020260062</v>
       </c>
       <c r="K284" t="n">
-        <v>1.553444834058832</v>
+        <v>1.5109985908315968</v>
       </c>
       <c r="L284" t="n">
-        <v>1.571780432308957</v>
+        <v>1.3415786844517026</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>2.964840545352972</v>
       </c>
       <c r="C299" t="n">
-        <v>2.9302542100113267</v>
+        <v>2.940811289362308</v>
       </c>
       <c r="D299" t="n">
-        <v>2.964840545352972</v>
+        <v>2.836477036285836</v>
       </c>
       <c r="E299" t="n">
-        <v>2.9302542100113267</v>
+        <v>2.530612289529927</v>
       </c>
       <c r="F299" t="n">
-        <v>2.964840545352972</v>
+        <v>2.5832756344412626</v>
       </c>
       <c r="G299" t="n">
-        <v>2.9302542100113267</v>
+        <v>2.879768808206555</v>
       </c>
       <c r="H299" t="n">
-        <v>2.964840545352972</v>
+        <v>2.6337584093574207</v>
       </c>
       <c r="I299" t="n">
-        <v>2.9302542100113267</v>
+        <v>2.657499328962227</v>
       </c>
       <c r="J299" t="n">
-        <v>2.964840545352972</v>
+        <v>2.5946431845973774</v>
       </c>
       <c r="K299" t="n">
-        <v>2.9302542100113267</v>
+        <v>2.8501881013289885</v>
       </c>
       <c r="L299" t="n">
-        <v>2.964840545352972</v>
+        <v>2.530612289529927</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>1.548212866595589</v>
+        <v>1.5636949952615449</v>
       </c>
       <c r="C302" t="n">
-        <v>1.5301521956875859</v>
+        <v>1.5510216569292852</v>
       </c>
       <c r="D302" t="n">
-        <v>1.548212866595589</v>
+        <v>1.4959944313924032</v>
       </c>
       <c r="E302" t="n">
-        <v>1.5301521956875859</v>
+        <v>1.3346774342679542</v>
       </c>
       <c r="F302" t="n">
-        <v>1.548212866595589</v>
+        <v>1.3624527589816764</v>
       </c>
       <c r="G302" t="n">
-        <v>1.5301521956875859</v>
+        <v>1.5188270681068923</v>
       </c>
       <c r="H302" t="n">
-        <v>1.548212866595589</v>
+        <v>1.3890780230644413</v>
       </c>
       <c r="I302" t="n">
-        <v>1.5301521956875859</v>
+        <v>1.401599289082315</v>
       </c>
       <c r="J302" t="n">
-        <v>1.548212866595589</v>
+        <v>1.3684481509818842</v>
       </c>
       <c r="K302" t="n">
-        <v>1.5301521956875859</v>
+        <v>1.503225823253017</v>
       </c>
       <c r="L302" t="n">
-        <v>1.548212866595589</v>
+        <v>1.3346774342679542</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.517679931144574</v>
+        <v>1.5330100314591657</v>
       </c>
       <c r="C305" t="n">
-        <v>1.499975442071081</v>
+        <v>1.5205853867207075</v>
       </c>
       <c r="D305" t="n">
-        <v>1.517679931144574</v>
+        <v>1.4666379807323058</v>
       </c>
       <c r="E305" t="n">
-        <v>1.499975442071081</v>
+        <v>1.3084865665587981</v>
       </c>
       <c r="F305" t="n">
-        <v>1.517679931144574</v>
+        <v>1.3357168458282216</v>
       </c>
       <c r="G305" t="n">
-        <v>1.499975442071081</v>
+        <v>1.4890225641926629</v>
       </c>
       <c r="H305" t="n">
-        <v>1.517679931144574</v>
+        <v>1.3618196325307532</v>
       </c>
       <c r="I305" t="n">
-        <v>1.499975442071081</v>
+        <v>1.3740951891259563</v>
       </c>
       <c r="J305" t="n">
-        <v>1.517679931144574</v>
+        <v>1.3415945880392668</v>
       </c>
       <c r="K305" t="n">
-        <v>1.499975442071081</v>
+        <v>1.4737274683224857</v>
       </c>
       <c r="L305" t="n">
-        <v>1.517679931144574</v>
+        <v>1.3084865665587981</v>
       </c>
     </row>
     <row r="306">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>1.5160553964889483</v>
+        <v>1.531369087362574</v>
       </c>
       <c r="C310" t="n">
-        <v>1.4983698584178833</v>
+        <v>1.5189577420461793</v>
       </c>
       <c r="D310" t="n">
-        <v>1.5160553964889483</v>
+        <v>1.465068081718645</v>
       </c>
       <c r="E310" t="n">
-        <v>1.4983698584178833</v>
+        <v>1.307085953866903</v>
       </c>
       <c r="F310" t="n">
-        <v>1.5160553964889483</v>
+        <v>1.3342870856649476</v>
       </c>
       <c r="G310" t="n">
-        <v>1.4983698584178833</v>
+        <v>1.4874287045725285</v>
       </c>
       <c r="H310" t="n">
-        <v>1.5160553964889483</v>
+        <v>1.3603619317716154</v>
       </c>
       <c r="I310" t="n">
-        <v>1.4983698584178833</v>
+        <v>1.3726243485296916</v>
       </c>
       <c r="J310" t="n">
-        <v>1.5160553964889483</v>
+        <v>1.3401585363017796</v>
       </c>
       <c r="K310" t="n">
-        <v>1.4983698584178833</v>
+        <v>1.472149980674328</v>
       </c>
       <c r="L310" t="n">
-        <v>1.5160553964889483</v>
+        <v>1.307085953866903</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.7190642610380458</v>
+        <v>1.6169416316694487</v>
       </c>
       <c r="C312" t="n">
-        <v>1.8797217775049138</v>
+        <v>1.75514177004603</v>
       </c>
       <c r="D312" t="n">
-        <v>1.7190642610380458</v>
+        <v>1.744491639193095</v>
       </c>
       <c r="E312" t="n">
-        <v>1.8797217775049138</v>
+        <v>1.545657107294525</v>
       </c>
       <c r="F312" t="n">
-        <v>1.7190642610380458</v>
+        <v>1.7287565973957715</v>
       </c>
       <c r="G312" t="n">
-        <v>1.8797217775049138</v>
+        <v>1.7530013531394404</v>
       </c>
       <c r="H312" t="n">
-        <v>1.7190642610380458</v>
+        <v>1.7246084109758049</v>
       </c>
       <c r="I312" t="n">
-        <v>1.8797217775049138</v>
+        <v>1.5752998472116826</v>
       </c>
       <c r="J312" t="n">
-        <v>1.7190642610380458</v>
+        <v>1.8069907097562428</v>
       </c>
       <c r="K312" t="n">
-        <v>1.8797217775049138</v>
+        <v>1.7923455233884493</v>
       </c>
       <c r="L312" t="n">
-        <v>1.7190642610380458</v>
+        <v>1.545657107294525</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>1.2836666773105374</v>
+        <v>1.2966330073843813</v>
       </c>
       <c r="C314" t="n">
-        <v>1.2035388340507613</v>
+        <v>1.2127675427500262</v>
       </c>
       <c r="D314" t="n">
-        <v>1.2836666773105374</v>
+        <v>1.2602575629277433</v>
       </c>
       <c r="E314" t="n">
-        <v>1.2035388340507613</v>
+        <v>1.3164228874724155</v>
       </c>
       <c r="F314" t="n">
-        <v>1.2836666773105374</v>
+        <v>1.181534625232509</v>
       </c>
       <c r="G314" t="n">
-        <v>1.2035388340507613</v>
+        <v>1.344327113350736</v>
       </c>
       <c r="H314" t="n">
-        <v>1.2836666773105374</v>
+        <v>1.3084348854496433</v>
       </c>
       <c r="I314" t="n">
-        <v>1.2035388340507613</v>
+        <v>1.3553115585134516</v>
       </c>
       <c r="J314" t="n">
-        <v>1.2836666773105374</v>
+        <v>1.29352171025845</v>
       </c>
       <c r="K314" t="n">
-        <v>1.2035388340507613</v>
+        <v>1.314817493621813</v>
       </c>
       <c r="L314" t="n">
-        <v>1.2836666773105374</v>
+        <v>1.3164228874724155</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>2.3596619494841686</v>
+        <v>2.38374013264217</v>
       </c>
       <c r="C315" t="n">
-        <v>2.58018740458064</v>
+        <v>2.587478603921945</v>
       </c>
       <c r="D315" t="n">
-        <v>2.3596619494841686</v>
+        <v>2.5717778860761062</v>
       </c>
       <c r="E315" t="n">
-        <v>2.58018740458064</v>
+        <v>2.2786505126703145</v>
       </c>
       <c r="F315" t="n">
-        <v>2.3596619494841686</v>
+        <v>2.548580851695616</v>
       </c>
       <c r="G315" t="n">
-        <v>2.58018740458064</v>
+        <v>2.5843231420420034</v>
       </c>
       <c r="H315" t="n">
-        <v>2.3596619494841686</v>
+        <v>2.5424654803963156</v>
       </c>
       <c r="I315" t="n">
-        <v>2.58018740458064</v>
+        <v>2.322350660775876</v>
       </c>
       <c r="J315" t="n">
-        <v>2.3596619494841686</v>
+        <v>2.663915746736167</v>
       </c>
       <c r="K315" t="n">
-        <v>2.58018740458064</v>
+        <v>2.6423254074121125</v>
       </c>
       <c r="L315" t="n">
-        <v>2.3596619494841686</v>
+        <v>2.2786505126703145</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.7221882565290836</v>
+        <v>1.705136887652558</v>
       </c>
       <c r="C316" t="n">
-        <v>1.883137730294128</v>
+        <v>1.8508750820370357</v>
       </c>
       <c r="D316" t="n">
-        <v>1.7221882565290836</v>
+        <v>1.839644045232747</v>
       </c>
       <c r="E316" t="n">
-        <v>1.883137730294128</v>
+        <v>1.6299641852805167</v>
       </c>
       <c r="F316" t="n">
-        <v>1.7221882565290836</v>
+        <v>1.823050743612039</v>
       </c>
       <c r="G316" t="n">
-        <v>1.883137730294128</v>
+        <v>1.848617917182784</v>
       </c>
       <c r="H316" t="n">
-        <v>1.7221882565290836</v>
+        <v>1.8186762964811047</v>
       </c>
       <c r="I316" t="n">
-        <v>1.883137730294128</v>
+        <v>1.6612237733162643</v>
       </c>
       <c r="J316" t="n">
-        <v>1.7221882565290836</v>
+        <v>1.905552095699104</v>
       </c>
       <c r="K316" t="n">
-        <v>1.883137730294128</v>
+        <v>1.8901080951160476</v>
       </c>
       <c r="L316" t="n">
-        <v>1.7221882565290836</v>
+        <v>1.6299641852805167</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>1.8130067766966556</v>
+        <v>1.794876708929689</v>
       </c>
       <c r="C319" t="n">
-        <v>1.98244382025767</v>
+        <v>1.9482849734487233</v>
       </c>
       <c r="D319" t="n">
-        <v>1.8130067766966556</v>
+        <v>1.9364628572754572</v>
       </c>
       <c r="E319" t="n">
-        <v>1.98244382025767</v>
+        <v>1.7157477348209704</v>
       </c>
       <c r="F319" t="n">
-        <v>1.8130067766966556</v>
+        <v>1.9189962651097947</v>
       </c>
       <c r="G319" t="n">
-        <v>1.98244382025767</v>
+        <v>1.9459090160376509</v>
       </c>
       <c r="H319" t="n">
-        <v>1.8130067766966556</v>
+        <v>1.9143915947595058</v>
       </c>
       <c r="I319" t="n">
-        <v>1.98244382025767</v>
+        <v>1.748652486868967</v>
       </c>
       <c r="J319" t="n">
-        <v>1.8130067766966556</v>
+        <v>2.005839589178715</v>
       </c>
       <c r="K319" t="n">
-        <v>1.98244382025767</v>
+        <v>1.9895827847309582</v>
       </c>
       <c r="L319" t="n">
-        <v>1.8130067766966556</v>
+        <v>1.7157477348209704</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.8319211546663243</v>
+        <v>1.8506142276731237</v>
       </c>
       <c r="C323" t="n">
-        <v>1.8362955891496715</v>
+        <v>1.837292470766723</v>
       </c>
       <c r="D323" t="n">
-        <v>1.8319211546663243</v>
+        <v>1.8675405772517464</v>
       </c>
       <c r="E323" t="n">
-        <v>1.8362955891496715</v>
+        <v>1.8607330190046847</v>
       </c>
       <c r="F323" t="n">
-        <v>1.8319211546663243</v>
+        <v>1.8698208466982773</v>
       </c>
       <c r="G323" t="n">
-        <v>1.8362955891496715</v>
+        <v>1.6431151002086</v>
       </c>
       <c r="H323" t="n">
-        <v>1.8319211546663243</v>
+        <v>1.7255022803288327</v>
       </c>
       <c r="I323" t="n">
-        <v>1.8362955891496715</v>
+        <v>1.7100874087355467</v>
       </c>
       <c r="J323" t="n">
-        <v>1.8319211546663243</v>
+        <v>1.677309171583865</v>
       </c>
       <c r="K323" t="n">
-        <v>1.8362955891496715</v>
+        <v>1.6846900704245014</v>
       </c>
       <c r="L323" t="n">
-        <v>1.8319211546663243</v>
+        <v>1.8607330190046847</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1.9016492011061086</v>
+        <v>1.8826327090950474</v>
       </c>
       <c r="C327" t="n">
-        <v>1.7403053272619977</v>
+        <v>1.7262644253613242</v>
       </c>
       <c r="D327" t="n">
-        <v>1.9016492011061086</v>
+        <v>1.8962832169448596</v>
       </c>
       <c r="E327" t="n">
-        <v>1.7403053272619977</v>
+        <v>1.7680837886466279</v>
       </c>
       <c r="F327" t="n">
-        <v>1.9016492011061086</v>
+        <v>1.7651005208515866</v>
       </c>
       <c r="G327" t="n">
-        <v>1.7403053272619977</v>
+        <v>1.906651717246477</v>
       </c>
       <c r="H327" t="n">
-        <v>1.9016492011061086</v>
+        <v>1.6836634785586386</v>
       </c>
       <c r="I327" t="n">
-        <v>1.7403053272619977</v>
+        <v>1.7187013825681947</v>
       </c>
       <c r="J327" t="n">
-        <v>1.9016492011061086</v>
+        <v>1.752288512755735</v>
       </c>
       <c r="K327" t="n">
-        <v>1.7403053272619977</v>
+        <v>1.8348088078894342</v>
       </c>
       <c r="L327" t="n">
-        <v>1.9016492011061086</v>
+        <v>1.7680837886466279</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>1.9340480929856367</v>
       </c>
       <c r="C329" t="n">
-        <v>2.1535312823768877</v>
+        <v>2.141770491492606</v>
       </c>
       <c r="D329" t="n">
-        <v>1.9340480929856367</v>
+        <v>2.144372885912078</v>
       </c>
       <c r="E329" t="n">
-        <v>2.1535312823768877</v>
+        <v>2.2185026821609313</v>
       </c>
       <c r="F329" t="n">
-        <v>1.9340480929856367</v>
+        <v>2.2005222990508937</v>
       </c>
       <c r="G329" t="n">
-        <v>2.1535312823768877</v>
+        <v>1.897654713839994</v>
       </c>
       <c r="H329" t="n">
-        <v>1.9340480929856367</v>
+        <v>2.1522181507486606</v>
       </c>
       <c r="I329" t="n">
-        <v>2.1535312823768877</v>
+        <v>2.1224520565705</v>
       </c>
       <c r="J329" t="n">
-        <v>1.9340480929856367</v>
+        <v>2.0629092742597224</v>
       </c>
       <c r="K329" t="n">
-        <v>2.1535312823768877</v>
+        <v>2.1173591899336586</v>
       </c>
       <c r="L329" t="n">
-        <v>1.9340480929856367</v>
+        <v>2.2185026821609313</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>3.5267300436600717</v>
+        <v>3.492154258918306</v>
       </c>
       <c r="C331" t="n">
-        <v>3.665787127998378</v>
+        <v>3.6227783808223117</v>
       </c>
       <c r="D331" t="n">
-        <v>3.5267300436600717</v>
+        <v>3.896023763630165</v>
       </c>
       <c r="E331" t="n">
-        <v>3.665787127998378</v>
+        <v>3.3964788011597475</v>
       </c>
       <c r="F331" t="n">
-        <v>3.5267300436600717</v>
+        <v>3.332566563806887</v>
       </c>
       <c r="G331" t="n">
-        <v>3.665787127998378</v>
+        <v>3.7612705173604764</v>
       </c>
       <c r="H331" t="n">
-        <v>3.5267300436600717</v>
+        <v>3.864447511575492</v>
       </c>
       <c r="I331" t="n">
-        <v>3.665787127998378</v>
+        <v>3.784233094126797</v>
       </c>
       <c r="J331" t="n">
-        <v>3.5267300436600717</v>
+        <v>3.7796181754738543</v>
       </c>
       <c r="K331" t="n">
-        <v>3.665787127998378</v>
+        <v>3.7273444454481557</v>
       </c>
       <c r="L331" t="n">
-        <v>3.5267300436600717</v>
+        <v>3.3964788011597475</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2.5222742939724316</v>
+        <v>2.4973012811608237</v>
       </c>
       <c r="C333" t="n">
-        <v>2.6217262239129684</v>
+        <v>2.590712901265608</v>
       </c>
       <c r="D333" t="n">
-        <v>2.5222742939724316</v>
+        <v>2.7861155077841118</v>
       </c>
       <c r="E333" t="n">
-        <v>2.6217262239129684</v>
+        <v>2.4288820689722685</v>
       </c>
       <c r="F333" t="n">
-        <v>2.5222742939724316</v>
+        <v>2.3831772975362577</v>
       </c>
       <c r="G333" t="n">
-        <v>2.6217262239129684</v>
+        <v>2.6897510778078395</v>
       </c>
       <c r="H333" t="n">
-        <v>2.5222742939724316</v>
+        <v>2.763534771406556</v>
       </c>
       <c r="I333" t="n">
-        <v>2.6217262239129684</v>
+        <v>2.7061720226245924</v>
       </c>
       <c r="J333" t="n">
-        <v>2.5222742939724316</v>
+        <v>2.702871812665363</v>
       </c>
       <c r="K333" t="n">
-        <v>2.6217262239129684</v>
+        <v>2.665489943685535</v>
       </c>
       <c r="L333" t="n">
-        <v>2.5222742939724316</v>
+        <v>2.4288820689722685</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2.3805956632360474</v>
+        <v>2.404887455718048</v>
       </c>
       <c r="C338" t="n">
-        <v>2.474461280343068</v>
+        <v>2.4948423342515156</v>
       </c>
       <c r="D338" t="n">
-        <v>2.3805956632360474</v>
+        <v>2.683013974083665</v>
       </c>
       <c r="E338" t="n">
-        <v>2.474461280343068</v>
+        <v>2.339000129121281</v>
       </c>
       <c r="F338" t="n">
-        <v>2.3805956632360474</v>
+        <v>2.2949866845593054</v>
       </c>
       <c r="G338" t="n">
-        <v>2.474461280343068</v>
+        <v>2.5902155558168736</v>
       </c>
       <c r="H338" t="n">
-        <v>2.3805956632360474</v>
+        <v>2.661268848629672</v>
       </c>
       <c r="I338" t="n">
-        <v>2.474461280343068</v>
+        <v>2.606028835735783</v>
       </c>
       <c r="J338" t="n">
-        <v>2.3805956632360474</v>
+        <v>2.602850751620719</v>
       </c>
       <c r="K338" t="n">
-        <v>2.474461280343068</v>
+        <v>2.5668522165384418</v>
       </c>
       <c r="L338" t="n">
-        <v>2.3805956632360474</v>
+        <v>2.339000129121281</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.4027554719777147</v>
+        <v>1.4172168685960416</v>
       </c>
       <c r="C341" t="n">
-        <v>1.5523342680782624</v>
+        <v>1.57987667991526</v>
       </c>
       <c r="D341" t="n">
-        <v>1.4027554719777147</v>
+        <v>1.3913107537152722</v>
       </c>
       <c r="E341" t="n">
-        <v>1.5523342680782624</v>
+        <v>1.5636483393491363</v>
       </c>
       <c r="F341" t="n">
-        <v>1.4027554719777147</v>
+        <v>1.4579369026962288</v>
       </c>
       <c r="G341" t="n">
-        <v>1.5523342680782624</v>
+        <v>1.512957410497879</v>
       </c>
       <c r="H341" t="n">
-        <v>1.4027554719777147</v>
+        <v>1.4554769422368066</v>
       </c>
       <c r="I341" t="n">
-        <v>1.5523342680782624</v>
+        <v>1.4234532467900947</v>
       </c>
       <c r="J341" t="n">
-        <v>1.4027554719777147</v>
+        <v>1.5721980581534223</v>
       </c>
       <c r="K341" t="n">
-        <v>1.5523342680782624</v>
+        <v>1.3883251081621306</v>
       </c>
       <c r="L341" t="n">
-        <v>1.4027554719777147</v>
+        <v>1.5636483393491363</v>
       </c>
     </row>
     <row r="342">
@@ -13178,34 +13178,34 @@
         <v>4.809330660353117</v>
       </c>
       <c r="C345" t="n">
-        <v>5.322159805985208</v>
+        <v>5.361317328815324</v>
       </c>
       <c r="D345" t="n">
-        <v>4.809330660353117</v>
+        <v>4.72141816414487</v>
       </c>
       <c r="E345" t="n">
-        <v>5.322159805985208</v>
+        <v>5.306246395367695</v>
       </c>
       <c r="F345" t="n">
-        <v>4.809330660353117</v>
+        <v>4.947514245962466</v>
       </c>
       <c r="G345" t="n">
-        <v>5.322159805985208</v>
+        <v>5.134226541717745</v>
       </c>
       <c r="H345" t="n">
-        <v>4.809330660353117</v>
+        <v>4.939166361088308</v>
       </c>
       <c r="I345" t="n">
-        <v>5.322159805985208</v>
+        <v>4.830493832710732</v>
       </c>
       <c r="J345" t="n">
-        <v>4.809330660353117</v>
+        <v>5.335259897601537</v>
       </c>
       <c r="K345" t="n">
-        <v>5.322159805985208</v>
+        <v>4.711286364970128</v>
       </c>
       <c r="L345" t="n">
-        <v>4.809330660353117</v>
+        <v>5.306246395367695</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.5374373090196496</v>
+        <v>2.5630679889087373</v>
       </c>
       <c r="C348" t="n">
-        <v>2.808009640010922</v>
+        <v>2.8572418480494566</v>
       </c>
       <c r="D348" t="n">
-        <v>2.5374373090196496</v>
+        <v>2.5162162083243933</v>
       </c>
       <c r="E348" t="n">
-        <v>2.808009640010922</v>
+        <v>2.8278925359294664</v>
       </c>
       <c r="F348" t="n">
-        <v>2.5374373090196496</v>
+        <v>2.636711069387206</v>
       </c>
       <c r="G348" t="n">
-        <v>2.808009640010922</v>
+        <v>2.7362168722073594</v>
       </c>
       <c r="H348" t="n">
-        <v>2.5374373090196496</v>
+        <v>2.6322621765979375</v>
       </c>
       <c r="I348" t="n">
-        <v>2.808009640010922</v>
+        <v>2.574346616527487</v>
       </c>
       <c r="J348" t="n">
-        <v>2.5374373090196496</v>
+        <v>2.8433548911039037</v>
       </c>
       <c r="K348" t="n">
-        <v>2.808009640010922</v>
+        <v>2.5108166024397516</v>
       </c>
       <c r="L348" t="n">
-        <v>2.5374373090196496</v>
+        <v>2.8278925359294664</v>
       </c>
     </row>
     <row r="349">
@@ -13406,34 +13406,34 @@
         <v>4.034366177953674</v>
       </c>
       <c r="C351" t="n">
-        <v>4.464559214432284</v>
+        <v>4.497406984085675</v>
       </c>
       <c r="D351" t="n">
-        <v>4.034366177953674</v>
+        <v>3.960619699208544</v>
       </c>
       <c r="E351" t="n">
-        <v>4.464559214432284</v>
+        <v>4.451210054204971</v>
       </c>
       <c r="F351" t="n">
-        <v>4.034366177953674</v>
+        <v>4.150283178364245</v>
       </c>
       <c r="G351" t="n">
-        <v>4.464559214432284</v>
+        <v>4.306909084171244</v>
       </c>
       <c r="H351" t="n">
-        <v>4.034366177953674</v>
+        <v>4.143280452460744</v>
       </c>
       <c r="I351" t="n">
-        <v>4.464559214432284</v>
+        <v>4.052119165387376</v>
       </c>
       <c r="J351" t="n">
-        <v>4.034366177953674</v>
+        <v>4.475548387412362</v>
       </c>
       <c r="K351" t="n">
-        <v>4.464559214432284</v>
+        <v>3.952120514852317</v>
       </c>
       <c r="L351" t="n">
-        <v>4.034366177953674</v>
+        <v>4.451210054204971</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.6230821589163313</v>
+        <v>3.5872100583330018</v>
       </c>
       <c r="C353" t="n">
-        <v>4.0094191066810145</v>
+        <v>3.9989289167381266</v>
       </c>
       <c r="D353" t="n">
-        <v>3.6230821589163313</v>
+        <v>3.5216374011540847</v>
       </c>
       <c r="E353" t="n">
-        <v>4.0094191066810145</v>
+        <v>3.957852305388925</v>
       </c>
       <c r="F353" t="n">
-        <v>3.6230821589163313</v>
+        <v>3.6902791927305896</v>
       </c>
       <c r="G353" t="n">
-        <v>4.0094191066810145</v>
+        <v>3.8295451889053265</v>
       </c>
       <c r="H353" t="n">
-        <v>3.6230821589163313</v>
+        <v>3.6840526263534317</v>
       </c>
       <c r="I353" t="n">
-        <v>4.0094191066810145</v>
+        <v>3.60299536196648</v>
       </c>
       <c r="J353" t="n">
-        <v>3.6230821589163313</v>
+        <v>3.9794930563355573</v>
       </c>
       <c r="K353" t="n">
-        <v>4.0094191066810145</v>
+        <v>3.514080238946824</v>
       </c>
       <c r="L353" t="n">
-        <v>3.6230821589163313</v>
+        <v>3.957852305388925</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5.550285471427899</v>
+        <v>5.495870907982527</v>
       </c>
       <c r="C356" t="n">
-        <v>5.079376032200103</v>
+        <v>5.0393931800902845</v>
       </c>
       <c r="D356" t="n">
-        <v>5.550285471427899</v>
+        <v>5.535720119466287</v>
       </c>
       <c r="E356" t="n">
-        <v>5.079376032200103</v>
+        <v>5.1614742535570945</v>
       </c>
       <c r="F356" t="n">
-        <v>5.550285471427899</v>
+        <v>5.152765356380136</v>
       </c>
       <c r="G356" t="n">
-        <v>5.079376032200103</v>
+        <v>5.56598833848308</v>
       </c>
       <c r="H356" t="n">
-        <v>5.550285471427899</v>
+        <v>4.915030470861709</v>
       </c>
       <c r="I356" t="n">
-        <v>5.079376032200103</v>
+        <v>5.017314786008537</v>
       </c>
       <c r="J356" t="n">
-        <v>5.550285471427899</v>
+        <v>5.1153639332418575</v>
       </c>
       <c r="K356" t="n">
-        <v>5.079376032200103</v>
+        <v>5.356261101952705</v>
       </c>
       <c r="L356" t="n">
-        <v>5.550285471427899</v>
+        <v>5.1614742535570945</v>
       </c>
     </row>
     <row r="357">
@@ -13634,34 +13634,34 @@
         <v>0.3356166015787727</v>
       </c>
       <c r="C357" t="n">
-        <v>0.30714148503592237</v>
+        <v>0.3077408551690316</v>
       </c>
       <c r="D357" t="n">
-        <v>0.3356166015787727</v>
+        <v>0.3380500752097395</v>
       </c>
       <c r="E357" t="n">
-        <v>0.30714148503592237</v>
+        <v>0.315195985698846</v>
       </c>
       <c r="F357" t="n">
-        <v>0.3356166015787727</v>
+        <v>0.31466415907428236</v>
       </c>
       <c r="G357" t="n">
-        <v>0.30714148503592237</v>
+        <v>0.3398984659329465</v>
       </c>
       <c r="H357" t="n">
-        <v>0.3356166015787727</v>
+        <v>0.3001463918831854</v>
       </c>
       <c r="I357" t="n">
-        <v>0.30714148503592237</v>
+        <v>0.3063925928619111</v>
       </c>
       <c r="J357" t="n">
-        <v>0.3356166015787727</v>
+        <v>0.31238016464682106</v>
       </c>
       <c r="K357" t="n">
-        <v>0.30714148503592237</v>
+        <v>0.3270910431311124</v>
       </c>
       <c r="L357" t="n">
-        <v>0.3356166015787727</v>
+        <v>0.315195985698846</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>2.809551840138871</v>
+        <v>2.7252652849347045</v>
       </c>
       <c r="C362" t="n">
-        <v>2.571177708153756</v>
+        <v>2.4989093668283116</v>
       </c>
       <c r="D362" t="n">
-        <v>2.809551840138871</v>
+        <v>2.7450255148431206</v>
       </c>
       <c r="E362" t="n">
-        <v>2.571177708153756</v>
+        <v>2.559446325762959</v>
       </c>
       <c r="F362" t="n">
-        <v>2.809551840138871</v>
+        <v>2.5551278009024205</v>
       </c>
       <c r="G362" t="n">
-        <v>2.571177708153756</v>
+        <v>2.760034769591709</v>
       </c>
       <c r="H362" t="n">
-        <v>2.809551840138871</v>
+        <v>2.437241001636401</v>
       </c>
       <c r="I362" t="n">
-        <v>2.571177708153756</v>
+        <v>2.4879612419641157</v>
       </c>
       <c r="J362" t="n">
-        <v>2.809551840138871</v>
+        <v>2.5365813681727407</v>
       </c>
       <c r="K362" t="n">
-        <v>2.571177708153756</v>
+        <v>2.6560362647885216</v>
       </c>
       <c r="L362" t="n">
-        <v>2.809551840138871</v>
+        <v>2.559446325762959</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>3.436626857112238</v>
+        <v>3.4709931256833606</v>
       </c>
       <c r="C364" t="n">
-        <v>3.2221089429088683</v>
+        <v>3.246491320183824</v>
       </c>
       <c r="D364" t="n">
-        <v>3.436626857112238</v>
+        <v>3.373618682079336</v>
       </c>
       <c r="E364" t="n">
-        <v>3.2221089429088683</v>
+        <v>3.5239692086246936</v>
       </c>
       <c r="F364" t="n">
-        <v>3.436626857112238</v>
+        <v>3.1628830506264847</v>
       </c>
       <c r="G364" t="n">
-        <v>3.2221089429088683</v>
+        <v>3.598666810528679</v>
       </c>
       <c r="H364" t="n">
-        <v>3.436626857112238</v>
+        <v>3.5025859028233723</v>
       </c>
       <c r="I364" t="n">
-        <v>3.2221089429088683</v>
+        <v>3.6280713786926064</v>
       </c>
       <c r="J364" t="n">
-        <v>3.436626857112238</v>
+        <v>3.462664407476618</v>
       </c>
       <c r="K364" t="n">
-        <v>3.2221089429088683</v>
+        <v>3.519671684970953</v>
       </c>
       <c r="L364" t="n">
-        <v>3.436626857112238</v>
+        <v>3.5239692086246936</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>5.748056593075288</v>
+        <v>5.977978856798298</v>
       </c>
       <c r="C366" t="n">
-        <v>5.112987180900614</v>
+        <v>5.254070187285027</v>
       </c>
       <c r="D366" t="n">
-        <v>5.748056593075288</v>
+        <v>5.392957306871917</v>
       </c>
       <c r="E366" t="n">
-        <v>5.112987180900614</v>
+        <v>5.846754929928326</v>
       </c>
       <c r="F366" t="n">
-        <v>5.748056593075288</v>
+        <v>5.752056443658988</v>
       </c>
       <c r="G366" t="n">
-        <v>5.112987180900614</v>
+        <v>5.765891817692081</v>
       </c>
       <c r="H366" t="n">
-        <v>5.748056593075288</v>
+        <v>5.604136813490445</v>
       </c>
       <c r="I366" t="n">
-        <v>5.112987180900614</v>
+        <v>5.155203272301283</v>
       </c>
       <c r="J366" t="n">
-        <v>5.748056593075288</v>
+        <v>5.818372628979744</v>
       </c>
       <c r="K366" t="n">
-        <v>5.112987180900614</v>
+        <v>5.8538938252168515</v>
       </c>
       <c r="L366" t="n">
-        <v>5.748056593075288</v>
+        <v>5.846754929928326</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>1.5237854830600255</v>
+        <v>1.5391772556161873</v>
       </c>
       <c r="C381" t="n">
-        <v>1.6967104992388173</v>
+        <v>1.7044893760456266</v>
       </c>
       <c r="D381" t="n">
-        <v>1.5237854830600255</v>
+        <v>1.7065604446582021</v>
       </c>
       <c r="E381" t="n">
-        <v>1.6967104992388173</v>
+        <v>1.7655553045913694</v>
       </c>
       <c r="F381" t="n">
-        <v>1.5237854830600255</v>
+        <v>1.7512459413285808</v>
       </c>
       <c r="G381" t="n">
-        <v>1.6967104992388173</v>
+        <v>1.5102142419046116</v>
       </c>
       <c r="H381" t="n">
-        <v>1.5237854830600255</v>
+        <v>1.7128039570323503</v>
       </c>
       <c r="I381" t="n">
-        <v>1.6967104992388173</v>
+        <v>1.6891151484066929</v>
       </c>
       <c r="J381" t="n">
-        <v>1.5237854830600255</v>
+        <v>1.6417291001479977</v>
       </c>
       <c r="K381" t="n">
-        <v>1.6967104992388173</v>
+        <v>1.685062082445333</v>
       </c>
       <c r="L381" t="n">
-        <v>1.5237854830600255</v>
+        <v>1.7655553045913694</v>
       </c>
     </row>
     <row r="382">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>1.728101673700728</v>
+        <v>1.7455572461623516</v>
       </c>
       <c r="C382" t="n">
-        <v>1.924213274188737</v>
+        <v>1.933035178701414</v>
       </c>
       <c r="D382" t="n">
-        <v>1.728101673700728</v>
+        <v>1.9353839457526354</v>
       </c>
       <c r="E382" t="n">
-        <v>1.924213274188737</v>
+        <v>2.002289108797971</v>
       </c>
       <c r="F382" t="n">
-        <v>1.728101673700728</v>
+        <v>1.9860610800636647</v>
       </c>
       <c r="G382" t="n">
-        <v>1.924213274188737</v>
+        <v>1.7127107378927753</v>
       </c>
       <c r="H382" t="n">
-        <v>1.728101673700728</v>
+        <v>1.942464617083005</v>
       </c>
       <c r="I382" t="n">
-        <v>1.924213274188737</v>
+        <v>1.9155995036604994</v>
       </c>
       <c r="J382" t="n">
-        <v>1.728101673700728</v>
+        <v>1.8618597153397252</v>
       </c>
       <c r="K382" t="n">
-        <v>1.924213274188737</v>
+        <v>1.911002983908008</v>
       </c>
       <c r="L382" t="n">
-        <v>1.728101673700728</v>
+        <v>2.002289108797971</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>1.6096717948377233</v>
+        <v>1.5935750768893462</v>
       </c>
       <c r="C387" t="n">
-        <v>1.7923435188167953</v>
+        <v>1.764729681768575</v>
       </c>
       <c r="D387" t="n">
-        <v>1.6096717948377233</v>
+        <v>1.766873946382339</v>
       </c>
       <c r="E387" t="n">
-        <v>1.7923435188167953</v>
+        <v>1.8279538110379774</v>
       </c>
       <c r="F387" t="n">
-        <v>1.6096717948377233</v>
+        <v>1.8131387242255055</v>
       </c>
       <c r="G387" t="n">
-        <v>1.7923435188167953</v>
+        <v>1.563588448231756</v>
       </c>
       <c r="H387" t="n">
-        <v>1.6096717948377233</v>
+        <v>1.7733381178579692</v>
       </c>
       <c r="I387" t="n">
-        <v>1.7923435188167953</v>
+        <v>1.7488120959918674</v>
       </c>
       <c r="J387" t="n">
-        <v>1.6096717948377233</v>
+        <v>1.6997513232824228</v>
       </c>
       <c r="K387" t="n">
-        <v>1.7923435188167953</v>
+        <v>1.744615785997392</v>
       </c>
       <c r="L387" t="n">
-        <v>1.6096717948377233</v>
+        <v>1.8279538110379774</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>1.214758200642827</v>
+        <v>1.2027308917255712</v>
       </c>
       <c r="C389" t="n">
-        <v>1.3526136165361715</v>
+        <v>1.3319076927026279</v>
       </c>
       <c r="D389" t="n">
-        <v>1.214758200642827</v>
+        <v>1.3335260496463384</v>
       </c>
       <c r="E389" t="n">
-        <v>1.3526136165361715</v>
+        <v>1.3796253148451592</v>
       </c>
       <c r="F389" t="n">
-        <v>1.214758200642827</v>
+        <v>1.368443813056277</v>
       </c>
       <c r="G389" t="n">
-        <v>1.3526136165361715</v>
+        <v>1.1800988581626546</v>
       </c>
       <c r="H389" t="n">
-        <v>1.214758200642827</v>
+        <v>1.3384048023552022</v>
       </c>
       <c r="I389" t="n">
-        <v>1.3526136165361715</v>
+        <v>1.319894093586414</v>
       </c>
       <c r="J389" t="n">
-        <v>1.214758200642827</v>
+        <v>1.2828660879622569</v>
       </c>
       <c r="K389" t="n">
-        <v>1.3526136165361715</v>
+        <v>1.31672698101368</v>
       </c>
       <c r="L389" t="n">
-        <v>1.214758200642827</v>
+        <v>1.3796253148451592</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>0.7556765464229517</v>
+        <v>0.7636310363852986</v>
       </c>
       <c r="C394" t="n">
-        <v>0.6721862306335843</v>
+        <v>0.6711584564730988</v>
       </c>
       <c r="D394" t="n">
-        <v>0.7556765464229517</v>
+        <v>0.6888999904616463</v>
       </c>
       <c r="E394" t="n">
-        <v>0.6721862306335843</v>
+        <v>0.7468684037840962</v>
       </c>
       <c r="F394" t="n">
-        <v>0.7556765464229517</v>
+        <v>0.7347715555104134</v>
       </c>
       <c r="G394" t="n">
-        <v>0.6721862306335843</v>
+        <v>0.7365388954868092</v>
       </c>
       <c r="H394" t="n">
-        <v>0.7556765464229517</v>
+        <v>0.7158762025502939</v>
       </c>
       <c r="I394" t="n">
-        <v>0.6721862306335843</v>
+        <v>0.6585291303142423</v>
       </c>
       <c r="J394" t="n">
-        <v>0.7556765464229517</v>
+        <v>0.7432428295879417</v>
       </c>
       <c r="K394" t="n">
-        <v>0.6721862306335843</v>
+        <v>0.7477803310656093</v>
       </c>
       <c r="L394" t="n">
-        <v>0.7556765464229517</v>
+        <v>0.7468684037840962</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>4.524555198931478</v>
+        <v>4.479757622704433</v>
       </c>
       <c r="C395" t="n">
-        <v>4.5064083231407075</v>
+        <v>4.457984806631662</v>
       </c>
       <c r="D395" t="n">
-        <v>4.524555198931478</v>
+        <v>4.13399604937889</v>
       </c>
       <c r="E395" t="n">
-        <v>4.5064083231407075</v>
+        <v>4.574715078833204</v>
       </c>
       <c r="F395" t="n">
-        <v>4.524555198931478</v>
+        <v>4.474294503361768</v>
       </c>
       <c r="G395" t="n">
-        <v>4.5064083231407075</v>
+        <v>4.401825429205315</v>
       </c>
       <c r="H395" t="n">
-        <v>4.524555198931478</v>
+        <v>4.612094899874857</v>
       </c>
       <c r="I395" t="n">
-        <v>4.5064083231407075</v>
+        <v>4.288628280336526</v>
       </c>
       <c r="J395" t="n">
-        <v>4.524555198931478</v>
+        <v>4.412413103689729</v>
       </c>
       <c r="K395" t="n">
-        <v>4.5064083231407075</v>
+        <v>3.9450768745070324</v>
       </c>
       <c r="L395" t="n">
-        <v>4.524555198931478</v>
+        <v>4.574715078833204</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>2.671230171877606</v>
+        <v>2.6982122948258644</v>
       </c>
       <c r="C397" t="n">
-        <v>2.6605165260038484</v>
+        <v>2.685098263896426</v>
       </c>
       <c r="D397" t="n">
-        <v>2.671230171877606</v>
+        <v>2.489955909815887</v>
       </c>
       <c r="E397" t="n">
-        <v>2.6605165260038484</v>
+        <v>2.755406321197622</v>
       </c>
       <c r="F397" t="n">
-        <v>2.671230171877606</v>
+        <v>2.694921791852272</v>
       </c>
       <c r="G397" t="n">
-        <v>2.6605165260038484</v>
+        <v>2.6512727904213556</v>
       </c>
       <c r="H397" t="n">
-        <v>2.671230171877606</v>
+        <v>2.7779206403210055</v>
       </c>
       <c r="I397" t="n">
-        <v>2.6605165260038484</v>
+        <v>2.5830927761123195</v>
       </c>
       <c r="J397" t="n">
-        <v>2.671230171877606</v>
+        <v>2.6576498750481377</v>
       </c>
       <c r="K397" t="n">
-        <v>2.6605165260038484</v>
+        <v>2.3761676017645534</v>
       </c>
       <c r="L397" t="n">
-        <v>2.671230171877606</v>
+        <v>2.755406321197622</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>3.603373464445315</v>
+        <v>3.5313059951564085</v>
       </c>
       <c r="C398" t="n">
-        <v>3.5889212215590995</v>
+        <v>3.5141429067920877</v>
       </c>
       <c r="D398" t="n">
-        <v>3.603373464445315</v>
+        <v>3.2587488571114958</v>
       </c>
       <c r="E398" t="n">
-        <v>3.5889212215590995</v>
+        <v>3.6061591149798637</v>
       </c>
       <c r="F398" t="n">
-        <v>3.603373464445315</v>
+        <v>3.526999524201544</v>
       </c>
       <c r="G398" t="n">
-        <v>3.5889212215590995</v>
+        <v>3.469873559454009</v>
       </c>
       <c r="H398" t="n">
-        <v>3.603373464445315</v>
+        <v>3.635624902475432</v>
       </c>
       <c r="I398" t="n">
-        <v>3.5889212215590995</v>
+        <v>3.3806424438219875</v>
       </c>
       <c r="J398" t="n">
-        <v>3.603373464445315</v>
+        <v>3.4782196177746827</v>
       </c>
       <c r="K398" t="n">
-        <v>3.5889212215590995</v>
+        <v>3.109827537921409</v>
       </c>
       <c r="L398" t="n">
-        <v>3.603373464445315</v>
+        <v>3.6061591149798637</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>4.309903340470704</v>
+        <v>4.267231030169015</v>
       </c>
       <c r="C400" t="n">
-        <v>4.292617380381585</v>
+        <v>4.246491149982415</v>
       </c>
       <c r="D400" t="n">
-        <v>4.309903340470704</v>
+        <v>3.9378729177441527</v>
       </c>
       <c r="E400" t="n">
-        <v>4.292617380381585</v>
+        <v>4.3576835585122735</v>
       </c>
       <c r="F400" t="n">
-        <v>4.309903340470704</v>
+        <v>4.262027089611519</v>
       </c>
       <c r="G400" t="n">
-        <v>4.292617380381585</v>
+        <v>4.192996059807424</v>
       </c>
       <c r="H400" t="n">
-        <v>4.309903340470704</v>
+        <v>4.393290023344808</v>
       </c>
       <c r="I400" t="n">
-        <v>4.292617380381585</v>
+        <v>4.085169157804644</v>
       </c>
       <c r="J400" t="n">
-        <v>4.309903340470704</v>
+        <v>4.2030814387279785</v>
       </c>
       <c r="K400" t="n">
-        <v>4.292617380381585</v>
+        <v>3.757916359130065</v>
       </c>
       <c r="L400" t="n">
-        <v>4.309903340470704</v>
+        <v>4.3576835585122735</v>
       </c>
     </row>
     <row r="401">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>1.6186209234931856</v>
+        <v>1.6351374635288305</v>
       </c>
       <c r="C403" t="n">
-        <v>1.6121290338908865</v>
+        <v>1.6271902596295225</v>
       </c>
       <c r="D403" t="n">
-        <v>1.6186209234931856</v>
+        <v>1.508932487811427</v>
       </c>
       <c r="E403" t="n">
-        <v>1.6121290338908865</v>
+        <v>1.6697974846805583</v>
       </c>
       <c r="F403" t="n">
-        <v>1.6186209234931856</v>
+        <v>1.6331433933452904</v>
       </c>
       <c r="G403" t="n">
-        <v>1.6121290338908865</v>
+        <v>1.6066917617882848</v>
       </c>
       <c r="H403" t="n">
-        <v>1.6186209234931856</v>
+        <v>1.6834413357352298</v>
       </c>
       <c r="I403" t="n">
-        <v>1.6121290338908865</v>
+        <v>1.5653741472053184</v>
       </c>
       <c r="J403" t="n">
-        <v>1.6186209234931856</v>
+        <v>1.610556324262239</v>
       </c>
       <c r="K403" t="n">
-        <v>1.6121290338908865</v>
+        <v>1.439975895417609</v>
       </c>
       <c r="L403" t="n">
-        <v>1.6186209234931856</v>
+        <v>1.6697974846805583</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>2.149157381568934</v>
+        <v>2.1706489553846233</v>
       </c>
       <c r="C406" t="n">
-        <v>2.2384158357883766</v>
+        <v>2.2484157610158366</v>
       </c>
       <c r="D406" t="n">
-        <v>2.149157381568934</v>
+        <v>2.183900778948149</v>
       </c>
       <c r="E406" t="n">
-        <v>2.2384158357883766</v>
+        <v>2.183900778948149</v>
       </c>
       <c r="F406" t="n">
-        <v>2.149157381568934</v>
+        <v>1.9676729797846628</v>
       </c>
       <c r="G406" t="n">
-        <v>2.2384158357883766</v>
+        <v>1.9973363922012275</v>
       </c>
       <c r="H406" t="n">
-        <v>2.149157381568934</v>
+        <v>2.1732864390695297</v>
       </c>
       <c r="I406" t="n">
-        <v>2.2384158357883766</v>
+        <v>1.9191145256420752</v>
       </c>
       <c r="J406" t="n">
-        <v>2.149157381568934</v>
+        <v>2.091396695265429</v>
       </c>
       <c r="K406" t="n">
-        <v>2.2384158357883766</v>
+        <v>1.9590522871895055</v>
       </c>
       <c r="L406" t="n">
-        <v>2.149157381568934</v>
+        <v>2.183900778948149</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>3.941438569174924</v>
+        <v>3.9820719564860054</v>
       </c>
       <c r="C407" t="n">
-        <v>4.105133753670263</v>
+        <v>4.124735750685137</v>
       </c>
       <c r="D407" t="n">
-        <v>3.941438569174924</v>
+        <v>4.0063825272274025</v>
       </c>
       <c r="E407" t="n">
-        <v>4.105133753670263</v>
+        <v>4.0063825272274025</v>
       </c>
       <c r="F407" t="n">
-        <v>3.941438569174924</v>
+        <v>3.609710991221693</v>
       </c>
       <c r="G407" t="n">
-        <v>4.105133753670263</v>
+        <v>3.664128746070842</v>
       </c>
       <c r="H407" t="n">
-        <v>3.941438569174924</v>
+        <v>3.986910440291183</v>
       </c>
       <c r="I407" t="n">
-        <v>4.105133753670263</v>
+        <v>3.5206301391512356</v>
       </c>
       <c r="J407" t="n">
-        <v>3.941438569174924</v>
+        <v>3.836683084772819</v>
       </c>
       <c r="K407" t="n">
-        <v>4.105133753670263</v>
+        <v>3.5938962653336093</v>
       </c>
       <c r="L407" t="n">
-        <v>3.941438569174924</v>
+        <v>4.0063825272274025</v>
       </c>
     </row>
     <row r="408">
@@ -15648,34 +15648,34 @@
         <v>1.9072484768213098</v>
       </c>
       <c r="C410" t="n">
-        <v>1.986460009821829</v>
+        <v>1.9755785590390997</v>
       </c>
       <c r="D410" t="n">
-        <v>1.9072484768213098</v>
+        <v>1.9188922390445575</v>
       </c>
       <c r="E410" t="n">
-        <v>1.986460009821829</v>
+        <v>1.9188922390445575</v>
       </c>
       <c r="F410" t="n">
-        <v>1.9072484768213098</v>
+        <v>1.728902909089586</v>
       </c>
       <c r="G410" t="n">
-        <v>1.986460009821829</v>
+        <v>1.7549667726214904</v>
       </c>
       <c r="H410" t="n">
-        <v>1.9072484768213098</v>
+        <v>1.9095659113047623</v>
       </c>
       <c r="I410" t="n">
-        <v>1.986460009821829</v>
+        <v>1.686236849489987</v>
       </c>
       <c r="J410" t="n">
-        <v>1.9072484768213098</v>
+        <v>1.8376131946988736</v>
       </c>
       <c r="K410" t="n">
-        <v>1.986460009821829</v>
+        <v>1.7213283066738099</v>
       </c>
       <c r="L410" t="n">
-        <v>1.9072484768213098</v>
+        <v>1.9188922390445575</v>
       </c>
     </row>
     <row r="411">
@@ -15686,34 +15686,34 @@
         <v>0.4343284935160118</v>
       </c>
       <c r="C411" t="n">
-        <v>0.4523669537456658</v>
+        <v>0.44988897345984163</v>
       </c>
       <c r="D411" t="n">
-        <v>0.4343284935160118</v>
+        <v>0.43698007130817784</v>
       </c>
       <c r="E411" t="n">
-        <v>0.4523669537456658</v>
+        <v>0.43698007130817784</v>
       </c>
       <c r="F411" t="n">
-        <v>0.4343284935160118</v>
+        <v>0.3937147178598498</v>
       </c>
       <c r="G411" t="n">
-        <v>0.4523669537456658</v>
+        <v>0.3996501157487949</v>
       </c>
       <c r="H411" t="n">
-        <v>0.4343284935160118</v>
+        <v>0.43485623168974863</v>
       </c>
       <c r="I411" t="n">
-        <v>0.4523669537456658</v>
+        <v>0.3839985819628413</v>
       </c>
       <c r="J411" t="n">
-        <v>0.4343284935160118</v>
+        <v>0.4184707866952378</v>
       </c>
       <c r="K411" t="n">
-        <v>0.4523669537456658</v>
+        <v>0.3919897901977185</v>
       </c>
       <c r="L411" t="n">
-        <v>0.4343284935160118</v>
+        <v>0.43698007130817784</v>
       </c>
     </row>
     <row r="412">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>1.8823379066126664</v>
+        <v>1.9203649350290837</v>
       </c>
       <c r="C414" t="n">
-        <v>1.9605148578698395</v>
+        <v>1.9891649343440085</v>
       </c>
       <c r="D414" t="n">
-        <v>1.8823379066126664</v>
+        <v>1.9320887733003338</v>
       </c>
       <c r="E414" t="n">
-        <v>1.9605148578698395</v>
+        <v>1.9320887733003338</v>
       </c>
       <c r="F414" t="n">
-        <v>1.8823379066126664</v>
+        <v>1.7407928557997108</v>
       </c>
       <c r="G414" t="n">
-        <v>1.9605148578698395</v>
+        <v>1.7670359647634002</v>
       </c>
       <c r="H414" t="n">
-        <v>1.8823379066126664</v>
+        <v>1.9226983068866752</v>
       </c>
       <c r="I414" t="n">
-        <v>1.9605148578698395</v>
+        <v>1.6978333747637182</v>
       </c>
       <c r="J414" t="n">
-        <v>1.8823379066126664</v>
+        <v>1.8502507597373277</v>
       </c>
       <c r="K414" t="n">
-        <v>1.9605148578698395</v>
+        <v>1.7331661616102436</v>
       </c>
       <c r="L414" t="n">
-        <v>1.8823379066126664</v>
+        <v>1.9320887733003338</v>
       </c>
     </row>
     <row r="415">
@@ -15876,34 +15876,34 @@
         <v>4.17282451972489</v>
       </c>
       <c r="C416" t="n">
-        <v>4.34612958781987</v>
+        <v>4.322322315097844</v>
       </c>
       <c r="D416" t="n">
-        <v>4.17282451972489</v>
+        <v>4.198299635892234</v>
       </c>
       <c r="E416" t="n">
-        <v>4.34612958781987</v>
+        <v>4.198299635892234</v>
       </c>
       <c r="F416" t="n">
-        <v>4.17282451972489</v>
+        <v>3.7826264060236734</v>
       </c>
       <c r="G416" t="n">
-        <v>4.34612958781987</v>
+        <v>3.839650925978177</v>
       </c>
       <c r="H416" t="n">
-        <v>4.17282451972489</v>
+        <v>4.177894780654668</v>
       </c>
       <c r="I416" t="n">
-        <v>4.34612958781987</v>
+        <v>3.689278327983011</v>
       </c>
       <c r="J416" t="n">
-        <v>4.17282451972489</v>
+        <v>4.020471107880647</v>
       </c>
       <c r="K416" t="n">
-        <v>4.34612958781987</v>
+        <v>3.766054109822186</v>
       </c>
       <c r="L416" t="n">
-        <v>4.17282451972489</v>
+        <v>4.198299635892234</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.312163153220717</v>
+        <v>1.3254173264855726</v>
       </c>
       <c r="C420" t="n">
-        <v>1.2955565952384478</v>
+        <v>1.3118027678052062</v>
       </c>
       <c r="D420" t="n">
-        <v>1.312163153220717</v>
+        <v>1.1647175862180223</v>
       </c>
       <c r="E420" t="n">
-        <v>1.2955565952384478</v>
+        <v>1.3023596773325812</v>
       </c>
       <c r="F420" t="n">
-        <v>1.312163153220717</v>
+        <v>1.2688682532298448</v>
       </c>
       <c r="G420" t="n">
-        <v>1.2955565952384478</v>
+        <v>1.189607442280678</v>
       </c>
       <c r="H420" t="n">
-        <v>1.312163153220717</v>
+        <v>1.3254173264855726</v>
       </c>
       <c r="I420" t="n">
-        <v>1.2955565952384478</v>
+        <v>1.3173747465625567</v>
       </c>
       <c r="J420" t="n">
-        <v>1.312163153220717</v>
+        <v>1.353512207555519</v>
       </c>
       <c r="K420" t="n">
-        <v>1.2955565952384478</v>
+        <v>1.3645717037698757</v>
       </c>
       <c r="L420" t="n">
-        <v>1.312163153220717</v>
+        <v>1.3023596773325812</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>2.128411246880296</v>
+        <v>2.1501297289913195</v>
       </c>
       <c r="C423" t="n">
-        <v>2.101474364302337</v>
+        <v>2.1280438042181977</v>
       </c>
       <c r="D423" t="n">
-        <v>2.128411246880296</v>
+        <v>1.8894380343183481</v>
       </c>
       <c r="E423" t="n">
-        <v>2.101474364302337</v>
+        <v>2.1127249539564597</v>
       </c>
       <c r="F423" t="n">
-        <v>2.128411246880296</v>
+        <v>2.058394212090808</v>
       </c>
       <c r="G423" t="n">
-        <v>2.101474364302337</v>
+        <v>1.9298150675751358</v>
       </c>
       <c r="H423" t="n">
-        <v>2.128411246880296</v>
+        <v>2.1501297289913195</v>
       </c>
       <c r="I423" t="n">
-        <v>2.101474364302337</v>
+        <v>2.1370828268234434</v>
       </c>
       <c r="J423" t="n">
-        <v>2.128411246880296</v>
+        <v>2.1957060450797337</v>
       </c>
       <c r="K423" t="n">
-        <v>2.101474364302337</v>
+        <v>2.213647074763726</v>
       </c>
       <c r="L423" t="n">
-        <v>2.128411246880296</v>
+        <v>2.1127249539564597</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>3.565100979953841</v>
+        <v>3.530488349080503</v>
       </c>
       <c r="C425" t="n">
-        <v>3.705671009841789</v>
+        <v>3.6625463586352724</v>
       </c>
       <c r="D425" t="n">
-        <v>3.565100979953841</v>
+        <v>3.9387912117884607</v>
       </c>
       <c r="E425" t="n">
-        <v>3.705671009841789</v>
+        <v>3.4337626422916614</v>
       </c>
       <c r="F425" t="n">
-        <v>3.565100979953841</v>
+        <v>3.369148827262816</v>
       </c>
       <c r="G425" t="n">
-        <v>3.705671009841789</v>
+        <v>3.8025587516269574</v>
       </c>
       <c r="H425" t="n">
-        <v>3.565100979953841</v>
+        <v>3.906868340769245</v>
       </c>
       <c r="I425" t="n">
-        <v>3.705671009841789</v>
+        <v>3.825773393285849</v>
       </c>
       <c r="J425" t="n">
-        <v>3.565100979953841</v>
+        <v>3.8211078157287983</v>
       </c>
       <c r="K425" t="n">
-        <v>3.705671009841789</v>
+        <v>3.768260266297842</v>
       </c>
       <c r="L425" t="n">
-        <v>3.565100979953841</v>
+        <v>3.4337626422916614</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>3.783911565780604</v>
+        <v>3.8221328947278828</v>
       </c>
       <c r="C428" t="n">
-        <v>3.7360228968580858</v>
+        <v>3.7828723150300076</v>
       </c>
       <c r="D428" t="n">
-        <v>3.783911565780604</v>
+        <v>3.3587197861340314</v>
       </c>
       <c r="E428" t="n">
-        <v>3.7360228968580858</v>
+        <v>3.755641083023245</v>
       </c>
       <c r="F428" t="n">
-        <v>3.783911565780604</v>
+        <v>3.659061182341115</v>
       </c>
       <c r="G428" t="n">
-        <v>3.7360228968580858</v>
+        <v>3.4304951701592032</v>
       </c>
       <c r="H428" t="n">
-        <v>3.783911565780604</v>
+        <v>3.8221328947278828</v>
       </c>
       <c r="I428" t="n">
-        <v>3.7360228968580858</v>
+        <v>3.7989403434702758</v>
       </c>
       <c r="J428" t="n">
-        <v>3.783911565780604</v>
+        <v>3.903150674535878</v>
       </c>
       <c r="K428" t="n">
-        <v>3.7360228968580858</v>
+        <v>3.9350431686472196</v>
       </c>
       <c r="L428" t="n">
-        <v>3.783911565780604</v>
+        <v>3.755641083023245</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>5.340764725975235</v>
+        <v>5.394172373234988</v>
       </c>
       <c r="C429" t="n">
-        <v>4.7506946283400815</v>
+        <v>4.740960269382688</v>
       </c>
       <c r="D429" t="n">
-        <v>5.340764725975235</v>
+        <v>4.866283740980751</v>
       </c>
       <c r="E429" t="n">
-        <v>4.7506946283400815</v>
+        <v>5.275763710711125</v>
       </c>
       <c r="F429" t="n">
-        <v>5.340764725975235</v>
+        <v>5.19031343217086</v>
       </c>
       <c r="G429" t="n">
-        <v>4.7506946283400815</v>
+        <v>5.2027976503607265</v>
       </c>
       <c r="H429" t="n">
-        <v>5.340764725975235</v>
+        <v>5.056839560545018</v>
       </c>
       <c r="I429" t="n">
-        <v>4.7506946283400815</v>
+        <v>4.651748648832073</v>
       </c>
       <c r="J429" t="n">
-        <v>5.340764725975235</v>
+        <v>5.2501532113545455</v>
       </c>
       <c r="K429" t="n">
-        <v>4.7506946283400815</v>
+        <v>5.282205424986676</v>
       </c>
       <c r="L429" t="n">
-        <v>5.340764725975235</v>
+        <v>5.275763710711125</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>3.1937627803647337</v>
+        <v>3.225700408168381</v>
       </c>
       <c r="C446" t="n">
-        <v>3.379048045040339</v>
+        <v>3.42852661131627</v>
       </c>
       <c r="D446" t="n">
-        <v>3.1937627803647337</v>
+        <v>3.211568094563131</v>
       </c>
       <c r="E446" t="n">
-        <v>3.379048045040339</v>
+        <v>3.4274245126819434</v>
       </c>
       <c r="F446" t="n">
-        <v>3.1937627803647337</v>
+        <v>3.580172979162032</v>
       </c>
       <c r="G446" t="n">
-        <v>3.379048045040339</v>
+        <v>3.685935474315821</v>
       </c>
       <c r="H446" t="n">
-        <v>3.1937627803647337</v>
+        <v>3.526351980889908</v>
       </c>
       <c r="I446" t="n">
-        <v>3.379048045040339</v>
+        <v>3.575806914321064</v>
       </c>
       <c r="J446" t="n">
-        <v>3.1937627803647337</v>
+        <v>3.2133278595024466</v>
       </c>
       <c r="K446" t="n">
-        <v>3.379048045040339</v>
+        <v>3.5584486311036883</v>
       </c>
       <c r="L446" t="n">
-        <v>3.1937627803647337</v>
+        <v>3.4274245126819434</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.650988558944298</v>
+        <v>1.6678353809743418</v>
       </c>
       <c r="C447" t="n">
-        <v>1.7467702037180077</v>
+        <v>1.772705850947969</v>
       </c>
       <c r="D447" t="n">
-        <v>1.650988558944298</v>
+        <v>1.6605283252458638</v>
       </c>
       <c r="E447" t="n">
-        <v>1.7467702037180077</v>
+        <v>1.7721360152958423</v>
       </c>
       <c r="F447" t="n">
-        <v>1.650988558944298</v>
+        <v>1.8511139935792387</v>
       </c>
       <c r="G447" t="n">
-        <v>1.7467702037180077</v>
+        <v>1.9057980649675599</v>
       </c>
       <c r="H447" t="n">
-        <v>1.650988558944298</v>
+        <v>1.8232860635798196</v>
       </c>
       <c r="I447" t="n">
-        <v>1.7467702037180077</v>
+        <v>1.8488565373694323</v>
       </c>
       <c r="J447" t="n">
-        <v>1.650988558944298</v>
+        <v>1.66143820460743</v>
       </c>
       <c r="K447" t="n">
-        <v>1.7467702037180077</v>
+        <v>1.83988150706916</v>
       </c>
       <c r="L447" t="n">
-        <v>1.650988558944298</v>
+        <v>1.7721360152958423</v>
       </c>
     </row>
     <row r="448">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>2.5060769668910545</v>
+        <v>2.5313908756475296</v>
       </c>
       <c r="C449" t="n">
-        <v>2.651466329232743</v>
+        <v>2.6905601520907614</v>
       </c>
       <c r="D449" t="n">
-        <v>2.5060769668910545</v>
+        <v>2.5203004440558265</v>
       </c>
       <c r="E449" t="n">
-        <v>2.651466329232743</v>
+        <v>2.6896952725068006</v>
       </c>
       <c r="F449" t="n">
-        <v>2.5060769668910545</v>
+        <v>2.8095656961015343</v>
       </c>
       <c r="G449" t="n">
-        <v>2.651466329232743</v>
+        <v>2.8925635512464383</v>
       </c>
       <c r="H449" t="n">
-        <v>2.5060769668910545</v>
+        <v>2.7673292926217528</v>
       </c>
       <c r="I449" t="n">
-        <v>2.651466329232743</v>
+        <v>2.806139396289895</v>
       </c>
       <c r="J449" t="n">
-        <v>2.5060769668910545</v>
+        <v>2.521681431855992</v>
       </c>
       <c r="K449" t="n">
-        <v>2.651466329232743</v>
+        <v>2.7925173625628634</v>
       </c>
       <c r="L449" t="n">
-        <v>2.5060769668910545</v>
+        <v>2.6896952725068006</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5.022838677381687</v>
+        <v>4.9735951609367675</v>
       </c>
       <c r="C450" t="n">
-        <v>5.314237274510823</v>
+        <v>5.28632582244923</v>
       </c>
       <c r="D450" t="n">
-        <v>5.022838677381687</v>
+        <v>4.9518050385863095</v>
       </c>
       <c r="E450" t="n">
-        <v>5.314237274510823</v>
+        <v>5.284626534933043</v>
       </c>
       <c r="F450" t="n">
-        <v>5.022838677381687</v>
+        <v>5.520144077666424</v>
       </c>
       <c r="G450" t="n">
-        <v>5.314237274510823</v>
+        <v>5.683215586965134</v>
       </c>
       <c r="H450" t="n">
-        <v>5.022838677381687</v>
+        <v>5.4371593541362495</v>
       </c>
       <c r="I450" t="n">
-        <v>5.314237274510823</v>
+        <v>5.513412194286806</v>
       </c>
       <c r="J450" t="n">
-        <v>5.022838677381687</v>
+        <v>4.9545183588823924</v>
       </c>
       <c r="K450" t="n">
-        <v>5.314237274510823</v>
+        <v>5.486648061699201</v>
       </c>
       <c r="L450" t="n">
-        <v>5.022838677381687</v>
+        <v>5.284626534933043</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>4.192298049289436</v>
+        <v>4.150375068796542</v>
       </c>
       <c r="C452" t="n">
-        <v>4.435513061511761</v>
+        <v>4.411343140943594</v>
       </c>
       <c r="D452" t="n">
-        <v>4.192298049289436</v>
+        <v>4.132191606407067</v>
       </c>
       <c r="E452" t="n">
-        <v>4.435513061511761</v>
+        <v>4.4099251162926745</v>
       </c>
       <c r="F452" t="n">
-        <v>4.192298049289436</v>
+        <v>4.6064602394772365</v>
       </c>
       <c r="G452" t="n">
-        <v>4.435513061511761</v>
+        <v>4.742540460066986</v>
       </c>
       <c r="H452" t="n">
-        <v>4.192298049289436</v>
+        <v>4.53721099089832</v>
       </c>
       <c r="I452" t="n">
-        <v>4.435513061511761</v>
+        <v>4.600842604740044</v>
       </c>
       <c r="J452" t="n">
-        <v>4.192298049289436</v>
+        <v>4.1344558230443536</v>
       </c>
       <c r="K452" t="n">
-        <v>4.435513061511761</v>
+        <v>4.578508420908194</v>
       </c>
       <c r="L452" t="n">
-        <v>4.192298049289436</v>
+        <v>4.4099251162926745</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>2.2517719285835747</v>
+        <v>2.2749860721772195</v>
       </c>
       <c r="C453" t="n">
-        <v>2.382407854439364</v>
+        <v>2.4180330786709323</v>
       </c>
       <c r="D453" t="n">
-        <v>2.2517719285835747</v>
+        <v>2.2650189913726386</v>
       </c>
       <c r="E453" t="n">
-        <v>2.382407854439364</v>
+        <v>2.4172558028157693</v>
       </c>
       <c r="F453" t="n">
-        <v>2.2517719285835747</v>
+        <v>2.5249845407074414</v>
       </c>
       <c r="G453" t="n">
-        <v>2.382407854439364</v>
+        <v>2.5995755358365282</v>
       </c>
       <c r="H453" t="n">
-        <v>2.2517719285835747</v>
+        <v>2.4870262662348033</v>
       </c>
       <c r="I453" t="n">
-        <v>2.382407854439364</v>
+        <v>2.5219052911037667</v>
       </c>
       <c r="J453" t="n">
-        <v>2.2517719285835747</v>
+        <v>2.2662600987975905</v>
       </c>
       <c r="K453" t="n">
-        <v>2.382407854439364</v>
+        <v>2.509663034365839</v>
       </c>
       <c r="L453" t="n">
-        <v>2.2517719285835747</v>
+        <v>2.4172558028157693</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>7.790267372223184</v>
+        <v>8.023975393389879</v>
       </c>
       <c r="C456" t="n">
-        <v>7.8088697089780945</v>
+        <v>7.966214327893218</v>
       </c>
       <c r="D456" t="n">
-        <v>7.790267372223184</v>
+        <v>8.097365411951206</v>
       </c>
       <c r="E456" t="n">
-        <v>7.8088697089780945</v>
+        <v>8.067848898435487</v>
       </c>
       <c r="F456" t="n">
-        <v>7.790267372223184</v>
+        <v>8.107252305532624</v>
       </c>
       <c r="G456" t="n">
-        <v>7.8088697089780945</v>
+        <v>7.124291457090167</v>
       </c>
       <c r="H456" t="n">
-        <v>7.790267372223184</v>
+        <v>7.4815094532182576</v>
       </c>
       <c r="I456" t="n">
-        <v>7.8088697089780945</v>
+        <v>7.414672968062563</v>
       </c>
       <c r="J456" t="n">
-        <v>7.790267372223184</v>
+        <v>7.272551631043291</v>
       </c>
       <c r="K456" t="n">
-        <v>7.8088697089780945</v>
+        <v>7.30455406017885</v>
       </c>
       <c r="L456" t="n">
-        <v>7.790267372223184</v>
+        <v>8.067848898435487</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>0.695932043720195</v>
+        <v>0.7031813358422804</v>
       </c>
       <c r="C458" t="n">
-        <v>0.6975938560325652</v>
+        <v>0.6981194430516975</v>
       </c>
       <c r="D458" t="n">
-        <v>0.695932043720195</v>
+        <v>0.7096128724259987</v>
       </c>
       <c r="E458" t="n">
-        <v>0.6975938560325652</v>
+        <v>0.7070261918361646</v>
       </c>
       <c r="F458" t="n">
-        <v>0.695932043720195</v>
+        <v>0.7104793106558118</v>
       </c>
       <c r="G458" t="n">
-        <v>0.6975938560325652</v>
+        <v>0.6243375058020936</v>
       </c>
       <c r="H458" t="n">
-        <v>0.695932043720195</v>
+        <v>0.6556423161223224</v>
       </c>
       <c r="I458" t="n">
-        <v>0.6975938560325652</v>
+        <v>0.6497850986446241</v>
       </c>
       <c r="J458" t="n">
-        <v>0.695932043720195</v>
+        <v>0.6373302908071985</v>
       </c>
       <c r="K458" t="n">
-        <v>0.6975938560325652</v>
+        <v>0.640134824690525</v>
       </c>
       <c r="L458" t="n">
-        <v>0.695932043720195</v>
+        <v>0.7070261918361646</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.5597805069559203</v>
       </c>
       <c r="C460" t="n">
-        <v>2.643880563643688</v>
+        <v>2.6583985180909733</v>
       </c>
       <c r="D460" t="n">
-        <v>2.5597805069559203</v>
+        <v>2.906710465539133</v>
       </c>
       <c r="E460" t="n">
-        <v>2.643880563643688</v>
+        <v>2.7835901339116242</v>
       </c>
       <c r="F460" t="n">
-        <v>2.5597805069559203</v>
+        <v>2.8925830779273047</v>
       </c>
       <c r="G460" t="n">
-        <v>2.643880563643688</v>
+        <v>2.6189173511139825</v>
       </c>
       <c r="H460" t="n">
-        <v>2.5597805069559203</v>
+        <v>2.8768530165612702</v>
       </c>
       <c r="I460" t="n">
-        <v>2.643880563643688</v>
+        <v>2.677835627384247</v>
       </c>
       <c r="J460" t="n">
-        <v>2.5597805069559203</v>
+        <v>2.5542874154469226</v>
       </c>
       <c r="K460" t="n">
-        <v>2.643880563643688</v>
+        <v>2.6823615457063013</v>
       </c>
       <c r="L460" t="n">
-        <v>2.5597805069559203</v>
+        <v>2.7835901339116242</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.7112110117216017</v>
+        <v>0.7186974434239345</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7129093085979091</v>
+        <v>0.7135238570073945</v>
       </c>
       <c r="D461" t="n">
-        <v>0.7112110117216017</v>
+        <v>0.725270895625235</v>
       </c>
       <c r="E461" t="n">
-        <v>0.7129093085979091</v>
+        <v>0.7226271384148116</v>
       </c>
       <c r="F461" t="n">
-        <v>0.7112110117216017</v>
+        <v>0.7261564523215109</v>
       </c>
       <c r="G461" t="n">
-        <v>0.7129093085979091</v>
+        <v>0.6381138781452009</v>
       </c>
       <c r="H461" t="n">
-        <v>0.7112110117216017</v>
+        <v>0.6701094474204724</v>
       </c>
       <c r="I461" t="n">
-        <v>0.7129093085979091</v>
+        <v>0.6641229870122799</v>
       </c>
       <c r="J461" t="n">
-        <v>0.7112110117216017</v>
+        <v>0.6513933565530581</v>
       </c>
       <c r="K461" t="n">
-        <v>0.7129093085979091</v>
+        <v>0.6542597741173528</v>
       </c>
       <c r="L461" t="n">
-        <v>0.7112110117216017</v>
+        <v>0.7226271384148116</v>
       </c>
     </row>
     <row r="462">
@@ -17776,34 +17776,34 @@
         <v>2.552018211137584</v>
       </c>
       <c r="C466" t="n">
-        <v>2.558112161434787</v>
+        <v>2.533647355817711</v>
       </c>
       <c r="D466" t="n">
-        <v>2.552018211137584</v>
+        <v>2.5753598410282392</v>
       </c>
       <c r="E466" t="n">
-        <v>2.558112161434787</v>
+        <v>2.5659721402529536</v>
       </c>
       <c r="F466" t="n">
-        <v>2.552018211137584</v>
+        <v>2.5785043587061156</v>
       </c>
       <c r="G466" t="n">
-        <v>2.558112161434787</v>
+        <v>2.2658745383147267</v>
       </c>
       <c r="H466" t="n">
-        <v>2.552018211137584</v>
+        <v>2.379487403106904</v>
       </c>
       <c r="I466" t="n">
-        <v>2.558112161434787</v>
+        <v>2.358230118665794</v>
       </c>
       <c r="J466" t="n">
-        <v>2.552018211137584</v>
+        <v>2.313028554293701</v>
       </c>
       <c r="K466" t="n">
-        <v>2.558112161434787</v>
+        <v>2.3232068983127845</v>
       </c>
       <c r="L466" t="n">
-        <v>2.552018211137584</v>
+        <v>2.5659721402529536</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>1.9843670324398557</v>
+        <v>2.0042107027642544</v>
       </c>
       <c r="C468" t="n">
-        <v>1.8605007255895902</v>
+        <v>1.8745795265908691</v>
       </c>
       <c r="D468" t="n">
-        <v>1.9843670324398557</v>
+        <v>1.9479850362243711</v>
       </c>
       <c r="E468" t="n">
-        <v>1.8605007255895902</v>
+        <v>2.0347999976942592</v>
       </c>
       <c r="F468" t="n">
-        <v>1.9843670324398557</v>
+        <v>1.8263026840219492</v>
       </c>
       <c r="G468" t="n">
-        <v>1.8605007255895902</v>
+        <v>2.077931668598193</v>
       </c>
       <c r="H468" t="n">
-        <v>1.9843670324398557</v>
+        <v>2.022452911775139</v>
       </c>
       <c r="I468" t="n">
-        <v>1.8605007255895902</v>
+        <v>2.0949103683795998</v>
       </c>
       <c r="J468" t="n">
-        <v>1.9843670324398557</v>
+        <v>1.9994015586473315</v>
       </c>
       <c r="K468" t="n">
-        <v>1.8605007255895902</v>
+        <v>2.032318534150446</v>
       </c>
       <c r="L468" t="n">
-        <v>1.9843670324398557</v>
+        <v>2.0347999976942592</v>
       </c>
     </row>
     <row r="469">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>1.3604790307952674</v>
+        <v>1.3743614698850148</v>
       </c>
       <c r="C471" t="n">
-        <v>1.267404105659774</v>
+        <v>1.2744782975642508</v>
       </c>
       <c r="D471" t="n">
-        <v>1.3604790307952674</v>
+        <v>1.4103484899045393</v>
       </c>
       <c r="E471" t="n">
-        <v>1.267404105659774</v>
+        <v>1.3726935553897963</v>
       </c>
       <c r="F471" t="n">
-        <v>1.3604790307952674</v>
+        <v>1.4218723931969914</v>
       </c>
       <c r="G471" t="n">
-        <v>1.267404105659774</v>
+        <v>1.381073856938644</v>
       </c>
       <c r="H471" t="n">
-        <v>1.3604790307952674</v>
+        <v>1.2395610844395997</v>
       </c>
       <c r="I471" t="n">
-        <v>1.267404105659774</v>
+        <v>1.35704797783527</v>
       </c>
       <c r="J471" t="n">
-        <v>1.3604790307952674</v>
+        <v>1.2162360095959053</v>
       </c>
       <c r="K471" t="n">
-        <v>1.267404105659774</v>
+        <v>1.3221501918054315</v>
       </c>
       <c r="L471" t="n">
-        <v>1.3604790307952674</v>
+        <v>1.3726935553897963</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>3.0212663092008136</v>
+        <v>3.051784150707893</v>
       </c>
       <c r="C473" t="n">
-        <v>2.8326756434550204</v>
+        <v>2.8543965365523896</v>
       </c>
       <c r="D473" t="n">
-        <v>3.0212663092008136</v>
+        <v>2.9661700993645166</v>
       </c>
       <c r="E473" t="n">
-        <v>2.8326756434550204</v>
+        <v>3.098362050586366</v>
       </c>
       <c r="F473" t="n">
-        <v>3.0212663092008136</v>
+        <v>2.780886050456867</v>
       </c>
       <c r="G473" t="n">
-        <v>2.8326756434550204</v>
+        <v>3.164038054350156</v>
       </c>
       <c r="H473" t="n">
-        <v>3.0212663092008136</v>
+        <v>3.079561312189235</v>
       </c>
       <c r="I473" t="n">
-        <v>2.8326756434550204</v>
+        <v>3.1898912876559455</v>
       </c>
       <c r="J473" t="n">
-        <v>3.0212663092008136</v>
+        <v>3.0444613329152057</v>
       </c>
       <c r="K473" t="n">
-        <v>2.8326756434550204</v>
+        <v>3.094583560079792</v>
       </c>
       <c r="L473" t="n">
-        <v>3.0212663092008136</v>
+        <v>3.098362050586366</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.2588091581830916</v>
+        <v>1.2210448834375989</v>
       </c>
       <c r="C475" t="n">
-        <v>1.1802329477822784</v>
+        <v>1.1420684144554707</v>
       </c>
       <c r="D475" t="n">
-        <v>1.2588091581830916</v>
+        <v>1.18678997084198</v>
       </c>
       <c r="E475" t="n">
-        <v>1.1802329477822784</v>
+        <v>1.2396810986871885</v>
       </c>
       <c r="F475" t="n">
-        <v>1.2588091581830916</v>
+        <v>1.11265624161057</v>
       </c>
       <c r="G475" t="n">
-        <v>1.1802329477822784</v>
+        <v>1.2659586282896023</v>
       </c>
       <c r="H475" t="n">
-        <v>1.2588091581830916</v>
+        <v>1.2321587628039836</v>
       </c>
       <c r="I475" t="n">
-        <v>1.1802329477822784</v>
+        <v>1.2763027275736327</v>
       </c>
       <c r="J475" t="n">
-        <v>1.2588091581830916</v>
+        <v>1.2181149615438658</v>
       </c>
       <c r="K475" t="n">
-        <v>1.1802329477822784</v>
+        <v>1.238169292388863</v>
       </c>
       <c r="L475" t="n">
-        <v>1.2588091581830916</v>
+        <v>1.2396810986871885</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>6.757324645865853</v>
+        <v>6.89247113878317</v>
       </c>
       <c r="C482" t="n">
-        <v>6.415230849198209</v>
+        <v>6.622540665485916</v>
       </c>
       <c r="D482" t="n">
-        <v>6.757324645865853</v>
+        <v>7.4051684513756815</v>
       </c>
       <c r="E482" t="n">
-        <v>6.415230849198209</v>
+        <v>6.790107703781782</v>
       </c>
       <c r="F482" t="n">
-        <v>6.757324645865853</v>
+        <v>7.45886151088025</v>
       </c>
       <c r="G482" t="n">
-        <v>6.415230849198209</v>
+        <v>6.942866034023131</v>
       </c>
       <c r="H482" t="n">
-        <v>6.757324645865853</v>
+        <v>7.217057386100637</v>
       </c>
       <c r="I482" t="n">
-        <v>6.415230849198209</v>
+        <v>7.536273382711036</v>
       </c>
       <c r="J482" t="n">
-        <v>6.757324645865853</v>
+        <v>6.954600452771472</v>
       </c>
       <c r="K482" t="n">
-        <v>6.415230849198209</v>
+        <v>7.499645085366494</v>
       </c>
       <c r="L482" t="n">
-        <v>6.757324645865853</v>
+        <v>6.790107703781782</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>2.1835404644989374</v>
+        <v>2.1180342505639693</v>
       </c>
       <c r="C484" t="n">
-        <v>2.0729973595239715</v>
+        <v>2.0350854828139657</v>
       </c>
       <c r="D484" t="n">
-        <v>2.1835404644989374</v>
+        <v>2.2755844885523073</v>
       </c>
       <c r="E484" t="n">
-        <v>2.0729973595239715</v>
+        <v>2.086578295657121</v>
       </c>
       <c r="F484" t="n">
-        <v>2.1835404644989374</v>
+        <v>2.2920841933400915</v>
       </c>
       <c r="G484" t="n">
-        <v>2.0729973595239715</v>
+        <v>2.1335204400630037</v>
       </c>
       <c r="H484" t="n">
-        <v>2.1835404644989374</v>
+        <v>2.217778562181325</v>
       </c>
       <c r="I484" t="n">
-        <v>2.0729973595239715</v>
+        <v>2.3158726129992298</v>
       </c>
       <c r="J484" t="n">
-        <v>2.1835404644989374</v>
+        <v>2.1371263892674324</v>
       </c>
       <c r="K484" t="n">
-        <v>2.0729973595239715</v>
+        <v>2.3046168548315897</v>
       </c>
       <c r="L484" t="n">
-        <v>2.1835404644989374</v>
+        <v>2.086578295657121</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>4.036238106111226</v>
+        <v>4.076600487172338</v>
       </c>
       <c r="C485" t="n">
-        <v>3.8319010214901734</v>
+        <v>3.9169482119884163</v>
       </c>
       <c r="D485" t="n">
-        <v>4.036238106111226</v>
+        <v>4.3798389153357915</v>
       </c>
       <c r="E485" t="n">
-        <v>3.8319010214901734</v>
+        <v>4.016056914251558</v>
       </c>
       <c r="F485" t="n">
-        <v>4.036238106111226</v>
+        <v>4.411596052671116</v>
       </c>
       <c r="G485" t="n">
-        <v>3.8319010214901734</v>
+        <v>4.106406902077761</v>
       </c>
       <c r="H485" t="n">
-        <v>4.036238106111226</v>
+        <v>4.268579303956681</v>
       </c>
       <c r="I485" t="n">
-        <v>3.8319010214901734</v>
+        <v>4.457381848224554</v>
       </c>
       <c r="J485" t="n">
-        <v>4.036238106111226</v>
+        <v>4.11334730650209</v>
       </c>
       <c r="K485" t="n">
-        <v>3.8319010214901734</v>
+        <v>4.4357177843797535</v>
       </c>
       <c r="L485" t="n">
-        <v>4.036238106111226</v>
+        <v>4.016056914251558</v>
       </c>
     </row>
     <row r="486">
@@ -18536,34 +18536,34 @@
         <v>2.3843549631971843</v>
       </c>
       <c r="C486" t="n">
-        <v>2.26364549832598</v>
+        <v>2.2909762531866407</v>
       </c>
       <c r="D486" t="n">
-        <v>2.3843549631971843</v>
+        <v>2.5617155001197416</v>
       </c>
       <c r="E486" t="n">
-        <v>2.26364549832598</v>
+        <v>2.348943750095092</v>
       </c>
       <c r="F486" t="n">
-        <v>2.3843549631971843</v>
+        <v>2.5802898706671327</v>
       </c>
       <c r="G486" t="n">
-        <v>2.26364549832598</v>
+        <v>2.4017883794807986</v>
       </c>
       <c r="H486" t="n">
-        <v>2.3843549631971843</v>
+        <v>2.4966410815128834</v>
       </c>
       <c r="I486" t="n">
-        <v>2.26364549832598</v>
+        <v>2.6070694359483744</v>
       </c>
       <c r="J486" t="n">
-        <v>2.3843549631971843</v>
+        <v>2.4058477391820534</v>
       </c>
       <c r="K486" t="n">
-        <v>2.26364549832598</v>
+        <v>2.5943983836061317</v>
       </c>
       <c r="L486" t="n">
-        <v>2.3843549631971843</v>
+        <v>2.348943750095092</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.684965996948682</v>
       </c>
       <c r="C491" t="n">
-        <v>2.5490379100272333</v>
+        <v>2.579814429716825</v>
       </c>
       <c r="D491" t="n">
-        <v>2.684965996948682</v>
+        <v>2.884687522555373</v>
       </c>
       <c r="E491" t="n">
-        <v>2.5490379100272333</v>
+        <v>2.6450902634453404</v>
       </c>
       <c r="F491" t="n">
-        <v>2.684965996948682</v>
+        <v>2.9056036839928456</v>
       </c>
       <c r="G491" t="n">
-        <v>2.5490379100272333</v>
+        <v>2.7045973566474872</v>
       </c>
       <c r="H491" t="n">
-        <v>2.684965996948682</v>
+        <v>2.811408751597406</v>
       </c>
       <c r="I491" t="n">
-        <v>2.5490379100272333</v>
+        <v>2.9357595220719155</v>
       </c>
       <c r="J491" t="n">
-        <v>2.684965996948682</v>
+        <v>2.7091685060507786</v>
       </c>
       <c r="K491" t="n">
-        <v>2.5490379100272333</v>
+        <v>2.9214909483026563</v>
       </c>
       <c r="L491" t="n">
-        <v>2.684965996948682</v>
+        <v>2.6450902634453404</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>2.4452950591690037</v>
       </c>
       <c r="C494" t="n">
-        <v>2.2886021302683224</v>
+        <v>2.2905558229880696</v>
       </c>
       <c r="D494" t="n">
-        <v>2.4452950591690037</v>
+        <v>2.335318221743792</v>
       </c>
       <c r="E494" t="n">
-        <v>2.2886021302683224</v>
+        <v>2.5150661066184394</v>
       </c>
       <c r="F494" t="n">
-        <v>2.4452950591690037</v>
+        <v>2.537958091742481</v>
       </c>
       <c r="G494" t="n">
-        <v>2.2886021302683224</v>
+        <v>2.4445090199601087</v>
       </c>
       <c r="H494" t="n">
-        <v>2.4452950591690037</v>
+        <v>2.248685447602312</v>
       </c>
       <c r="I494" t="n">
-        <v>2.2886021302683224</v>
+        <v>2.607577888069555</v>
       </c>
       <c r="J494" t="n">
-        <v>2.4452950591690037</v>
+        <v>2.5534523395617628</v>
       </c>
       <c r="K494" t="n">
-        <v>2.2886021302683224</v>
+        <v>2.2918109232101895</v>
       </c>
       <c r="L494" t="n">
-        <v>2.4452950591690037</v>
+        <v>2.5150661066184394</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>5.570095265924554</v>
       </c>
       <c r="C496" t="n">
-        <v>5.21316715690112</v>
+        <v>5.2176174397119945</v>
       </c>
       <c r="D496" t="n">
-        <v>5.570095265924554</v>
+        <v>5.319580932610642</v>
       </c>
       <c r="E496" t="n">
-        <v>5.21316715690112</v>
+        <v>5.729025526565071</v>
       </c>
       <c r="F496" t="n">
-        <v>5.570095265924554</v>
+        <v>5.781170783019468</v>
       </c>
       <c r="G496" t="n">
-        <v>5.21316715690112</v>
+        <v>5.568304760823797</v>
       </c>
       <c r="H496" t="n">
-        <v>5.570095265924554</v>
+        <v>5.122241636761675</v>
       </c>
       <c r="I496" t="n">
-        <v>5.21316715690112</v>
+        <v>5.939756511347833</v>
       </c>
       <c r="J496" t="n">
-        <v>5.570095265924554</v>
+        <v>5.816464861786622</v>
       </c>
       <c r="K496" t="n">
-        <v>5.21316715690112</v>
+        <v>5.220476410771244</v>
       </c>
       <c r="L496" t="n">
-        <v>5.570095265924554</v>
+        <v>5.729025526565071</v>
       </c>
     </row>
     <row r="497">
@@ -19258,34 +19258,34 @@
         <v>4.338519583956852</v>
       </c>
       <c r="C505" t="n">
-        <v>4.060510049625159</v>
+        <v>4.063976352840338</v>
       </c>
       <c r="D505" t="n">
-        <v>4.338519583956852</v>
+        <v>4.1433952118849335</v>
       </c>
       <c r="E505" t="n">
-        <v>4.060510049625159</v>
+        <v>4.4623095759324745</v>
       </c>
       <c r="F505" t="n">
-        <v>4.338519583956852</v>
+        <v>4.502925257628595</v>
       </c>
       <c r="G505" t="n">
-        <v>4.060510049625159</v>
+        <v>4.337124968411885</v>
       </c>
       <c r="H505" t="n">
-        <v>4.338519583956852</v>
+        <v>3.9896886128321984</v>
       </c>
       <c r="I505" t="n">
-        <v>4.060510049625159</v>
+        <v>4.626446895094604</v>
       </c>
       <c r="J505" t="n">
-        <v>4.338519583956852</v>
+        <v>4.530415640578732</v>
       </c>
       <c r="K505" t="n">
-        <v>4.060510049625159</v>
+        <v>4.066203191222511</v>
       </c>
       <c r="L505" t="n">
-        <v>4.338519583956852</v>
+        <v>4.4623095759324745</v>
       </c>
     </row>
     <row r="506">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>2.0492141714561636</v>
+        <v>2.0699133045011755</v>
       </c>
       <c r="C508" t="n">
-        <v>1.9179018501613379</v>
+        <v>1.9389283738694856</v>
       </c>
       <c r="D508" t="n">
-        <v>2.0492141714561636</v>
+        <v>1.9768192142318526</v>
       </c>
       <c r="E508" t="n">
-        <v>1.9179018501613379</v>
+        <v>2.1289736697699984</v>
       </c>
       <c r="F508" t="n">
-        <v>2.0492141714561636</v>
+        <v>2.1483514640353656</v>
       </c>
       <c r="G508" t="n">
-        <v>1.9179018501613379</v>
+        <v>2.069247931621019</v>
       </c>
       <c r="H508" t="n">
-        <v>2.0492141714561636</v>
+        <v>1.903485597035474</v>
       </c>
       <c r="I508" t="n">
-        <v>1.9179018501613379</v>
+        <v>2.2072837970205903</v>
       </c>
       <c r="J508" t="n">
-        <v>2.0492141714561636</v>
+        <v>2.1614671612941123</v>
       </c>
       <c r="K508" t="n">
-        <v>1.9179018501613379</v>
+        <v>1.9399908013415843</v>
       </c>
       <c r="L508" t="n">
-        <v>2.0492141714561636</v>
+        <v>2.1289736697699984</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.779965411824403</v>
+        <v>2.8080458705297002</v>
       </c>
       <c r="C510" t="n">
-        <v>2.544101516193444</v>
+        <v>2.5748143372098733</v>
       </c>
       <c r="D510" t="n">
-        <v>2.779965411824403</v>
+        <v>2.8284063221531737</v>
       </c>
       <c r="E510" t="n">
-        <v>2.544101516193444</v>
+        <v>2.637190120767743</v>
       </c>
       <c r="F510" t="n">
-        <v>2.779965411824403</v>
+        <v>2.632740419680494</v>
       </c>
       <c r="G510" t="n">
-        <v>2.544101516193444</v>
+        <v>2.8438714866087182</v>
       </c>
       <c r="H510" t="n">
-        <v>2.779965411824403</v>
+        <v>2.5112727806587607</v>
       </c>
       <c r="I510" t="n">
-        <v>2.544101516193444</v>
+        <v>2.5635336604313976</v>
       </c>
       <c r="J510" t="n">
-        <v>2.779965411824403</v>
+        <v>2.6136306346157046</v>
       </c>
       <c r="K510" t="n">
-        <v>2.544101516193444</v>
+        <v>2.736714002319679</v>
       </c>
       <c r="L510" t="n">
-        <v>2.779965411824403</v>
+        <v>2.637190120767743</v>
       </c>
     </row>
     <row r="511">
@@ -19600,34 +19600,34 @@
         <v>0.5826867248620726</v>
       </c>
       <c r="C514" t="n">
-        <v>0.6018305485059152</v>
+        <v>0.605135292528146</v>
       </c>
       <c r="D514" t="n">
-        <v>0.5826867248620726</v>
+        <v>0.6616589182880568</v>
       </c>
       <c r="E514" t="n">
-        <v>0.6018305485059152</v>
+        <v>0.6336328501915859</v>
       </c>
       <c r="F514" t="n">
-        <v>0.5826867248620726</v>
+        <v>0.6584430795878151</v>
       </c>
       <c r="G514" t="n">
-        <v>0.6018305485059152</v>
+        <v>0.5961481345210272</v>
       </c>
       <c r="H514" t="n">
-        <v>0.5826867248620726</v>
+        <v>0.654862421826594</v>
       </c>
       <c r="I514" t="n">
-        <v>0.6018305485059152</v>
+        <v>0.6095597912396986</v>
       </c>
       <c r="J514" t="n">
-        <v>0.5826867248620726</v>
+        <v>0.5814363240983946</v>
       </c>
       <c r="K514" t="n">
-        <v>0.6018305485059152</v>
+        <v>0.6105900329017883</v>
       </c>
       <c r="L514" t="n">
-        <v>0.5826867248620726</v>
+        <v>0.6336328501915859</v>
       </c>
     </row>
     <row r="515">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.9044584066082861</v>
+        <v>0.9137827200784746</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9341738462957072</v>
+        <v>0.9489870800690439</v>
       </c>
       <c r="D517" t="n">
-        <v>0.9044584066082861</v>
+        <v>1.0376287296755544</v>
       </c>
       <c r="E517" t="n">
-        <v>0.9341738462957072</v>
+        <v>0.9936776052624149</v>
       </c>
       <c r="F517" t="n">
-        <v>0.9044584066082861</v>
+        <v>1.0325855774816612</v>
       </c>
       <c r="G517" t="n">
-        <v>0.9341738462957072</v>
+        <v>0.9348932122338637</v>
       </c>
       <c r="H517" t="n">
-        <v>0.9044584066082861</v>
+        <v>1.0269703076477843</v>
       </c>
       <c r="I517" t="n">
-        <v>0.9341738462957072</v>
+        <v>0.9559256806842943</v>
       </c>
       <c r="J517" t="n">
-        <v>0.9044584066082861</v>
+        <v>0.9118218128494788</v>
       </c>
       <c r="K517" t="n">
-        <v>0.9341738462957072</v>
+        <v>0.9575413293478969</v>
       </c>
       <c r="L517" t="n">
-        <v>0.9044584066082861</v>
+        <v>0.9936776052624149</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.3214038233443623</v>
+        <v>1.3346178615778062</v>
       </c>
       <c r="C518" t="n">
-        <v>1.231002163967343</v>
+        <v>1.2376230979938863</v>
       </c>
       <c r="D518" t="n">
-        <v>1.3214038233443623</v>
+        <v>1.3695642135786619</v>
       </c>
       <c r="E518" t="n">
-        <v>1.231002163967343</v>
+        <v>1.332998179619544</v>
       </c>
       <c r="F518" t="n">
-        <v>1.3214038233443623</v>
+        <v>1.3807548701171406</v>
       </c>
       <c r="G518" t="n">
-        <v>1.231002163967343</v>
+        <v>1.3411361406855191</v>
       </c>
       <c r="H518" t="n">
-        <v>1.3214038233443623</v>
+        <v>1.2037156163496452</v>
       </c>
       <c r="I518" t="n">
-        <v>1.231002163967343</v>
+        <v>1.3178050388654463</v>
       </c>
       <c r="J518" t="n">
-        <v>1.3214038233443623</v>
+        <v>1.1810650530217615</v>
       </c>
       <c r="K518" t="n">
-        <v>1.231002163967343</v>
+        <v>1.2839164225257875</v>
       </c>
       <c r="L518" t="n">
-        <v>1.3214038233443623</v>
+        <v>1.332998179619544</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>3.32020182025845</v>
+        <v>3.3537392123822727</v>
       </c>
       <c r="C521" t="n">
-        <v>3.429285064130255</v>
+        <v>3.4829452478575926</v>
       </c>
       <c r="D521" t="n">
-        <v>3.32020182025845</v>
+        <v>3.8082752958038637</v>
       </c>
       <c r="E521" t="n">
-        <v>3.429285064130255</v>
+        <v>3.646967135632068</v>
       </c>
       <c r="F521" t="n">
-        <v>3.32020182025845</v>
+        <v>3.7897660628155028</v>
       </c>
       <c r="G521" t="n">
-        <v>3.429285064130255</v>
+        <v>3.431218337100386</v>
       </c>
       <c r="H521" t="n">
-        <v>3.32020182025845</v>
+        <v>3.7691570600228435</v>
       </c>
       <c r="I521" t="n">
-        <v>3.429285064130255</v>
+        <v>3.508411101447412</v>
       </c>
       <c r="J521" t="n">
-        <v>3.32020182025845</v>
+        <v>3.346542346736617</v>
       </c>
       <c r="K521" t="n">
-        <v>3.429285064130255</v>
+        <v>3.5143408089779853</v>
       </c>
       <c r="L521" t="n">
-        <v>3.32020182025845</v>
+        <v>3.646967135632068</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.427480439057093</v>
+        <v>1.441899433391003</v>
       </c>
       <c r="C522" t="n">
-        <v>1.4743794546246993</v>
+        <v>1.4974499987583754</v>
       </c>
       <c r="D522" t="n">
-        <v>1.427480439057093</v>
+        <v>1.6373217007878196</v>
       </c>
       <c r="E522" t="n">
-        <v>1.4743794546246993</v>
+        <v>1.5679692168814037</v>
       </c>
       <c r="F522" t="n">
-        <v>1.427480439057093</v>
+        <v>1.6293638809132498</v>
       </c>
       <c r="G522" t="n">
-        <v>1.4743794546246993</v>
+        <v>1.475210641852952</v>
       </c>
       <c r="H522" t="n">
-        <v>1.427480439057093</v>
+        <v>1.6205032905191683</v>
       </c>
       <c r="I522" t="n">
-        <v>1.4743794546246993</v>
+        <v>1.508398733152036</v>
       </c>
       <c r="J522" t="n">
-        <v>1.427480439057093</v>
+        <v>1.4388052284336381</v>
       </c>
       <c r="K522" t="n">
-        <v>1.4743794546246993</v>
+        <v>1.5109481388711634</v>
       </c>
       <c r="L522" t="n">
-        <v>1.427480439057093</v>
+        <v>1.5679692168814037</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>3.792317476912528</v>
       </c>
       <c r="C523" t="n">
-        <v>3.8644619311017716</v>
+        <v>3.901777033277259</v>
       </c>
       <c r="D523" t="n">
-        <v>3.792317476912528</v>
+        <v>3.5554275099426174</v>
       </c>
       <c r="E523" t="n">
-        <v>3.8644619311017716</v>
+        <v>3.64941237656106</v>
       </c>
       <c r="F523" t="n">
-        <v>3.792317476912528</v>
+        <v>3.481038198125587</v>
       </c>
       <c r="G523" t="n">
-        <v>3.8644619311017716</v>
+        <v>3.5534803956269174</v>
       </c>
       <c r="H523" t="n">
-        <v>3.792317476912528</v>
+        <v>3.961327961858483</v>
       </c>
       <c r="I523" t="n">
-        <v>3.8644619311017716</v>
+        <v>3.7935369079741816</v>
       </c>
       <c r="J523" t="n">
-        <v>3.792317476912528</v>
+        <v>3.9206375838837944</v>
       </c>
       <c r="K523" t="n">
-        <v>3.8644619311017716</v>
+        <v>3.62292306314165</v>
       </c>
       <c r="L523" t="n">
-        <v>3.792317476912528</v>
+        <v>3.64941237656106</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>3.7824696863761154</v>
+        <v>3.8202943832398764</v>
       </c>
       <c r="C524" t="n">
-        <v>3.7915018250061827</v>
+        <v>3.792793766242892</v>
       </c>
       <c r="D524" t="n">
-        <v>3.7824696863761154</v>
+        <v>3.855236100026131</v>
       </c>
       <c r="E524" t="n">
-        <v>3.7915018250061827</v>
+        <v>3.841182994767382</v>
       </c>
       <c r="F524" t="n">
-        <v>3.7824696863761154</v>
+        <v>3.8599433482621985</v>
       </c>
       <c r="G524" t="n">
-        <v>3.7915018250061827</v>
+        <v>3.3919459250219752</v>
       </c>
       <c r="H524" t="n">
-        <v>3.7824696863761154</v>
+        <v>3.562020961060167</v>
       </c>
       <c r="I524" t="n">
-        <v>3.7915018250061827</v>
+        <v>3.5301994466215585</v>
       </c>
       <c r="J524" t="n">
-        <v>3.7824696863761154</v>
+        <v>3.4625340664409885</v>
       </c>
       <c r="K524" t="n">
-        <v>3.7915018250061827</v>
+        <v>3.4777707408177974</v>
       </c>
       <c r="L524" t="n">
-        <v>3.7824696863761154</v>
+        <v>3.841182994767382</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.5846833910628932</v>
       </c>
       <c r="C531" t="n">
-        <v>1.6148301598940908</v>
+        <v>1.6304229004843254</v>
       </c>
       <c r="D531" t="n">
-        <v>1.5846833910628932</v>
+        <v>1.4856949497069025</v>
       </c>
       <c r="E531" t="n">
-        <v>1.6148301598940908</v>
+        <v>1.5249681007677578</v>
       </c>
       <c r="F531" t="n">
-        <v>1.5846833910628932</v>
+        <v>1.4546101295074554</v>
       </c>
       <c r="G531" t="n">
-        <v>1.6148301598940908</v>
+        <v>1.4848813153697524</v>
       </c>
       <c r="H531" t="n">
-        <v>1.5846833910628932</v>
+        <v>1.655307253658751</v>
       </c>
       <c r="I531" t="n">
-        <v>1.6148301598940908</v>
+        <v>1.5851929507613396</v>
       </c>
       <c r="J531" t="n">
-        <v>1.5846833910628932</v>
+        <v>1.6383040975292549</v>
       </c>
       <c r="K531" t="n">
-        <v>1.6148301598940908</v>
+        <v>1.513899097375517</v>
       </c>
       <c r="L531" t="n">
-        <v>1.5846833910628932</v>
+        <v>1.5249681007677578</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>2.7216450989123255</v>
+        <v>2.7488615499014486</v>
       </c>
       <c r="C532" t="n">
-        <v>2.7734212493409856</v>
+        <v>2.828203315877552</v>
       </c>
       <c r="D532" t="n">
-        <v>2.7216450989123255</v>
+        <v>2.5771518431784872</v>
       </c>
       <c r="E532" t="n">
-        <v>2.7734212493409856</v>
+        <v>2.645276779366685</v>
       </c>
       <c r="F532" t="n">
-        <v>2.7216450989123255</v>
+        <v>2.523230746059808</v>
       </c>
       <c r="G532" t="n">
-        <v>2.7734212493409856</v>
+        <v>2.5757404772503247</v>
       </c>
       <c r="H532" t="n">
-        <v>2.7216450989123255</v>
+        <v>2.8713688100204964</v>
       </c>
       <c r="I532" t="n">
-        <v>2.7734212493409856</v>
+        <v>2.7497454545794042</v>
       </c>
       <c r="J532" t="n">
-        <v>2.7216450989123255</v>
+        <v>2.8418743871124645</v>
       </c>
       <c r="K532" t="n">
-        <v>2.7734212493409856</v>
+        <v>2.6260759989506988</v>
       </c>
       <c r="L532" t="n">
-        <v>2.7216450989123255</v>
+        <v>2.645276779366685</v>
       </c>
     </row>
     <row r="533">
@@ -20360,34 +20360,34 @@
         <v>1.2539809624334695</v>
       </c>
       <c r="C534" t="n">
-        <v>1.277836500016815</v>
+        <v>1.290175242230301</v>
       </c>
       <c r="D534" t="n">
-        <v>1.2539809624334695</v>
+        <v>1.1756500973146542</v>
       </c>
       <c r="E534" t="n">
-        <v>1.277836500016815</v>
+        <v>1.2067274620695496</v>
       </c>
       <c r="F534" t="n">
-        <v>1.2539809624334695</v>
+        <v>1.1510522672555978</v>
       </c>
       <c r="G534" t="n">
-        <v>1.277836500016815</v>
+        <v>1.1750062576840234</v>
       </c>
       <c r="H534" t="n">
-        <v>1.2539809624334695</v>
+        <v>1.3098665605839759</v>
       </c>
       <c r="I534" t="n">
-        <v>1.277836500016815</v>
+        <v>1.2543841837738827</v>
       </c>
       <c r="J534" t="n">
-        <v>1.2539809624334695</v>
+        <v>1.2964117378680193</v>
       </c>
       <c r="K534" t="n">
-        <v>1.277836500016815</v>
+        <v>1.197968413034732</v>
       </c>
       <c r="L534" t="n">
-        <v>1.2539809624334695</v>
+        <v>1.2067274620695496</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>2.647474434521619</v>
+        <v>2.620999690176403</v>
       </c>
       <c r="C537" t="n">
-        <v>2.466351845188367</v>
+        <v>2.430515767683682</v>
       </c>
       <c r="D537" t="n">
-        <v>2.647474434521619</v>
+        <v>2.689629355943617</v>
       </c>
       <c r="E537" t="n">
-        <v>2.466351845188367</v>
+        <v>2.617818865138013</v>
       </c>
       <c r="F537" t="n">
-        <v>2.647474434521619</v>
+        <v>2.711606214012598</v>
       </c>
       <c r="G537" t="n">
-        <v>2.466351845188367</v>
+        <v>2.6338006634089965</v>
       </c>
       <c r="H537" t="n">
-        <v>2.647474434521619</v>
+        <v>2.3639262955638105</v>
       </c>
       <c r="I537" t="n">
-        <v>2.466351845188367</v>
+        <v>2.587981697244711</v>
       </c>
       <c r="J537" t="n">
-        <v>2.647474434521619</v>
+        <v>2.319443810221887</v>
       </c>
       <c r="K537" t="n">
-        <v>2.466351845188367</v>
+        <v>2.5214292739002895</v>
       </c>
       <c r="L537" t="n">
-        <v>2.647474434521619</v>
+        <v>2.617818865138013</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.29536990451476786</v>
       </c>
       <c r="C547" t="n">
-        <v>0.328889613217054</v>
+        <v>0.32709349258638964</v>
       </c>
       <c r="D547" t="n">
-        <v>0.29536990451476786</v>
+        <v>0.3274909330605832</v>
       </c>
       <c r="E547" t="n">
-        <v>0.328889613217054</v>
+        <v>0.33881211525824095</v>
       </c>
       <c r="F547" t="n">
-        <v>0.29536990451476786</v>
+        <v>0.3360661318146999</v>
       </c>
       <c r="G547" t="n">
-        <v>0.328889613217054</v>
+        <v>0.2898118685164882</v>
       </c>
       <c r="H547" t="n">
-        <v>0.29536990451476786</v>
+        <v>0.3286890703427318</v>
       </c>
       <c r="I547" t="n">
-        <v>0.328889613217054</v>
+        <v>0.3241431604312525</v>
       </c>
       <c r="J547" t="n">
-        <v>0.29536990451476786</v>
+        <v>0.31504972268817744</v>
       </c>
       <c r="K547" t="n">
-        <v>0.328889613217054</v>
+        <v>0.3233653723619248</v>
       </c>
       <c r="L547" t="n">
-        <v>0.29536990451476786</v>
+        <v>0.33881211525824095</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>4.641003126908408</v>
       </c>
       <c r="C549" t="n">
-        <v>5.31113688039176</v>
+        <v>5.2748962367598855</v>
       </c>
       <c r="D549" t="n">
-        <v>4.641003126908408</v>
+        <v>5.0576338580342854</v>
       </c>
       <c r="E549" t="n">
-        <v>5.31113688039176</v>
+        <v>4.737584791914218</v>
       </c>
       <c r="F549" t="n">
-        <v>4.641003126908408</v>
+        <v>4.830167412021711</v>
       </c>
       <c r="G549" t="n">
-        <v>5.31113688039176</v>
+        <v>5.227087509719668</v>
       </c>
       <c r="H549" t="n">
-        <v>4.641003126908408</v>
+        <v>4.75843225086243</v>
       </c>
       <c r="I549" t="n">
-        <v>5.31113688039176</v>
+        <v>5.255668186876337</v>
       </c>
       <c r="J549" t="n">
-        <v>4.641003126908408</v>
+        <v>4.865483596278274</v>
       </c>
       <c r="K549" t="n">
-        <v>5.31113688039176</v>
+        <v>5.281336891848626</v>
       </c>
       <c r="L549" t="n">
-        <v>4.641003126908408</v>
+        <v>4.737584791914218</v>
       </c>
     </row>
     <row r="550">
@@ -20968,34 +20968,34 @@
         <v>2.918761954138299</v>
       </c>
       <c r="C550" t="n">
-        <v>2.884713148415344</v>
+        <v>2.895106153059307</v>
       </c>
       <c r="D550" t="n">
-        <v>2.918761954138299</v>
+        <v>2.7923934291422143</v>
       </c>
       <c r="E550" t="n">
-        <v>2.884713148415344</v>
+        <v>2.4912823331871334</v>
       </c>
       <c r="F550" t="n">
-        <v>2.918761954138299</v>
+        <v>2.543127201453588</v>
       </c>
       <c r="G550" t="n">
-        <v>2.884713148415344</v>
+        <v>2.835012374369295</v>
       </c>
       <c r="H550" t="n">
-        <v>2.918761954138299</v>
+        <v>2.5928253894372757</v>
       </c>
       <c r="I550" t="n">
-        <v>2.884713148415344</v>
+        <v>2.6161973353611043</v>
       </c>
       <c r="J550" t="n">
-        <v>2.918761954138299</v>
+        <v>2.5543180808280055</v>
       </c>
       <c r="K550" t="n">
-        <v>2.884713148415344</v>
+        <v>2.8058914012545406</v>
       </c>
       <c r="L550" t="n">
-        <v>2.918761954138299</v>
+        <v>2.4912823331871334</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>3.4974875343693874</v>
+        <v>3.5674372850567755</v>
       </c>
       <c r="C552" t="n">
-        <v>3.4566876077404425</v>
+        <v>3.5385241403388825</v>
       </c>
       <c r="D552" t="n">
-        <v>3.4974875343693874</v>
+        <v>3.4129842002173323</v>
       </c>
       <c r="E552" t="n">
-        <v>3.4566876077404425</v>
+        <v>3.0449531762650563</v>
       </c>
       <c r="F552" t="n">
-        <v>3.4974875343693874</v>
+        <v>3.1083202198947624</v>
       </c>
       <c r="G552" t="n">
-        <v>3.4566876077404425</v>
+        <v>3.46507492109209</v>
       </c>
       <c r="H552" t="n">
-        <v>3.4974875343693874</v>
+        <v>3.169063497900491</v>
       </c>
       <c r="I552" t="n">
-        <v>3.4566876077404425</v>
+        <v>3.1976297025527005</v>
       </c>
       <c r="J552" t="n">
-        <v>3.4974875343693874</v>
+        <v>3.121998197393498</v>
       </c>
       <c r="K552" t="n">
-        <v>3.4566876077404425</v>
+        <v>3.4294820063909044</v>
       </c>
       <c r="L552" t="n">
-        <v>3.4974875343693874</v>
+        <v>3.0449531762650563</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>2.406674191726911</v>
+        <v>2.3830793467099807</v>
       </c>
       <c r="C554" t="n">
-        <v>2.6315932406252203</v>
+        <v>2.5867613405600958</v>
       </c>
       <c r="D554" t="n">
-        <v>2.406674191726911</v>
+        <v>2.5710649750399726</v>
       </c>
       <c r="E554" t="n">
-        <v>2.6315932406252203</v>
+        <v>2.27801885816128</v>
       </c>
       <c r="F554" t="n">
-        <v>2.406674191726911</v>
+        <v>2.5478743710055496</v>
       </c>
       <c r="G554" t="n">
-        <v>2.6315932406252203</v>
+        <v>2.583606753391618</v>
       </c>
       <c r="H554" t="n">
-        <v>2.406674191726911</v>
+        <v>2.5417606949209537</v>
       </c>
       <c r="I554" t="n">
-        <v>2.6315932406252203</v>
+        <v>2.3217068923443933</v>
       </c>
       <c r="J554" t="n">
-        <v>2.406674191726911</v>
+        <v>2.6631772945761023</v>
       </c>
       <c r="K554" t="n">
-        <v>2.6315932406252203</v>
+        <v>2.6415929402133704</v>
       </c>
       <c r="L554" t="n">
-        <v>2.406674191726911</v>
+        <v>2.27801885816128</v>
       </c>
     </row>
     <row r="555">
@@ -21234,34 +21234,34 @@
         <v>0.40762010044008984</v>
       </c>
       <c r="C557" t="n">
-        <v>0.4236923435613867</v>
+        <v>0.4228671410181031</v>
       </c>
       <c r="D557" t="n">
-        <v>0.40762010044008984</v>
+        <v>0.4547615827084962</v>
       </c>
       <c r="E557" t="n">
-        <v>0.4236923435613867</v>
+        <v>0.39645242661766383</v>
       </c>
       <c r="F557" t="n">
-        <v>0.40762010044008984</v>
+        <v>0.38899230009473257</v>
       </c>
       <c r="G557" t="n">
-        <v>0.4236923435613867</v>
+        <v>0.43903257198716206</v>
       </c>
       <c r="H557" t="n">
-        <v>0.40762010044008984</v>
+        <v>0.4510758592038208</v>
       </c>
       <c r="I557" t="n">
-        <v>0.4236923435613867</v>
+        <v>0.4417128682037302</v>
       </c>
       <c r="J557" t="n">
-        <v>0.40762010044008984</v>
+        <v>0.44117419394556096</v>
       </c>
       <c r="K557" t="n">
-        <v>0.4236923435613867</v>
+        <v>0.4350725668398747</v>
       </c>
       <c r="L557" t="n">
-        <v>0.40762010044008984</v>
+        <v>0.39645242661766383</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>4.71461193835085</v>
+        <v>4.808904177117866</v>
       </c>
       <c r="C558" t="n">
-        <v>4.900506572138372</v>
+        <v>4.988781364344727</v>
       </c>
       <c r="D558" t="n">
-        <v>4.71461193835085</v>
+        <v>5.365056512960261</v>
       </c>
       <c r="E558" t="n">
-        <v>4.900506572138372</v>
+        <v>4.677153379658733</v>
       </c>
       <c r="F558" t="n">
-        <v>4.71461193835085</v>
+        <v>4.589142426422572</v>
       </c>
       <c r="G558" t="n">
-        <v>4.900506572138372</v>
+        <v>5.179493275823302</v>
       </c>
       <c r="H558" t="n">
-        <v>4.71461193835085</v>
+        <v>5.321574135280164</v>
       </c>
       <c r="I558" t="n">
-        <v>4.900506572138372</v>
+        <v>5.211114110168447</v>
       </c>
       <c r="J558" t="n">
-        <v>4.71461193835085</v>
+        <v>5.204759092622896</v>
       </c>
       <c r="K558" t="n">
-        <v>4.900506572138372</v>
+        <v>5.132775056398798</v>
       </c>
       <c r="L558" t="n">
-        <v>4.71461193835085</v>
+        <v>4.677153379658733</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>3.704156955594108</v>
+        <v>3.6671153860381667</v>
       </c>
       <c r="C562" t="n">
-        <v>4.099139081170189</v>
+        <v>4.088005307684162</v>
       </c>
       <c r="D562" t="n">
-        <v>3.704156955594108</v>
+        <v>3.6000820938322575</v>
       </c>
       <c r="E562" t="n">
-        <v>4.099139081170189</v>
+        <v>4.046013712256107</v>
       </c>
       <c r="F562" t="n">
-        <v>3.704156955594108</v>
+        <v>3.772480391830627</v>
       </c>
       <c r="G562" t="n">
-        <v>4.099139081170189</v>
+        <v>3.914848546753129</v>
       </c>
       <c r="H562" t="n">
-        <v>3.704156955594108</v>
+        <v>3.766115128299204</v>
       </c>
       <c r="I562" t="n">
-        <v>4.099139081170189</v>
+        <v>3.6832523082942643</v>
       </c>
       <c r="J562" t="n">
-        <v>3.704156955594108</v>
+        <v>4.068136512279336</v>
       </c>
       <c r="K562" t="n">
-        <v>4.099139081170189</v>
+        <v>3.592356595365655</v>
       </c>
       <c r="L562" t="n">
-        <v>3.704156955594108</v>
+        <v>4.046013712256107</v>
       </c>
     </row>
     <row r="563">
@@ -21652,34 +21652,34 @@
         <v>1.5878244096705747</v>
       </c>
       <c r="C568" t="n">
-        <v>1.5677291204070898</v>
+        <v>1.571514430792527</v>
       </c>
       <c r="D568" t="n">
-        <v>1.5878244096705747</v>
+        <v>1.395309218322414</v>
       </c>
       <c r="E568" t="n">
-        <v>1.5677291204070898</v>
+        <v>1.5602017904221772</v>
       </c>
       <c r="F568" t="n">
-        <v>1.5878244096705747</v>
+        <v>1.5200797098953138</v>
       </c>
       <c r="G568" t="n">
-        <v>1.5677291204070898</v>
+        <v>1.4251267861327452</v>
       </c>
       <c r="H568" t="n">
         <v>1.5878244096705747</v>
       </c>
       <c r="I568" t="n">
-        <v>1.5677291204070898</v>
+        <v>1.5781895539437734</v>
       </c>
       <c r="J568" t="n">
-        <v>1.5878244096705747</v>
+        <v>1.6214815356626864</v>
       </c>
       <c r="K568" t="n">
-        <v>1.5677291204070898</v>
+        <v>1.6347305989553609</v>
       </c>
       <c r="L568" t="n">
-        <v>1.5878244096705747</v>
+        <v>1.5602017904221772</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.0084238563221581</v>
+        <v>0.9485174886198517</v>
       </c>
       <c r="C576" t="n">
-        <v>1.122863660092568</v>
+        <v>1.0503910296535521</v>
       </c>
       <c r="D576" t="n">
-        <v>1.0084238563221581</v>
+        <v>1.0516673250197888</v>
       </c>
       <c r="E576" t="n">
-        <v>1.122863660092568</v>
+        <v>1.0880228884749452</v>
       </c>
       <c r="F576" t="n">
-        <v>1.0084238563221581</v>
+        <v>1.0792047479675766</v>
       </c>
       <c r="G576" t="n">
-        <v>1.122863660092568</v>
+        <v>0.9306690407375003</v>
       </c>
       <c r="H576" t="n">
-        <v>1.0084238563221581</v>
+        <v>1.0555148875118183</v>
       </c>
       <c r="I576" t="n">
-        <v>1.122863660092568</v>
+        <v>1.0409166668169512</v>
       </c>
       <c r="J576" t="n">
-        <v>1.0084238563221581</v>
+        <v>1.0117150298216313</v>
       </c>
       <c r="K576" t="n">
-        <v>1.122863660092568</v>
+        <v>1.0384189662221355</v>
       </c>
       <c r="L576" t="n">
-        <v>1.0084238563221581</v>
+        <v>1.0880228884749452</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>2.4161805441921005</v>
+        <v>2.4405864082748487</v>
       </c>
       <c r="C577" t="n">
-        <v>2.690377971809175</v>
+        <v>2.702712497242857</v>
       </c>
       <c r="D577" t="n">
-        <v>2.4161805441921005</v>
+        <v>2.7059964737231574</v>
       </c>
       <c r="E577" t="n">
-        <v>2.690377971809175</v>
+        <v>2.799541289816042</v>
       </c>
       <c r="F577" t="n">
-        <v>2.4161805441921005</v>
+        <v>2.7768517409919538</v>
       </c>
       <c r="G577" t="n">
-        <v>2.690377971809175</v>
+        <v>2.3946613938886068</v>
       </c>
       <c r="H577" t="n">
-        <v>2.4161805441921005</v>
+        <v>2.7158964585264944</v>
       </c>
       <c r="I577" t="n">
-        <v>2.690377971809175</v>
+        <v>2.678334453144042</v>
       </c>
       <c r="J577" t="n">
-        <v>2.4161805441921005</v>
+        <v>2.6031970738070993</v>
       </c>
       <c r="K577" t="n">
-        <v>2.690377971809175</v>
+        <v>2.6719077354537677</v>
       </c>
       <c r="L577" t="n">
-        <v>2.4161805441921005</v>
+        <v>2.799541289816042</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>4.200886235911769</v>
+        <v>4.15929330288294</v>
       </c>
       <c r="C578" t="n">
-        <v>4.184037516560915</v>
+        <v>4.139078028820476</v>
       </c>
       <c r="D578" t="n">
-        <v>4.200886235911769</v>
+        <v>3.8382661586824454</v>
       </c>
       <c r="E578" t="n">
-        <v>4.184037516560915</v>
+        <v>4.247457874406513</v>
       </c>
       <c r="F578" t="n">
-        <v>4.200886235911769</v>
+        <v>4.1542209937071854</v>
       </c>
       <c r="G578" t="n">
-        <v>4.184037516560915</v>
+        <v>4.08693607336297</v>
       </c>
       <c r="H578" t="n">
-        <v>4.200886235911769</v>
+        <v>4.282163689411667</v>
       </c>
       <c r="I578" t="n">
-        <v>4.184037516560915</v>
+        <v>3.9818366053004177</v>
       </c>
       <c r="J578" t="n">
-        <v>4.200886235911769</v>
+        <v>4.0967663470708455</v>
       </c>
       <c r="K578" t="n">
-        <v>4.184037516560915</v>
+        <v>3.6628615218672245</v>
       </c>
       <c r="L578" t="n">
-        <v>4.200886235911769</v>
+        <v>4.247457874406513</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>3.3816439350515215</v>
+        <v>3.314011056350491</v>
       </c>
       <c r="C584" t="n">
-        <v>3.338846310423073</v>
+        <v>3.279969855068098</v>
       </c>
       <c r="D584" t="n">
-        <v>3.3816439350515215</v>
+        <v>2.9122049946993793</v>
       </c>
       <c r="E584" t="n">
-        <v>3.338846310423073</v>
+        <v>3.256358796417328</v>
       </c>
       <c r="F584" t="n">
-        <v>3.3816439350515215</v>
+        <v>3.172618417027773</v>
       </c>
       <c r="G584" t="n">
-        <v>3.338846310423073</v>
+        <v>2.9744384184930217</v>
       </c>
       <c r="H584" t="n">
-        <v>3.3816439350515215</v>
+        <v>3.314011056350491</v>
       </c>
       <c r="I584" t="n">
-        <v>3.338846310423073</v>
+        <v>3.2939017683142997</v>
       </c>
       <c r="J584" t="n">
-        <v>3.3816439350515215</v>
+        <v>3.384258173716561</v>
       </c>
       <c r="K584" t="n">
-        <v>3.338846310423073</v>
+        <v>3.411910817151688</v>
       </c>
       <c r="L584" t="n">
-        <v>3.3816439350515215</v>
+        <v>3.256358796417328</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9.28775573171684</v>
+        <v>9.197583345972015</v>
       </c>
       <c r="C585" t="n">
-        <v>8.499743679756147</v>
+        <v>8.433647653492283</v>
       </c>
       <c r="D585" t="n">
-        <v>9.28775573171684</v>
+        <v>9.26427276608936</v>
       </c>
       <c r="E585" t="n">
-        <v>8.499743679756147</v>
+        <v>8.637955736228694</v>
       </c>
       <c r="F585" t="n">
-        <v>9.28775573171684</v>
+        <v>8.62338101113458</v>
       </c>
       <c r="G585" t="n">
-        <v>8.499743679756147</v>
+        <v>9.31492797102453</v>
       </c>
       <c r="H585" t="n">
-        <v>9.28775573171684</v>
+        <v>8.22552115226764</v>
       </c>
       <c r="I585" t="n">
-        <v>8.499743679756147</v>
+        <v>8.396698483267572</v>
       </c>
       <c r="J585" t="n">
-        <v>9.28775573171684</v>
+        <v>8.560788073212288</v>
       </c>
       <c r="K585" t="n">
-        <v>8.499743679756147</v>
+        <v>8.963940153041625</v>
       </c>
       <c r="L585" t="n">
-        <v>9.28775573171684</v>
+        <v>8.637955736228694</v>
       </c>
     </row>
     <row r="586">
@@ -22336,34 +22336,34 @@
         <v>4.2827757828762225</v>
       </c>
       <c r="C586" t="n">
-        <v>4.228573556431423</v>
+        <v>4.238783523950931</v>
       </c>
       <c r="D586" t="n">
-        <v>4.2827757828762225</v>
+        <v>3.7635121953409088</v>
       </c>
       <c r="E586" t="n">
-        <v>4.228573556431423</v>
+        <v>4.208270387911806</v>
       </c>
       <c r="F586" t="n">
-        <v>4.2827757828762225</v>
+        <v>4.1000506919602175</v>
       </c>
       <c r="G586" t="n">
-        <v>4.228573556431423</v>
+        <v>3.8439379379762992</v>
       </c>
       <c r="H586" t="n">
         <v>4.2827757828762225</v>
       </c>
       <c r="I586" t="n">
-        <v>4.228573556431423</v>
+        <v>4.256788068789618</v>
       </c>
       <c r="J586" t="n">
-        <v>4.2827757828762225</v>
+        <v>4.373557813459904</v>
       </c>
       <c r="K586" t="n">
-        <v>4.228573556431423</v>
+        <v>4.409293986219355</v>
       </c>
       <c r="L586" t="n">
-        <v>4.2827757828762225</v>
+        <v>4.208270387911806</v>
       </c>
     </row>
     <row r="587">
@@ -22716,34 +22716,34 @@
         <v>0.6459338301800733</v>
       </c>
       <c r="C596" t="n">
-        <v>0.6834075027470053</v>
+        <v>0.6865489802815637</v>
       </c>
       <c r="D596" t="n">
-        <v>0.6459338301800733</v>
+        <v>0.6431038899186563</v>
       </c>
       <c r="E596" t="n">
-        <v>0.6834075027470053</v>
+        <v>0.6863282893611348</v>
       </c>
       <c r="F596" t="n">
-        <v>0.6459338301800733</v>
+        <v>0.7169155694934644</v>
       </c>
       <c r="G596" t="n">
-        <v>0.6834075027470053</v>
+        <v>0.7380940935160593</v>
       </c>
       <c r="H596" t="n">
-        <v>0.6459338301800733</v>
+        <v>0.7061381260985372</v>
       </c>
       <c r="I596" t="n">
-        <v>0.6834075027470053</v>
+        <v>0.7160412821670903</v>
       </c>
       <c r="J596" t="n">
-        <v>0.6459338301800733</v>
+        <v>0.6434562759321218</v>
       </c>
       <c r="K596" t="n">
-        <v>0.6834075027470053</v>
+        <v>0.7125653541684588</v>
       </c>
       <c r="L596" t="n">
-        <v>0.6459338301800733</v>
+        <v>0.6863282893611348</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.43757856021399955</v>
+        <v>0.4421846503215154</v>
       </c>
       <c r="C598" t="n">
-        <v>0.4519549419464755</v>
+        <v>0.45922024015066615</v>
       </c>
       <c r="D598" t="n">
-        <v>0.43757856021399955</v>
+        <v>0.5021144380534357</v>
       </c>
       <c r="E598" t="n">
-        <v>0.4519549419464755</v>
+        <v>0.48084623922145026</v>
       </c>
       <c r="F598" t="n">
-        <v>0.43757856021399955</v>
+        <v>0.49967402805182914</v>
       </c>
       <c r="G598" t="n">
-        <v>0.4519549419464755</v>
+        <v>0.4524001374244496</v>
       </c>
       <c r="H598" t="n">
-        <v>0.43757856021399955</v>
+        <v>0.4969567670734855</v>
       </c>
       <c r="I598" t="n">
-        <v>0.4519549419464755</v>
+        <v>0.46257786841322696</v>
       </c>
       <c r="J598" t="n">
-        <v>0.43757856021399955</v>
+        <v>0.44123575617161076</v>
       </c>
       <c r="K598" t="n">
-        <v>0.4519549419464755</v>
+        <v>0.46335968998159305</v>
       </c>
       <c r="L598" t="n">
-        <v>0.43757856021399955</v>
+        <v>0.48084623922145026</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>2.1370770973822952</v>
+        <v>2.158663734729591</v>
       </c>
       <c r="C606" t="n">
-        <v>2.0288862294975836</v>
+        <v>2.0741237908005625</v>
       </c>
       <c r="D606" t="n">
-        <v>2.1370770973822952</v>
+        <v>2.319236201890065</v>
       </c>
       <c r="E606" t="n">
-        <v>2.0288862294975836</v>
+        <v>2.1266043716288183</v>
       </c>
       <c r="F606" t="n">
-        <v>2.1370770973822952</v>
+        <v>2.336052414540852</v>
       </c>
       <c r="G606" t="n">
-        <v>2.0288862294975836</v>
+        <v>2.174446990194801</v>
       </c>
       <c r="H606" t="n">
-        <v>2.1370770973822952</v>
+        <v>2.2603214053629257</v>
       </c>
       <c r="I606" t="n">
-        <v>2.0288862294975836</v>
+        <v>2.360297158841392</v>
       </c>
       <c r="J606" t="n">
-        <v>2.1370770973822952</v>
+        <v>2.178122111017236</v>
       </c>
       <c r="K606" t="n">
-        <v>2.0288862294975836</v>
+        <v>2.348825485540122</v>
       </c>
       <c r="L606" t="n">
-        <v>2.1370770973822952</v>
+        <v>2.1266043716288183</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.7159405145864706</v>
+        <v>2.7442315616134123</v>
       </c>
       <c r="C607" t="n">
-        <v>2.5784443232902907</v>
+        <v>2.6367589716891047</v>
       </c>
       <c r="D607" t="n">
-        <v>2.7159405145864706</v>
+        <v>2.948361563530133</v>
       </c>
       <c r="E607" t="n">
-        <v>2.5784443232902907</v>
+        <v>2.7034756464373113</v>
       </c>
       <c r="F607" t="n">
-        <v>2.7159405145864706</v>
+        <v>2.969739409815614</v>
       </c>
       <c r="G607" t="n">
-        <v>2.5784443232902907</v>
+        <v>2.7642962465830068</v>
       </c>
       <c r="H607" t="n">
-        <v>2.7159405145864706</v>
+        <v>2.8734653017943694</v>
       </c>
       <c r="I607" t="n">
-        <v>2.5784443232902907</v>
+        <v>3.000560881192732</v>
       </c>
       <c r="J607" t="n">
-        <v>2.7159405145864706</v>
+        <v>2.7689682954952155</v>
       </c>
       <c r="K607" t="n">
-        <v>2.5784443232902907</v>
+        <v>2.985977355546109</v>
       </c>
       <c r="L607" t="n">
-        <v>2.7159405145864706</v>
+        <v>2.7034756464373113</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>1.60311683729312</v>
+        <v>1.6196438149971726</v>
       </c>
       <c r="C608" t="n">
-        <v>1.5030485742960147</v>
+        <v>1.5148862002262027</v>
       </c>
       <c r="D608" t="n">
-        <v>1.60311683729312</v>
+        <v>1.5742066995632435</v>
       </c>
       <c r="E608" t="n">
-        <v>1.5030485742960147</v>
+        <v>1.6443636522229566</v>
       </c>
       <c r="F608" t="n">
-        <v>1.60311683729312</v>
+        <v>1.4758726926311678</v>
       </c>
       <c r="G608" t="n">
-        <v>1.5030485742960147</v>
+        <v>1.6792192409660462</v>
       </c>
       <c r="H608" t="n">
-        <v>1.60311683729312</v>
+        <v>1.634385718608212</v>
       </c>
       <c r="I608" t="n">
-        <v>1.5030485742960147</v>
+        <v>1.6929400768291225</v>
       </c>
       <c r="J608" t="n">
-        <v>1.60311683729312</v>
+        <v>1.6157574469054037</v>
       </c>
       <c r="K608" t="n">
-        <v>1.5030485742960147</v>
+        <v>1.6423583305891907</v>
       </c>
       <c r="L608" t="n">
-        <v>1.60311683729312</v>
+        <v>1.6443636522229566</v>
       </c>
     </row>
     <row r="609">
@@ -23210,34 +23210,34 @@
         <v>4.925743491813516</v>
       </c>
       <c r="C609" t="n">
-        <v>4.6101050285321055</v>
+        <v>4.6140405001076985</v>
       </c>
       <c r="D609" t="n">
-        <v>4.925743491813516</v>
+        <v>4.704208798416817</v>
       </c>
       <c r="E609" t="n">
-        <v>4.6101050285321055</v>
+        <v>5.0662886099179385</v>
       </c>
       <c r="F609" t="n">
-        <v>4.925743491813516</v>
+        <v>5.112401673581413</v>
       </c>
       <c r="G609" t="n">
-        <v>4.6101050285321055</v>
+        <v>4.924160113356586</v>
       </c>
       <c r="H609" t="n">
-        <v>4.925743491813516</v>
+        <v>4.529697824043783</v>
       </c>
       <c r="I609" t="n">
-        <v>4.6101050285321055</v>
+        <v>5.2526421150666245</v>
       </c>
       <c r="J609" t="n">
-        <v>4.925743491813516</v>
+        <v>5.143612913333523</v>
       </c>
       <c r="K609" t="n">
-        <v>4.6101050285321055</v>
+        <v>4.616568743776085</v>
       </c>
       <c r="L609" t="n">
-        <v>4.925743491813516</v>
+        <v>5.0662886099179385</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>0.6227487997808127</v>
+        <v>0.6292357664451961</v>
       </c>
       <c r="C611" t="n">
-        <v>0.6809486459547388</v>
+        <v>0.6830166007629048</v>
       </c>
       <c r="D611" t="n">
-        <v>0.6227487997808127</v>
+        <v>0.6788720830396094</v>
       </c>
       <c r="E611" t="n">
-        <v>0.6809486459547388</v>
+        <v>0.6014952645914433</v>
       </c>
       <c r="F611" t="n">
-        <v>0.6227487997808127</v>
+        <v>0.6727487630066139</v>
       </c>
       <c r="G611" t="n">
-        <v>0.6809486459547388</v>
+        <v>0.6821836536444986</v>
       </c>
       <c r="H611" t="n">
-        <v>0.6227487997808127</v>
+        <v>0.671134488743275</v>
       </c>
       <c r="I611" t="n">
-        <v>0.6809486459547388</v>
+        <v>0.613030790553534</v>
       </c>
       <c r="J611" t="n">
-        <v>0.6227487997808127</v>
+        <v>0.7031937096201009</v>
       </c>
       <c r="K611" t="n">
-        <v>0.6809486459547388</v>
+        <v>0.6974945088027177</v>
       </c>
       <c r="L611" t="n">
-        <v>0.6227487997808127</v>
+        <v>0.6014952645914433</v>
       </c>
     </row>
     <row r="612">
@@ -23476,34 +23476,34 @@
         <v>1.2396759166424822</v>
       </c>
       <c r="C616" t="n">
-        <v>1.3115953721947962</v>
+        <v>1.3176244944675524</v>
       </c>
       <c r="D616" t="n">
-        <v>1.2396759166424822</v>
+        <v>1.234244696564355</v>
       </c>
       <c r="E616" t="n">
-        <v>1.3115953721947962</v>
+        <v>1.3172009445522288</v>
       </c>
       <c r="F616" t="n">
-        <v>1.2396759166424822</v>
+        <v>1.3759040388383341</v>
       </c>
       <c r="G616" t="n">
-        <v>1.3115953721947962</v>
+        <v>1.4165498526262976</v>
       </c>
       <c r="H616" t="n">
-        <v>1.2396759166424822</v>
+        <v>1.3552199743174465</v>
       </c>
       <c r="I616" t="n">
-        <v>1.3115953721947962</v>
+        <v>1.3742261069944028</v>
       </c>
       <c r="J616" t="n">
-        <v>1.2396759166424822</v>
+        <v>1.2349209956430596</v>
       </c>
       <c r="K616" t="n">
-        <v>1.3115953721947962</v>
+        <v>1.3675551075412768</v>
       </c>
       <c r="L616" t="n">
-        <v>1.2396759166424822</v>
+        <v>1.3172009445522288</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>4.327645294363488</v>
       </c>
       <c r="C617" t="n">
-        <v>4.4698274906852085</v>
+        <v>4.494372000293297</v>
       </c>
       <c r="D617" t="n">
-        <v>4.327645294363488</v>
+        <v>4.914175974887266</v>
       </c>
       <c r="E617" t="n">
-        <v>4.4698274906852085</v>
+        <v>4.706024876634749</v>
       </c>
       <c r="F617" t="n">
-        <v>4.327645294363488</v>
+        <v>4.8902917698338095</v>
       </c>
       <c r="G617" t="n">
-        <v>4.4698274906852085</v>
+        <v>4.427623899813721</v>
       </c>
       <c r="H617" t="n">
-        <v>4.327645294363488</v>
+        <v>4.863698034212422</v>
       </c>
       <c r="I617" t="n">
-        <v>4.4698274906852085</v>
+        <v>4.527232987530479</v>
       </c>
       <c r="J617" t="n">
-        <v>4.327645294363488</v>
+        <v>4.31835850139205</v>
       </c>
       <c r="K617" t="n">
-        <v>4.4698274906852085</v>
+        <v>4.53488464714578</v>
       </c>
       <c r="L617" t="n">
-        <v>4.327645294363488</v>
+        <v>4.706024876634749</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.4887291985064262</v>
+        <v>1.5040769222023689</v>
       </c>
       <c r="C618" t="n">
-        <v>1.4827582726002135</v>
+        <v>1.4967667074665452</v>
       </c>
       <c r="D618" t="n">
-        <v>1.4887291985064262</v>
+        <v>1.387987605140305</v>
       </c>
       <c r="E618" t="n">
-        <v>1.4827582726002135</v>
+        <v>1.5359588520707321</v>
       </c>
       <c r="F618" t="n">
-        <v>1.4887291985064262</v>
+        <v>1.502242681955777</v>
       </c>
       <c r="G618" t="n">
-        <v>1.4827582726002135</v>
+        <v>1.4779112178025247</v>
       </c>
       <c r="H618" t="n">
-        <v>1.4887291985064262</v>
+        <v>1.5485091128035577</v>
       </c>
       <c r="I618" t="n">
-        <v>1.4827582726002135</v>
+        <v>1.4399053180168422</v>
       </c>
       <c r="J618" t="n">
-        <v>1.4887291985064262</v>
+        <v>1.4814660254937013</v>
       </c>
       <c r="K618" t="n">
-        <v>1.4827582726002135</v>
+        <v>1.3245580638530394</v>
       </c>
       <c r="L618" t="n">
-        <v>1.4887291985064262</v>
+        <v>1.5359588520707321</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.5072527608277941</v>
       </c>
       <c r="C622" t="n">
-        <v>0.5169026579655469</v>
+        <v>0.5218938510062988</v>
       </c>
       <c r="D622" t="n">
-        <v>0.5072527608277941</v>
+        <v>0.47556683514002146</v>
       </c>
       <c r="E622" t="n">
-        <v>0.5169026579655469</v>
+        <v>0.4881380619316798</v>
       </c>
       <c r="F622" t="n">
-        <v>0.5072527608277941</v>
+        <v>0.4656166703595165</v>
       </c>
       <c r="G622" t="n">
-        <v>0.5169026579655469</v>
+        <v>0.47530639304404737</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5072527608277941</v>
+        <v>0.5298592634794331</v>
       </c>
       <c r="I622" t="n">
-        <v>0.5169026579655469</v>
+        <v>0.5074158694747966</v>
       </c>
       <c r="J622" t="n">
-        <v>0.5072527608277941</v>
+        <v>0.5244166003341547</v>
       </c>
       <c r="K622" t="n">
-        <v>0.5169026579655469</v>
+        <v>0.48459490462846583</v>
       </c>
       <c r="L622" t="n">
-        <v>0.5072527608277941</v>
+        <v>0.4881380619316798</v>
       </c>
     </row>
     <row r="623">
